--- a/Info/Rotondas supervisadas v7.xlsx
+++ b/Info/Rotondas supervisadas v7.xlsx
@@ -3,31 +3,30 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="820" yWindow="500" windowWidth="27980" windowHeight="17500" tabRatio="600" firstSheet="13" activeTab="21" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="980" yWindow="500" windowWidth="27820" windowHeight="17500" tabRatio="600" firstSheet="14" activeTab="20" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Versiones" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Esquema" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Rot 2021-04-06" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Rot 2021-05-06" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Rot 2021-05-11" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Rot 2021-05-12" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Rot 2021-05-13" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Rot 2021-05-25" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Rot 2021-05-26" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Rot 2021-05-27" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Rot 2021-06-02" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Rot 2021-06-08" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Rot 2021-06-09" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Rot 2021-06-10" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Rot 2021-06-15" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Rot 2021-06-22" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Rot 2021-06-23" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Rot 2021-07-22" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Rot 2021-07-23" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Rot 2021-07-26" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Rot 2021-07-27" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="Rot 1 2021-07-06" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="default" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Rot 2021-04-06" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Rot 2021-05-06" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Rot 2021-05-11" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Rot 2021-05-12" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Rot 2021-05-13" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Rot 2021-05-25" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Rot 2021-05-26" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Rot 2021-05-27" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Rot 2021-06-02" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Rot 2021-06-08" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Rot 2021-06-09" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Rot 2021-06-10" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Rot 2021-06-15" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Rot 2021-06-22" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Rot 2021-06-23" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Rot 2021-07-22" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Rot 1 2021-07-16" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Rot 1 2021-07-09" sheetId="21" state="visible" r:id="rId21"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -279,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -509,6 +508,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -937,144 +937,6 @@
         <a:xfrm>
           <a:off x="14135100" y="2269080"/>
           <a:ext cx="7743962" cy="4296881"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </twoCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <twoCellAnchor editAs="oneCell">
-    <from>
-      <col>13</col>
-      <colOff>209550</colOff>
-      <row>2</row>
-      <rowOff>742096</rowOff>
-    </from>
-    <to>
-      <col>22</col>
-      <colOff>403362</colOff>
-      <row>23</row>
-      <rowOff>184211</rowOff>
-    </to>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="3" name="Imagen 2"/>
-        <cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </cNvPicPr>
-      </nvPicPr>
-      <blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:xfrm>
-          <a:off x="14293850" y="1332646"/>
-          <a:ext cx="7509012" cy="4166515"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </twoCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <twoCellAnchor editAs="oneCell">
-    <from>
-      <col>13</col>
-      <colOff>311150</colOff>
-      <row>2</row>
-      <rowOff>716353</rowOff>
-    </from>
-    <to>
-      <col>23</col>
-      <colOff>219212</colOff>
-      <row>25</row>
-      <rowOff>82611</rowOff>
-    </to>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="3" name="Imagen 2"/>
-        <cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </cNvPicPr>
-      </nvPicPr>
-      <blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:xfrm>
-          <a:off x="14382750" y="1306903"/>
-          <a:ext cx="8036062" cy="4458958"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </twoCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <twoCellAnchor editAs="oneCell">
-    <from>
-      <col>13</col>
-      <colOff>273050</colOff>
-      <row>2</row>
-      <rowOff>603387</rowOff>
-    </from>
-    <to>
-      <col>20</col>
-      <colOff>454162</colOff>
-      <row>17</row>
-      <rowOff>133411</rowOff>
-    </to>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="3" name="Imagen 2"/>
-        <cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </cNvPicPr>
-      </nvPicPr>
-      <blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:xfrm>
-          <a:off x="14166850" y="1193937"/>
-          <a:ext cx="5870712" cy="3257474"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <avLst/>
@@ -1767,7 +1629,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col width="10.83203125" customWidth="1" style="69" min="1" max="1"/>
-    <col width="131.5" bestFit="1" customWidth="1" style="100" min="2" max="2"/>
+    <col width="131.5" bestFit="1" customWidth="1" style="101" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -1884,29 +1746,28 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col width="49.6640625" bestFit="1" customWidth="1" style="100" min="1" max="1"/>
-    <col width="11" bestFit="1" customWidth="1" style="100" min="2" max="2"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="100" min="3" max="3"/>
-    <col width="11.6640625" customWidth="1" style="100" min="4" max="6"/>
-    <col width="15" customWidth="1" style="100" min="8" max="8"/>
+    <col width="39.1640625" bestFit="1" customWidth="1" style="101" min="1" max="1"/>
+    <col width="10.5" bestFit="1" customWidth="1" style="101" min="2" max="2"/>
+    <col width="9.1640625" bestFit="1" customWidth="1" style="101" min="3" max="3"/>
+    <col width="10.6640625" customWidth="1" style="101" min="4" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="25" t="n">
-        <v>44343</v>
+        <v>44342</v>
       </c>
       <c r="B1" s="89" t="n"/>
       <c r="C1" s="17" t="n"/>
@@ -1921,7 +1782,7 @@
       <c r="L1" s="18" t="n"/>
       <c r="M1" s="18" t="n"/>
     </row>
-    <row r="2" ht="17" customHeight="1" s="100">
+    <row r="2" ht="17" customHeight="1" s="101">
       <c r="A2" s="10" t="inlineStr">
         <is>
           <t>Acciones verbalizadas</t>
@@ -1988,7 +1849,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="68" customHeight="1" s="100">
+    <row r="3" ht="85" customHeight="1" s="101">
       <c r="A3" s="7" t="inlineStr">
         <is>
           <t>ROTONDA 1</t>
@@ -2057,35 +1918,33 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="17" customHeight="1" s="100">
-      <c r="A4" s="37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">levanto el pie del acelerador </t>
-        </is>
-      </c>
-      <c r="B4" s="37" t="n"/>
-      <c r="C4" s="37" t="inlineStr">
+    <row r="4" ht="17" customHeight="1" s="101">
+      <c r="A4" s="87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> levanto el pie del acelerador</t>
+        </is>
+      </c>
+      <c r="B4" s="87" t="n"/>
+      <c r="C4" s="87" t="inlineStr">
         <is>
           <t>T-OFF</t>
         </is>
       </c>
-      <c r="D4" s="38" t="n">
+      <c r="D4" s="60" t="n">
         <v>220</v>
       </c>
-      <c r="E4" s="38" t="n">
-        <v>71.56</v>
-      </c>
-      <c r="F4" s="38" t="n">
+      <c r="E4" s="61" t="n">
+        <v>65.02</v>
+      </c>
+      <c r="F4" s="60" t="n">
         <v>70</v>
       </c>
-      <c r="G4" s="46" t="inlineStr">
+      <c r="G4" s="13" t="inlineStr">
         <is>
           <t>Aprox</t>
         </is>
       </c>
-      <c r="H4" s="20" t="n">
-        <v>1</v>
-      </c>
+      <c r="H4" s="20" t="n"/>
       <c r="I4" s="21" t="n"/>
       <c r="J4" s="21" t="n"/>
       <c r="K4" s="21" t="n"/>
@@ -2093,35 +1952,33 @@
       <c r="M4" s="19" t="n"/>
       <c r="O4" s="26" t="n"/>
     </row>
-    <row r="5" ht="17" customHeight="1" s="100">
-      <c r="A5" s="37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">me aproximo a una rotonda </t>
-        </is>
-      </c>
-      <c r="B5" s="37" t="n"/>
-      <c r="C5" s="37" t="inlineStr">
-        <is>
-          <t>RND-MD</t>
-        </is>
-      </c>
-      <c r="D5" s="38" t="n">
-        <v>130</v>
-      </c>
-      <c r="E5" s="38" t="n">
-        <v>62.46</v>
-      </c>
-      <c r="F5" s="38" t="n">
+    <row r="5" ht="17" customHeight="1" s="101">
+      <c r="A5" s="87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cambio tercera </t>
+        </is>
+      </c>
+      <c r="B5" s="87" t="n"/>
+      <c r="C5" s="87" t="inlineStr">
+        <is>
+          <t>GD</t>
+        </is>
+      </c>
+      <c r="D5" s="60" t="n">
+        <v>140</v>
+      </c>
+      <c r="E5" s="61" t="n">
+        <v>53.76</v>
+      </c>
+      <c r="F5" s="60" t="n">
         <v>60</v>
       </c>
-      <c r="G5" s="46" t="inlineStr">
+      <c r="G5" s="13" t="inlineStr">
         <is>
           <t>Aprox</t>
         </is>
       </c>
-      <c r="H5" s="20" t="n">
-        <v>1</v>
-      </c>
+      <c r="H5" s="20" t="n"/>
       <c r="I5" s="21" t="n"/>
       <c r="J5" s="21" t="n"/>
       <c r="K5" s="21" t="n"/>
@@ -2129,35 +1986,33 @@
       <c r="M5" s="19" t="n"/>
       <c r="O5" s="26" t="n"/>
     </row>
-    <row r="6" ht="17" customHeight="1" s="100">
-      <c r="A6" s="37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">cambio a tercera </t>
-        </is>
-      </c>
-      <c r="B6" s="37" t="n"/>
-      <c r="C6" s="37" t="inlineStr">
-        <is>
-          <t>GD</t>
-        </is>
-      </c>
-      <c r="D6" s="38" t="n">
-        <v>67</v>
-      </c>
-      <c r="E6" s="38" t="n">
-        <v>55.18</v>
-      </c>
-      <c r="F6" s="38" t="n">
-        <v>40</v>
-      </c>
-      <c r="G6" s="46" t="inlineStr">
+    <row r="6" ht="17" customHeight="1" s="101">
+      <c r="A6" s="87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">me preparo para la rotonda </t>
+        </is>
+      </c>
+      <c r="B6" s="87" t="n"/>
+      <c r="C6" s="87" t="inlineStr">
+        <is>
+          <t>RND-MD</t>
+        </is>
+      </c>
+      <c r="D6" s="60" t="n">
+        <v>110</v>
+      </c>
+      <c r="E6" s="61" t="n">
+        <v>49.24</v>
+      </c>
+      <c r="F6" s="60" t="n">
+        <v>60</v>
+      </c>
+      <c r="G6" s="13" t="inlineStr">
         <is>
           <t>Aprox</t>
         </is>
       </c>
-      <c r="H6" s="20" t="n">
-        <v>1</v>
-      </c>
+      <c r="H6" s="20" t="n"/>
       <c r="I6" s="21" t="n"/>
       <c r="J6" s="21" t="n"/>
       <c r="K6" s="21" t="n"/>
@@ -2165,28 +2020,28 @@
       <c r="M6" s="19" t="n"/>
       <c r="O6" s="26" t="n"/>
     </row>
-    <row r="7" ht="17" customHeight="1" s="100">
-      <c r="A7" s="37" t="inlineStr">
+    <row r="7" ht="17" customHeight="1" s="101">
+      <c r="A7" s="87" t="inlineStr">
         <is>
           <t xml:space="preserve">freno </t>
         </is>
       </c>
-      <c r="B7" s="37" t="n"/>
-      <c r="C7" s="37" t="inlineStr">
+      <c r="B7" s="87" t="n"/>
+      <c r="C7" s="87" t="inlineStr">
         <is>
           <t>B-ON</t>
         </is>
       </c>
-      <c r="D7" s="38" t="n">
-        <v>51</v>
-      </c>
-      <c r="E7" s="38" t="n">
-        <v>50.99</v>
-      </c>
-      <c r="F7" s="38" t="n">
-        <v>40</v>
-      </c>
-      <c r="G7" s="46" t="inlineStr">
+      <c r="D7" s="60" t="n">
+        <v>100</v>
+      </c>
+      <c r="E7" s="61" t="n">
+        <v>48.66</v>
+      </c>
+      <c r="F7" s="60" t="n">
+        <v>60</v>
+      </c>
+      <c r="G7" s="13" t="inlineStr">
         <is>
           <t>Aprox</t>
         </is>
@@ -2201,28 +2056,28 @@
       <c r="M7" s="19" t="n"/>
       <c r="O7" s="26" t="n"/>
     </row>
-    <row r="8" ht="17" customHeight="1" s="100">
-      <c r="A8" s="37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">cambia cuarta </t>
-        </is>
-      </c>
-      <c r="B8" s="37" t="n"/>
-      <c r="C8" s="37" t="inlineStr">
+    <row r="8" ht="17" customHeight="1" s="101">
+      <c r="A8" s="87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cambio segunda </t>
+        </is>
+      </c>
+      <c r="B8" s="87" t="n"/>
+      <c r="C8" s="87" t="inlineStr">
         <is>
           <t>GD</t>
         </is>
       </c>
-      <c r="D8" s="38" t="n">
-        <v>16</v>
-      </c>
-      <c r="E8" s="38" t="n">
-        <v>33.03</v>
-      </c>
-      <c r="F8" s="38" t="n">
-        <v>40</v>
-      </c>
-      <c r="G8" s="46" t="inlineStr">
+      <c r="D8" s="60" t="n">
+        <v>37</v>
+      </c>
+      <c r="E8" s="61" t="n">
+        <v>38.51</v>
+      </c>
+      <c r="F8" s="60" t="n">
+        <v>40</v>
+      </c>
+      <c r="G8" s="13" t="inlineStr">
         <is>
           <t>Aprox</t>
         </is>
@@ -2237,34 +2092,34 @@
       <c r="M8" s="19" t="n"/>
       <c r="O8" s="26" t="n"/>
     </row>
-    <row r="9" ht="17" customHeight="1" s="100">
-      <c r="A9" s="37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">miro a la izquierda en la rotonda </t>
-        </is>
-      </c>
-      <c r="B9" s="37" t="inlineStr">
-        <is>
-          <t>LV-FREE</t>
-        </is>
-      </c>
-      <c r="C9" s="37" t="n"/>
-      <c r="D9" s="38" t="n">
-        <v>8</v>
-      </c>
-      <c r="E9" s="38" t="n">
-        <v>27.04</v>
-      </c>
-      <c r="F9" s="38" t="n">
-        <v>40</v>
-      </c>
-      <c r="G9" s="46" t="inlineStr">
+    <row r="9" ht="17" customHeight="1" s="101">
+      <c r="A9" s="87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">intermitente a la izquierda </t>
+        </is>
+      </c>
+      <c r="B9" s="87" t="n"/>
+      <c r="C9" s="87" t="inlineStr">
+        <is>
+          <t>LB-ON</t>
+        </is>
+      </c>
+      <c r="D9" s="60" t="n">
+        <v>28</v>
+      </c>
+      <c r="E9" s="61" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="F9" s="60" t="n">
+        <v>40</v>
+      </c>
+      <c r="G9" s="13" t="inlineStr">
         <is>
           <t>Aprox</t>
         </is>
       </c>
       <c r="H9" s="20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" s="21" t="n"/>
       <c r="J9" s="21" t="n"/>
@@ -2273,36 +2128,34 @@
       <c r="M9" s="19" t="n"/>
       <c r="O9" s="26" t="n"/>
     </row>
-    <row r="10" ht="17" customHeight="1" s="100">
-      <c r="A10" s="37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">vía libre </t>
-        </is>
-      </c>
-      <c r="B10" s="37" t="inlineStr">
-        <is>
-          <t>L-FREE</t>
-        </is>
-      </c>
-      <c r="C10" s="37" t="n"/>
-      <c r="D10" s="38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E10" s="38" t="n">
-        <v>27.34</v>
-      </c>
-      <c r="F10" s="38" t="n">
-        <v>40</v>
-      </c>
-      <c r="G10" s="46" t="inlineStr">
+    <row r="10" ht="17" customHeight="1" s="101">
+      <c r="A10" s="87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">mira izquierda </t>
+        </is>
+      </c>
+      <c r="B10" s="87" t="inlineStr">
+        <is>
+          <t>LV-FREE</t>
+        </is>
+      </c>
+      <c r="C10" s="87" t="n"/>
+      <c r="D10" s="60" t="n">
+        <v>20</v>
+      </c>
+      <c r="E10" s="61" t="n">
+        <v>28.19</v>
+      </c>
+      <c r="F10" s="60" t="n">
+        <v>40</v>
+      </c>
+      <c r="G10" s="13" t="inlineStr">
         <is>
           <t>Aprox</t>
         </is>
       </c>
       <c r="H10" s="20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" s="21" t="n"/>
       <c r="J10" s="21" t="n"/>
@@ -2311,36 +2164,34 @@
       <c r="M10" s="19" t="n"/>
       <c r="O10" s="26" t="n"/>
     </row>
-    <row r="11" ht="17" customHeight="1" s="100">
-      <c r="A11" s="83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">entro en la rotonda </t>
-        </is>
-      </c>
-      <c r="B11" s="83" t="n"/>
-      <c r="C11" s="83" t="inlineStr">
-        <is>
-          <t>RND-IN</t>
-        </is>
-      </c>
-      <c r="D11" s="34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E11" s="34" t="n">
-        <v>28.16</v>
-      </c>
-      <c r="F11" s="34" t="n">
-        <v>40</v>
-      </c>
-      <c r="G11" s="52" t="inlineStr">
-        <is>
-          <t>Dentro</t>
+    <row r="11" ht="17" customHeight="1" s="101">
+      <c r="A11" s="87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">mira la izquierda </t>
+        </is>
+      </c>
+      <c r="B11" s="87" t="inlineStr">
+        <is>
+          <t>L-FREE</t>
+        </is>
+      </c>
+      <c r="C11" s="87" t="n"/>
+      <c r="D11" s="60" t="n">
+        <v>8</v>
+      </c>
+      <c r="E11" s="61" t="n">
+        <v>19.88</v>
+      </c>
+      <c r="F11" s="60" t="n">
+        <v>40</v>
+      </c>
+      <c r="G11" s="13" t="inlineStr">
+        <is>
+          <t>Aprox</t>
         </is>
       </c>
       <c r="H11" s="20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" s="21" t="n"/>
       <c r="J11" s="21" t="n"/>
@@ -2349,7 +2200,977 @@
       <c r="M11" s="19" t="n"/>
       <c r="O11" s="26" t="n"/>
     </row>
-    <row r="12" ht="17" customHeight="1" s="100">
+    <row r="12" ht="17" customHeight="1" s="101">
+      <c r="A12" s="87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no viene nadie </t>
+        </is>
+      </c>
+      <c r="B12" s="87" t="inlineStr">
+        <is>
+          <t>L-FREE</t>
+        </is>
+      </c>
+      <c r="C12" s="87" t="n"/>
+      <c r="D12" s="60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E12" s="61" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="F12" s="60" t="n">
+        <v>40</v>
+      </c>
+      <c r="G12" s="13" t="inlineStr">
+        <is>
+          <t>Aprox</t>
+        </is>
+      </c>
+      <c r="H12" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" s="21" t="n"/>
+      <c r="J12" s="21" t="n"/>
+      <c r="K12" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="19" t="n"/>
+      <c r="M12" s="19" t="n"/>
+      <c r="O12" s="26" t="n"/>
+    </row>
+    <row r="13" ht="17" customHeight="1" s="101">
+      <c r="A13" s="83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">entro en la rotonda </t>
+        </is>
+      </c>
+      <c r="B13" s="83" t="n"/>
+      <c r="C13" s="83" t="inlineStr">
+        <is>
+          <t>RND-IN</t>
+        </is>
+      </c>
+      <c r="D13" s="52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E13" s="62" t="n">
+        <v>24.34</v>
+      </c>
+      <c r="F13" s="52" t="n">
+        <v>40</v>
+      </c>
+      <c r="G13" s="52" t="inlineStr">
+        <is>
+          <t>Dentro</t>
+        </is>
+      </c>
+      <c r="H13" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" s="21" t="n"/>
+      <c r="J13" s="21" t="n"/>
+      <c r="K13" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" s="19" t="n"/>
+      <c r="M13" s="19" t="n"/>
+      <c r="O13" s="26" t="n"/>
+    </row>
+    <row r="14" ht="17" customHeight="1" s="101">
+      <c r="A14" s="83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cambio de carril a la izquierda en la rotonda </t>
+        </is>
+      </c>
+      <c r="B14" s="83" t="n"/>
+      <c r="C14" s="83" t="inlineStr">
+        <is>
+          <t>CHG-L</t>
+        </is>
+      </c>
+      <c r="D14" s="52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E14" s="62" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="F14" s="52" t="n">
+        <v>40</v>
+      </c>
+      <c r="G14" s="52" t="inlineStr">
+        <is>
+          <t>Dentro</t>
+        </is>
+      </c>
+      <c r="H14" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" s="21" t="n"/>
+      <c r="J14" s="21" t="n"/>
+      <c r="K14" s="21" t="n"/>
+      <c r="L14" s="19" t="n"/>
+      <c r="M14" s="19" t="n"/>
+      <c r="O14" s="26" t="n"/>
+    </row>
+    <row r="15" ht="17" customHeight="1" s="101">
+      <c r="A15" s="83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">giro a la izquierda en la rotonda </t>
+        </is>
+      </c>
+      <c r="B15" s="83" t="n"/>
+      <c r="C15" s="85" t="inlineStr">
+        <is>
+          <t>TRN-L</t>
+        </is>
+      </c>
+      <c r="D15" s="52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E15" s="62" t="n">
+        <v>26.02</v>
+      </c>
+      <c r="F15" s="52" t="n">
+        <v>40</v>
+      </c>
+      <c r="G15" s="52" t="inlineStr">
+        <is>
+          <t>Dentro</t>
+        </is>
+      </c>
+      <c r="H15" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" s="21" t="n"/>
+      <c r="J15" s="21" t="n"/>
+      <c r="K15" s="21" t="n"/>
+      <c r="L15" s="19" t="n"/>
+      <c r="M15" s="19" t="n"/>
+      <c r="O15" s="26" t="n"/>
+    </row>
+    <row r="16" ht="17" customHeight="1" s="101">
+      <c r="A16" s="83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">mantengo el giro a la izquierda en la rotonda </t>
+        </is>
+      </c>
+      <c r="B16" s="83" t="n"/>
+      <c r="C16" s="83" t="inlineStr">
+        <is>
+          <t>TRN-L</t>
+        </is>
+      </c>
+      <c r="D16" s="52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E16" s="62" t="n">
+        <v>24.06</v>
+      </c>
+      <c r="F16" s="52" t="n">
+        <v>40</v>
+      </c>
+      <c r="G16" s="52" t="inlineStr">
+        <is>
+          <t>Dentro</t>
+        </is>
+      </c>
+      <c r="H16" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="I16" s="21" t="n"/>
+      <c r="J16" s="21" t="n"/>
+      <c r="K16" s="21" t="n"/>
+      <c r="L16" s="19" t="n"/>
+      <c r="M16" s="19" t="n"/>
+      <c r="O16" s="26" t="n"/>
+    </row>
+    <row r="17" ht="17" customHeight="1" s="101">
+      <c r="A17" s="83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">intermitente a la derecha en la rotonda </t>
+        </is>
+      </c>
+      <c r="B17" s="83" t="n"/>
+      <c r="C17" s="83" t="inlineStr">
+        <is>
+          <t>RB-ON</t>
+        </is>
+      </c>
+      <c r="D17" s="52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E17" s="62" t="n">
+        <v>21.96</v>
+      </c>
+      <c r="F17" s="52" t="n">
+        <v>40</v>
+      </c>
+      <c r="G17" s="52" t="inlineStr">
+        <is>
+          <t>Dentro</t>
+        </is>
+      </c>
+      <c r="H17" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" s="21" t="n"/>
+      <c r="J17" s="21" t="n"/>
+      <c r="K17" s="21" t="n"/>
+      <c r="L17" s="19" t="n"/>
+      <c r="M17" s="19" t="n"/>
+      <c r="O17" s="26" t="n"/>
+    </row>
+    <row r="18" ht="17" customHeight="1" s="101">
+      <c r="A18" s="83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">retrovisor central </t>
+        </is>
+      </c>
+      <c r="B18" s="83" t="inlineStr">
+        <is>
+          <t>BK-FREE</t>
+        </is>
+      </c>
+      <c r="C18" s="83" t="n"/>
+      <c r="D18" s="52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E18" s="62" t="n">
+        <v>18.91</v>
+      </c>
+      <c r="F18" s="52" t="n">
+        <v>40</v>
+      </c>
+      <c r="G18" s="52" t="inlineStr">
+        <is>
+          <t>Dentro</t>
+        </is>
+      </c>
+      <c r="H18" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" s="21" t="n"/>
+      <c r="J18" s="21" t="n"/>
+      <c r="K18" s="21" t="n"/>
+      <c r="L18" s="19" t="n"/>
+      <c r="M18" s="19" t="n"/>
+      <c r="O18" s="26" t="n"/>
+    </row>
+    <row r="19" ht="17" customHeight="1" s="101">
+      <c r="A19" s="83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">retrovisor derecho </t>
+        </is>
+      </c>
+      <c r="B19" s="83" t="inlineStr">
+        <is>
+          <t>RV-FREE</t>
+        </is>
+      </c>
+      <c r="C19" s="83" t="n"/>
+      <c r="D19" s="52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E19" s="62" t="n">
+        <v>23.99</v>
+      </c>
+      <c r="F19" s="52" t="n">
+        <v>40</v>
+      </c>
+      <c r="G19" s="52" t="inlineStr">
+        <is>
+          <t>Dentro</t>
+        </is>
+      </c>
+      <c r="H19" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" s="21" t="n"/>
+      <c r="J19" s="21" t="n"/>
+      <c r="K19" s="21" t="n"/>
+      <c r="L19" s="19" t="n"/>
+      <c r="M19" s="19" t="n"/>
+      <c r="O19" s="26" t="n"/>
+    </row>
+    <row r="20" ht="17" customHeight="1" s="101">
+      <c r="A20" s="83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">giro a la derecha para cambiar de carril </t>
+        </is>
+      </c>
+      <c r="B20" s="83" t="n"/>
+      <c r="C20" s="83" t="inlineStr">
+        <is>
+          <t>CHG-R</t>
+        </is>
+      </c>
+      <c r="D20" s="52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E20" s="62" t="n">
+        <v>30.19</v>
+      </c>
+      <c r="F20" s="52" t="n">
+        <v>40</v>
+      </c>
+      <c r="G20" s="52" t="inlineStr">
+        <is>
+          <t>Dentro</t>
+        </is>
+      </c>
+      <c r="H20" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="21" t="n"/>
+      <c r="J20" s="21" t="n"/>
+      <c r="K20" s="21" t="n"/>
+      <c r="L20" s="19" t="n"/>
+      <c r="M20" s="19" t="n"/>
+      <c r="O20" s="26" t="n"/>
+    </row>
+    <row r="21" ht="17" customHeight="1" s="101">
+      <c r="A21" s="83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">giro a la derecha para salir de la rotonda </t>
+        </is>
+      </c>
+      <c r="B21" s="83" t="n"/>
+      <c r="C21" s="83" t="inlineStr">
+        <is>
+          <t>RND-OUT</t>
+        </is>
+      </c>
+      <c r="D21" s="52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E21" s="62" t="n">
+        <v>35.51</v>
+      </c>
+      <c r="F21" s="52" t="n">
+        <v>40</v>
+      </c>
+      <c r="G21" s="52" t="inlineStr">
+        <is>
+          <t>Dentro</t>
+        </is>
+      </c>
+      <c r="H21" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="21" t="n"/>
+      <c r="J21" s="21" t="n"/>
+      <c r="K21" s="21" t="n"/>
+      <c r="L21" s="19" t="n"/>
+      <c r="M21" s="19" t="n"/>
+      <c r="O21" s="26" t="n"/>
+    </row>
+    <row r="22" ht="17" customHeight="1" s="101">
+      <c r="A22" s="81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">quito el intermitente </t>
+        </is>
+      </c>
+      <c r="B22" s="81" t="n"/>
+      <c r="C22" s="81" t="inlineStr">
+        <is>
+          <t>RB-OFF</t>
+        </is>
+      </c>
+      <c r="D22" s="65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E22" s="63" t="n">
+        <v>44.22</v>
+      </c>
+      <c r="F22" s="65" t="n">
+        <v>40</v>
+      </c>
+      <c r="G22" s="59" t="inlineStr">
+        <is>
+          <t>Saliendo</t>
+        </is>
+      </c>
+      <c r="H22" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="21" t="n"/>
+      <c r="J22" s="21" t="n"/>
+      <c r="K22" s="21" t="n"/>
+      <c r="L22" s="19" t="n"/>
+      <c r="M22" s="19" t="n"/>
+      <c r="O22" s="26" t="n"/>
+    </row>
+    <row r="23" ht="17" customHeight="1" s="101">
+      <c r="A23" s="81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">acelero </t>
+        </is>
+      </c>
+      <c r="B23" s="81" t="n"/>
+      <c r="C23" s="81" t="inlineStr">
+        <is>
+          <t>T-ON</t>
+        </is>
+      </c>
+      <c r="D23" s="65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E23" s="63" t="n">
+        <v>46.48</v>
+      </c>
+      <c r="F23" s="65" t="n">
+        <v>40</v>
+      </c>
+      <c r="G23" s="59" t="inlineStr">
+        <is>
+          <t>Saliendo</t>
+        </is>
+      </c>
+      <c r="H23" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="21" t="n"/>
+      <c r="J23" s="21" t="n"/>
+      <c r="K23" s="21" t="n"/>
+      <c r="L23" s="19" t="n"/>
+      <c r="M23" s="19" t="n"/>
+      <c r="O23" s="26" t="n"/>
+    </row>
+    <row r="24" ht="17" customHeight="1" s="101">
+      <c r="A24" s="81" t="inlineStr">
+        <is>
+          <t>cambio a tercera</t>
+        </is>
+      </c>
+      <c r="B24" s="81" t="n"/>
+      <c r="C24" s="81" t="inlineStr">
+        <is>
+          <t>GU</t>
+        </is>
+      </c>
+      <c r="D24" s="65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E24" s="63" t="n">
+        <v>51.67</v>
+      </c>
+      <c r="F24" s="65" t="n">
+        <v>40</v>
+      </c>
+      <c r="G24" s="59" t="inlineStr">
+        <is>
+          <t>Saliendo</t>
+        </is>
+      </c>
+      <c r="H24" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="21" t="n"/>
+      <c r="J24" s="21" t="n"/>
+      <c r="K24" s="21" t="n"/>
+      <c r="L24" s="19" t="n"/>
+      <c r="M24" s="19" t="n"/>
+      <c r="O24" s="26" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O23"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col width="49.6640625" bestFit="1" customWidth="1" style="101" min="1" max="1"/>
+    <col width="11" bestFit="1" customWidth="1" style="101" min="2" max="2"/>
+    <col width="9.33203125" bestFit="1" customWidth="1" style="101" min="3" max="3"/>
+    <col width="11.6640625" customWidth="1" style="101" min="4" max="6"/>
+    <col width="15" customWidth="1" style="101" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="25" t="n">
+        <v>44343</v>
+      </c>
+      <c r="B1" s="89" t="n"/>
+      <c r="C1" s="17" t="n"/>
+      <c r="D1" s="17" t="n"/>
+      <c r="E1" s="17" t="n"/>
+      <c r="F1" s="17" t="n"/>
+      <c r="G1" s="18" t="n"/>
+      <c r="H1" s="18" t="n"/>
+      <c r="I1" s="18" t="n"/>
+      <c r="J1" s="18" t="n"/>
+      <c r="K1" s="18" t="n"/>
+      <c r="L1" s="18" t="n"/>
+      <c r="M1" s="18" t="n"/>
+    </row>
+    <row r="2" ht="17" customHeight="1" s="101">
+      <c r="A2" s="10" t="inlineStr">
+        <is>
+          <t>Acciones verbalizadas</t>
+        </is>
+      </c>
+      <c r="B2" s="10" t="inlineStr">
+        <is>
+          <t>x1</t>
+        </is>
+      </c>
+      <c r="C2" s="10" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
+      </c>
+      <c r="D2" s="10" t="inlineStr">
+        <is>
+          <t>x3</t>
+        </is>
+      </c>
+      <c r="E2" s="10" t="inlineStr">
+        <is>
+          <t>x4</t>
+        </is>
+      </c>
+      <c r="F2" s="10" t="inlineStr">
+        <is>
+          <t>x5</t>
+        </is>
+      </c>
+      <c r="G2" s="10" t="inlineStr">
+        <is>
+          <t>x6</t>
+        </is>
+      </c>
+      <c r="H2" s="10" t="inlineStr">
+        <is>
+          <t>x7</t>
+        </is>
+      </c>
+      <c r="I2" s="10" t="inlineStr">
+        <is>
+          <t>x8</t>
+        </is>
+      </c>
+      <c r="J2" s="10" t="inlineStr">
+        <is>
+          <t>x9</t>
+        </is>
+      </c>
+      <c r="K2" s="10" t="inlineStr">
+        <is>
+          <t>x10</t>
+        </is>
+      </c>
+      <c r="L2" s="10" t="inlineStr">
+        <is>
+          <t>x11</t>
+        </is>
+      </c>
+      <c r="M2" s="10" t="inlineStr">
+        <is>
+          <t>x12</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="68" customHeight="1" s="101">
+      <c r="A3" s="7" t="inlineStr">
+        <is>
+          <t>ROTONDA 1</t>
+        </is>
+      </c>
+      <c r="B3" s="7" t="inlineStr">
+        <is>
+          <t>Percepción</t>
+        </is>
+      </c>
+      <c r="C3" s="91" t="inlineStr">
+        <is>
+          <t>Acción</t>
+        </is>
+      </c>
+      <c r="D3" s="23" t="inlineStr">
+        <is>
+          <t>Distancia real al ceda el paso (metros)</t>
+        </is>
+      </c>
+      <c r="E3" s="23" t="inlineStr">
+        <is>
+          <t>Velocidad actual</t>
+        </is>
+      </c>
+      <c r="F3" s="23" t="inlineStr">
+        <is>
+          <t>Límie velocidad GoogleMaps API</t>
+        </is>
+      </c>
+      <c r="G3" s="23" t="inlineStr">
+        <is>
+          <t>Posición</t>
+        </is>
+      </c>
+      <c r="H3" s="33" t="inlineStr">
+        <is>
+          <t>Distancia con coche delante
+1 = media
+2 = cerca</t>
+        </is>
+      </c>
+      <c r="I3" s="43" t="inlineStr">
+        <is>
+          <t>Zi</t>
+        </is>
+      </c>
+      <c r="J3" s="44" t="inlineStr">
+        <is>
+          <t>Zc</t>
+        </is>
+      </c>
+      <c r="K3" s="45" t="inlineStr">
+        <is>
+          <t>Zd</t>
+        </is>
+      </c>
+      <c r="L3" s="22" t="inlineStr">
+        <is>
+          <t>Coche en Carril izquierdo</t>
+        </is>
+      </c>
+      <c r="M3" s="22" t="inlineStr">
+        <is>
+          <t>Coche en Carril derecho</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="17" customHeight="1" s="101">
+      <c r="A4" s="37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">levanto el pie del acelerador </t>
+        </is>
+      </c>
+      <c r="B4" s="37" t="n"/>
+      <c r="C4" s="37" t="inlineStr">
+        <is>
+          <t>T-OFF</t>
+        </is>
+      </c>
+      <c r="D4" s="38" t="n">
+        <v>220</v>
+      </c>
+      <c r="E4" s="38" t="n">
+        <v>71.56</v>
+      </c>
+      <c r="F4" s="38" t="n">
+        <v>70</v>
+      </c>
+      <c r="G4" s="46" t="inlineStr">
+        <is>
+          <t>Aprox</t>
+        </is>
+      </c>
+      <c r="H4" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="21" t="n"/>
+      <c r="J4" s="21" t="n"/>
+      <c r="K4" s="21" t="n"/>
+      <c r="L4" s="19" t="n"/>
+      <c r="M4" s="19" t="n"/>
+      <c r="O4" s="26" t="n"/>
+    </row>
+    <row r="5" ht="17" customHeight="1" s="101">
+      <c r="A5" s="37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">me aproximo a una rotonda </t>
+        </is>
+      </c>
+      <c r="B5" s="37" t="n"/>
+      <c r="C5" s="37" t="inlineStr">
+        <is>
+          <t>RND-MD</t>
+        </is>
+      </c>
+      <c r="D5" s="38" t="n">
+        <v>130</v>
+      </c>
+      <c r="E5" s="38" t="n">
+        <v>62.46</v>
+      </c>
+      <c r="F5" s="38" t="n">
+        <v>60</v>
+      </c>
+      <c r="G5" s="46" t="inlineStr">
+        <is>
+          <t>Aprox</t>
+        </is>
+      </c>
+      <c r="H5" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="21" t="n"/>
+      <c r="J5" s="21" t="n"/>
+      <c r="K5" s="21" t="n"/>
+      <c r="L5" s="19" t="n"/>
+      <c r="M5" s="19" t="n"/>
+      <c r="O5" s="26" t="n"/>
+    </row>
+    <row r="6" ht="17" customHeight="1" s="101">
+      <c r="A6" s="37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cambio a tercera </t>
+        </is>
+      </c>
+      <c r="B6" s="37" t="n"/>
+      <c r="C6" s="37" t="inlineStr">
+        <is>
+          <t>GD</t>
+        </is>
+      </c>
+      <c r="D6" s="38" t="n">
+        <v>67</v>
+      </c>
+      <c r="E6" s="38" t="n">
+        <v>55.18</v>
+      </c>
+      <c r="F6" s="38" t="n">
+        <v>40</v>
+      </c>
+      <c r="G6" s="46" t="inlineStr">
+        <is>
+          <t>Aprox</t>
+        </is>
+      </c>
+      <c r="H6" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="21" t="n"/>
+      <c r="J6" s="21" t="n"/>
+      <c r="K6" s="21" t="n"/>
+      <c r="L6" s="19" t="n"/>
+      <c r="M6" s="19" t="n"/>
+      <c r="O6" s="26" t="n"/>
+    </row>
+    <row r="7" ht="17" customHeight="1" s="101">
+      <c r="A7" s="37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">freno </t>
+        </is>
+      </c>
+      <c r="B7" s="37" t="n"/>
+      <c r="C7" s="37" t="inlineStr">
+        <is>
+          <t>B-ON</t>
+        </is>
+      </c>
+      <c r="D7" s="38" t="n">
+        <v>51</v>
+      </c>
+      <c r="E7" s="38" t="n">
+        <v>50.99</v>
+      </c>
+      <c r="F7" s="38" t="n">
+        <v>40</v>
+      </c>
+      <c r="G7" s="46" t="inlineStr">
+        <is>
+          <t>Aprox</t>
+        </is>
+      </c>
+      <c r="H7" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="21" t="n"/>
+      <c r="J7" s="21" t="n"/>
+      <c r="K7" s="21" t="n"/>
+      <c r="L7" s="19" t="n"/>
+      <c r="M7" s="19" t="n"/>
+      <c r="O7" s="26" t="n"/>
+    </row>
+    <row r="8" ht="17" customHeight="1" s="101">
+      <c r="A8" s="37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cambia cuarta </t>
+        </is>
+      </c>
+      <c r="B8" s="37" t="n"/>
+      <c r="C8" s="37" t="inlineStr">
+        <is>
+          <t>GD</t>
+        </is>
+      </c>
+      <c r="D8" s="38" t="n">
+        <v>16</v>
+      </c>
+      <c r="E8" s="38" t="n">
+        <v>33.03</v>
+      </c>
+      <c r="F8" s="38" t="n">
+        <v>40</v>
+      </c>
+      <c r="G8" s="46" t="inlineStr">
+        <is>
+          <t>Aprox</t>
+        </is>
+      </c>
+      <c r="H8" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="21" t="n"/>
+      <c r="J8" s="21" t="n"/>
+      <c r="K8" s="21" t="n"/>
+      <c r="L8" s="19" t="n"/>
+      <c r="M8" s="19" t="n"/>
+      <c r="O8" s="26" t="n"/>
+    </row>
+    <row r="9" ht="17" customHeight="1" s="101">
+      <c r="A9" s="37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">miro a la izquierda en la rotonda </t>
+        </is>
+      </c>
+      <c r="B9" s="37" t="inlineStr">
+        <is>
+          <t>LV-FREE</t>
+        </is>
+      </c>
+      <c r="C9" s="37" t="n"/>
+      <c r="D9" s="38" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" s="38" t="n">
+        <v>27.04</v>
+      </c>
+      <c r="F9" s="38" t="n">
+        <v>40</v>
+      </c>
+      <c r="G9" s="46" t="inlineStr">
+        <is>
+          <t>Aprox</t>
+        </is>
+      </c>
+      <c r="H9" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="21" t="n"/>
+      <c r="J9" s="21" t="n"/>
+      <c r="K9" s="21" t="n"/>
+      <c r="L9" s="19" t="n"/>
+      <c r="M9" s="19" t="n"/>
+      <c r="O9" s="26" t="n"/>
+    </row>
+    <row r="10" ht="17" customHeight="1" s="101">
+      <c r="A10" s="37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">vía libre </t>
+        </is>
+      </c>
+      <c r="B10" s="37" t="inlineStr">
+        <is>
+          <t>L-FREE</t>
+        </is>
+      </c>
+      <c r="C10" s="37" t="n"/>
+      <c r="D10" s="38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E10" s="38" t="n">
+        <v>27.34</v>
+      </c>
+      <c r="F10" s="38" t="n">
+        <v>40</v>
+      </c>
+      <c r="G10" s="46" t="inlineStr">
+        <is>
+          <t>Aprox</t>
+        </is>
+      </c>
+      <c r="H10" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="21" t="n"/>
+      <c r="J10" s="21" t="n"/>
+      <c r="K10" s="21" t="n"/>
+      <c r="L10" s="19" t="n"/>
+      <c r="M10" s="19" t="n"/>
+      <c r="O10" s="26" t="n"/>
+    </row>
+    <row r="11" ht="17" customHeight="1" s="101">
+      <c r="A11" s="83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">entro en la rotonda </t>
+        </is>
+      </c>
+      <c r="B11" s="83" t="n"/>
+      <c r="C11" s="83" t="inlineStr">
+        <is>
+          <t>RND-IN</t>
+        </is>
+      </c>
+      <c r="D11" s="34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E11" s="34" t="n">
+        <v>28.16</v>
+      </c>
+      <c r="F11" s="34" t="n">
+        <v>40</v>
+      </c>
+      <c r="G11" s="52" t="inlineStr">
+        <is>
+          <t>Dentro</t>
+        </is>
+      </c>
+      <c r="H11" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="21" t="n"/>
+      <c r="J11" s="21" t="n"/>
+      <c r="K11" s="21" t="n"/>
+      <c r="L11" s="19" t="n"/>
+      <c r="M11" s="19" t="n"/>
+      <c r="O11" s="26" t="n"/>
+    </row>
+    <row r="12" ht="17" customHeight="1" s="101">
       <c r="A12" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">cambio de carril izquierdo </t>
@@ -2387,7 +3208,7 @@
       <c r="M12" s="19" t="n"/>
       <c r="O12" s="26" t="n"/>
     </row>
-    <row r="13" ht="17" customHeight="1" s="100">
+    <row r="13" ht="17" customHeight="1" s="101">
       <c r="A13" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">intermitente a la izquierda </t>
@@ -2425,7 +3246,7 @@
       <c r="M13" s="19" t="n"/>
       <c r="O13" s="26" t="n"/>
     </row>
-    <row r="14" ht="17" customHeight="1" s="100">
+    <row r="14" ht="17" customHeight="1" s="101">
       <c r="A14" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">giro a la izquierda en la rotonda </t>
@@ -2463,7 +3284,7 @@
       <c r="M14" s="19" t="n"/>
       <c r="O14" s="26" t="n"/>
     </row>
-    <row r="15" ht="17" customHeight="1" s="100">
+    <row r="15" ht="17" customHeight="1" s="101">
       <c r="A15" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">retrovisor central </t>
@@ -2501,7 +3322,7 @@
       <c r="M15" s="19" t="n"/>
       <c r="O15" s="26" t="n"/>
     </row>
-    <row r="16" ht="17" customHeight="1" s="100">
+    <row r="16" ht="17" customHeight="1" s="101">
       <c r="A16" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">intermitente a la derecha </t>
@@ -2539,7 +3360,7 @@
       <c r="M16" s="19" t="n"/>
       <c r="O16" s="26" t="n"/>
     </row>
-    <row r="17" ht="17" customHeight="1" s="100">
+    <row r="17" ht="17" customHeight="1" s="101">
       <c r="A17" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">miro a la derecha </t>
@@ -2577,7 +3398,7 @@
       <c r="M17" s="19" t="n"/>
       <c r="O17" s="26" t="n"/>
     </row>
-    <row r="18" ht="17" customHeight="1" s="100">
+    <row r="18" ht="17" customHeight="1" s="101">
       <c r="A18" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">giro a la derecha para cambiar de carril en la rotonda </t>
@@ -2615,7 +3436,7 @@
       <c r="M18" s="19" t="n"/>
       <c r="O18" s="26" t="n"/>
     </row>
-    <row r="19" ht="17" customHeight="1" s="100">
+    <row r="19" ht="17" customHeight="1" s="101">
       <c r="A19" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">giro a la derecha para salir de la rotonda </t>
@@ -2651,7 +3472,7 @@
       <c r="M19" s="19" t="n"/>
       <c r="O19" s="26" t="n"/>
     </row>
-    <row r="20" ht="17" customHeight="1" s="100">
+    <row r="20" ht="17" customHeight="1" s="101">
       <c r="A20" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">salgo de la rotonda </t>
@@ -2687,7 +3508,7 @@
       <c r="M20" s="19" t="n"/>
       <c r="O20" s="26" t="n"/>
     </row>
-    <row r="21" ht="17" customHeight="1" s="100">
+    <row r="21" ht="17" customHeight="1" s="101">
       <c r="A21" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">quito el intermitente </t>
@@ -2723,7 +3544,7 @@
       <c r="M21" s="19" t="n"/>
       <c r="O21" s="26" t="n"/>
     </row>
-    <row r="22" ht="17" customHeight="1" s="100">
+    <row r="22" ht="17" customHeight="1" s="101">
       <c r="A22" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">acelero </t>
@@ -2759,7 +3580,7 @@
       <c r="M22" s="19" t="n"/>
       <c r="O22" s="26" t="n"/>
     </row>
-    <row r="23" ht="17" customHeight="1" s="100">
+    <row r="23" ht="17" customHeight="1" s="101">
       <c r="A23" s="81" t="inlineStr">
         <is>
           <t>cambio a tercera</t>
@@ -2800,7 +3621,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2814,10 +3635,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col width="49.6640625" bestFit="1" customWidth="1" style="100" min="1" max="1"/>
-    <col width="10.5" bestFit="1" customWidth="1" style="100" min="2" max="2"/>
-    <col width="9.6640625" bestFit="1" customWidth="1" style="100" min="3" max="3"/>
-    <col width="11.6640625" customWidth="1" style="100" min="4" max="6"/>
+    <col width="49.6640625" bestFit="1" customWidth="1" style="101" min="1" max="1"/>
+    <col width="10.5" bestFit="1" customWidth="1" style="101" min="2" max="2"/>
+    <col width="9.6640625" bestFit="1" customWidth="1" style="101" min="3" max="3"/>
+    <col width="11.6640625" customWidth="1" style="101" min="4" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2837,7 +3658,7 @@
       <c r="L1" s="18" t="n"/>
       <c r="M1" s="18" t="n"/>
     </row>
-    <row r="2" ht="17" customHeight="1" s="100">
+    <row r="2" ht="17" customHeight="1" s="101">
       <c r="A2" s="10" t="inlineStr">
         <is>
           <t>Acciones verbalizadas</t>
@@ -2904,7 +3725,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="85" customHeight="1" s="100">
+    <row r="3" ht="85" customHeight="1" s="101">
       <c r="A3" s="7" t="inlineStr">
         <is>
           <t>ROTONDA 1</t>
@@ -3323,7 +4144,7 @@
       <c r="L13" s="19" t="n"/>
       <c r="M13" s="19" t="n"/>
     </row>
-    <row r="14" ht="17" customHeight="1" s="100">
+    <row r="14" ht="17" customHeight="1" s="101">
       <c r="A14" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">entro en la rotonda </t>
@@ -3362,7 +4183,7 @@
       <c r="L14" s="19" t="n"/>
       <c r="M14" s="19" t="n"/>
     </row>
-    <row r="15" ht="17" customHeight="1" s="100">
+    <row r="15" ht="17" customHeight="1" s="101">
       <c r="A15" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">intermitente a la izquierda </t>
@@ -3401,7 +4222,7 @@
       <c r="L15" s="19" t="n"/>
       <c r="M15" s="19" t="n"/>
     </row>
-    <row r="16" ht="17" customHeight="1" s="100">
+    <row r="16" ht="17" customHeight="1" s="101">
       <c r="A16" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">cambio al carril de la izquierda en la rotonda </t>
@@ -3440,7 +4261,7 @@
       <c r="L16" s="19" t="n"/>
       <c r="M16" s="19" t="n"/>
     </row>
-    <row r="17" ht="17" customHeight="1" s="100">
+    <row r="17" ht="17" customHeight="1" s="101">
       <c r="A17" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">suelto el pie del acelerador </t>
@@ -3477,7 +4298,7 @@
       <c r="L17" s="19" t="n"/>
       <c r="M17" s="19" t="n"/>
     </row>
-    <row r="18" ht="17" customHeight="1" s="100">
+    <row r="18" ht="17" customHeight="1" s="101">
       <c r="A18" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">cambio a primera </t>
@@ -3514,7 +4335,7 @@
       <c r="L18" s="19" t="n"/>
       <c r="M18" s="19" t="n"/>
     </row>
-    <row r="19" ht="17" customHeight="1" s="100">
+    <row r="19" ht="17" customHeight="1" s="101">
       <c r="A19" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">giro a la izquierda en la rotonda </t>
@@ -3551,7 +4372,7 @@
       <c r="L19" s="19" t="n"/>
       <c r="M19" s="19" t="n"/>
     </row>
-    <row r="20" ht="17" customHeight="1" s="100">
+    <row r="20" ht="17" customHeight="1" s="101">
       <c r="A20" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">mantengo el giro a la izquierda en la rotonda </t>
@@ -3588,7 +4409,7 @@
       <c r="L20" s="19" t="n"/>
       <c r="M20" s="19" t="n"/>
     </row>
-    <row r="21" ht="17" customHeight="1" s="100">
+    <row r="21" ht="17" customHeight="1" s="101">
       <c r="A21" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">miro a la derecha </t>
@@ -3625,7 +4446,7 @@
       <c r="L21" s="19" t="n"/>
       <c r="M21" s="19" t="n"/>
     </row>
-    <row r="22" ht="17" customHeight="1" s="100">
+    <row r="22" ht="17" customHeight="1" s="101">
       <c r="A22" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">intermitente a la derecha </t>
@@ -3662,7 +4483,7 @@
       <c r="L22" s="19" t="n"/>
       <c r="M22" s="19" t="n"/>
     </row>
-    <row r="23" ht="17" customHeight="1" s="100">
+    <row r="23" ht="17" customHeight="1" s="101">
       <c r="A23" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">retrovisor central </t>
@@ -3699,7 +4520,7 @@
       <c r="L23" s="19" t="n"/>
       <c r="M23" s="19" t="n"/>
     </row>
-    <row r="24" ht="17" customHeight="1" s="100">
+    <row r="24" ht="17" customHeight="1" s="101">
       <c r="A24" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">giro a la derecha </t>
@@ -3736,7 +4557,7 @@
       <c r="L24" s="19" t="n"/>
       <c r="M24" s="19" t="n"/>
     </row>
-    <row r="25" ht="17" customHeight="1" s="100">
+    <row r="25" ht="17" customHeight="1" s="101">
       <c r="A25" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">retrovisor derecho </t>
@@ -3773,7 +4594,7 @@
       <c r="L25" s="19" t="n"/>
       <c r="M25" s="19" t="n"/>
     </row>
-    <row r="26" ht="17" customHeight="1" s="100">
+    <row r="26" ht="17" customHeight="1" s="101">
       <c r="A26" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">cambio de carril a la derecha </t>
@@ -3810,7 +4631,7 @@
       <c r="L26" s="19" t="n"/>
       <c r="M26" s="19" t="n"/>
     </row>
-    <row r="27" ht="17" customHeight="1" s="100">
+    <row r="27" ht="17" customHeight="1" s="101">
       <c r="A27" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">giro a la derecha para salir de la rotonda </t>
@@ -3845,7 +4666,7 @@
       <c r="L27" s="19" t="n"/>
       <c r="M27" s="19" t="n"/>
     </row>
-    <row r="28" ht="17" customHeight="1" s="100">
+    <row r="28" ht="17" customHeight="1" s="101">
       <c r="A28" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">quito el intermitente </t>
@@ -3880,7 +4701,7 @@
       <c r="L28" s="19" t="n"/>
       <c r="M28" s="19" t="n"/>
     </row>
-    <row r="29" ht="17" customHeight="1" s="100">
+    <row r="29" ht="17" customHeight="1" s="101">
       <c r="A29" s="81" t="inlineStr">
         <is>
           <t>enderezo</t>
@@ -3915,7 +4736,7 @@
       <c r="L29" s="19" t="n"/>
       <c r="M29" s="19" t="n"/>
     </row>
-    <row r="30" ht="17" customHeight="1" s="100">
+    <row r="30" ht="17" customHeight="1" s="101">
       <c r="A30" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">cambia tercera </t>
@@ -3956,7 +4777,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3970,19 +4791,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col width="49.6640625" bestFit="1" customWidth="1" style="100" min="1" max="1"/>
-    <col width="10.5" bestFit="1" customWidth="1" style="100" min="2" max="2"/>
-    <col width="9.6640625" bestFit="1" customWidth="1" style="100" min="3" max="3"/>
-    <col width="15.5" customWidth="1" style="100" min="4" max="6"/>
+    <col width="49.6640625" bestFit="1" customWidth="1" style="101" min="1" max="1"/>
+    <col width="10.5" bestFit="1" customWidth="1" style="101" min="2" max="2"/>
+    <col width="9.6640625" bestFit="1" customWidth="1" style="101" min="3" max="3"/>
+    <col width="15.5" customWidth="1" style="101" min="4" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="51" customHeight="1" s="100">
+    <row r="1" ht="51" customHeight="1" s="101">
       <c r="A1" s="25" t="n">
         <v>44355</v>
       </c>
       <c r="B1" s="89" t="n"/>
       <c r="C1" s="17" t="n"/>
-      <c r="D1" s="99" t="inlineStr">
+      <c r="D1" s="100" t="inlineStr">
         <is>
           <t>DATOS IRRECUPERABLES</t>
         </is>
@@ -3995,7 +4816,7 @@
       <c r="L1" s="18" t="n"/>
       <c r="M1" s="18" t="n"/>
     </row>
-    <row r="2" ht="17" customHeight="1" s="100">
+    <row r="2" ht="17" customHeight="1" s="101">
       <c r="A2" s="10" t="inlineStr">
         <is>
           <t>Acciones verbalizadas</t>
@@ -4062,7 +4883,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="85" customHeight="1" s="100">
+    <row r="3" ht="85" customHeight="1" s="101">
       <c r="A3" s="7" t="inlineStr">
         <is>
           <t>ROTONDA 1</t>
@@ -4965,7 +5786,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4979,10 +5800,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col width="38.33203125" bestFit="1" customWidth="1" style="100" min="1" max="1"/>
-    <col width="10.5" bestFit="1" customWidth="1" style="100" min="2" max="2"/>
-    <col width="9.6640625" bestFit="1" customWidth="1" style="100" min="3" max="3"/>
-    <col width="11.33203125" customWidth="1" style="100" min="4" max="6"/>
+    <col width="38.33203125" bestFit="1" customWidth="1" style="101" min="1" max="1"/>
+    <col width="10.5" bestFit="1" customWidth="1" style="101" min="2" max="2"/>
+    <col width="9.6640625" bestFit="1" customWidth="1" style="101" min="3" max="3"/>
+    <col width="11.33203125" customWidth="1" style="101" min="4" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5002,7 +5823,7 @@
       <c r="L1" s="18" t="n"/>
       <c r="M1" s="18" t="n"/>
     </row>
-    <row r="2" ht="17" customHeight="1" s="100">
+    <row r="2" ht="17" customHeight="1" s="101">
       <c r="A2" s="10" t="inlineStr">
         <is>
           <t>Acciones verbalizadas</t>
@@ -5069,7 +5890,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="85" customHeight="1" s="100">
+    <row r="3" ht="85" customHeight="1" s="101">
       <c r="A3" s="7" t="inlineStr">
         <is>
           <t>ROTONDA 1</t>
@@ -5523,7 +6344,7 @@
       <c r="L14" s="19" t="n"/>
       <c r="M14" s="19" t="n"/>
     </row>
-    <row r="15" ht="17" customHeight="1" s="100">
+    <row r="15" ht="17" customHeight="1" s="101">
       <c r="A15" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">entro en la rotonda </t>
@@ -5560,7 +6381,7 @@
       <c r="L15" s="19" t="n"/>
       <c r="M15" s="19" t="n"/>
     </row>
-    <row r="16" ht="17" customHeight="1" s="100">
+    <row r="16" ht="17" customHeight="1" s="101">
       <c r="A16" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">intermitente a la izquierda </t>
@@ -5597,7 +6418,7 @@
       <c r="L16" s="19" t="n"/>
       <c r="M16" s="19" t="n"/>
     </row>
-    <row r="17" ht="17" customHeight="1" s="100">
+    <row r="17" ht="17" customHeight="1" s="101">
       <c r="A17" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">cambio de carril a la izquierda en la rotonda </t>
@@ -5634,7 +6455,7 @@
       <c r="L17" s="19" t="n"/>
       <c r="M17" s="19" t="n"/>
     </row>
-    <row r="18" ht="17" customHeight="1" s="100">
+    <row r="18" ht="17" customHeight="1" s="101">
       <c r="A18" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">giro a la izquierda en la rotonda </t>
@@ -5671,7 +6492,7 @@
       <c r="L18" s="19" t="n"/>
       <c r="M18" s="19" t="n"/>
     </row>
-    <row r="19" ht="17" customHeight="1" s="100">
+    <row r="19" ht="17" customHeight="1" s="101">
       <c r="A19" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">miro a la derecha </t>
@@ -5708,7 +6529,7 @@
       <c r="L19" s="19" t="n"/>
       <c r="M19" s="19" t="n"/>
     </row>
-    <row r="20" ht="17" customHeight="1" s="100">
+    <row r="20" ht="17" customHeight="1" s="101">
       <c r="A20" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">no viene nadie </t>
@@ -5745,7 +6566,7 @@
       <c r="L20" s="19" t="n"/>
       <c r="M20" s="19" t="n"/>
     </row>
-    <row r="21" ht="17" customHeight="1" s="100">
+    <row r="21" ht="17" customHeight="1" s="101">
       <c r="A21" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">intermitente la derecha </t>
@@ -5782,7 +6603,7 @@
       <c r="L21" s="19" t="n"/>
       <c r="M21" s="19" t="n"/>
     </row>
-    <row r="22" ht="17" customHeight="1" s="100">
+    <row r="22" ht="17" customHeight="1" s="101">
       <c r="A22" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">retrovisor central </t>
@@ -5819,7 +6640,7 @@
       <c r="L22" s="19" t="n"/>
       <c r="M22" s="19" t="n"/>
     </row>
-    <row r="23" ht="17" customHeight="1" s="100">
+    <row r="23" ht="17" customHeight="1" s="101">
       <c r="A23" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">giro a la derecha </t>
@@ -5856,7 +6677,7 @@
       <c r="L23" s="19" t="n"/>
       <c r="M23" s="19" t="n"/>
     </row>
-    <row r="24" ht="17" customHeight="1" s="100">
+    <row r="24" ht="17" customHeight="1" s="101">
       <c r="A24" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">cambio de carril en la rotonda </t>
@@ -5893,7 +6714,7 @@
       <c r="L24" s="19" t="n"/>
       <c r="M24" s="19" t="n"/>
     </row>
-    <row r="25" ht="17" customHeight="1" s="100">
+    <row r="25" ht="17" customHeight="1" s="101">
       <c r="A25" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">gire a la derecha </t>
@@ -5930,7 +6751,7 @@
       <c r="L25" s="19" t="n"/>
       <c r="M25" s="19" t="n"/>
     </row>
-    <row r="26" ht="17" customHeight="1" s="100">
+    <row r="26" ht="17" customHeight="1" s="101">
       <c r="A26" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">salgo de la rotonda </t>
@@ -5967,7 +6788,7 @@
       <c r="L26" s="19" t="n"/>
       <c r="M26" s="19" t="n"/>
     </row>
-    <row r="27" ht="17" customHeight="1" s="100">
+    <row r="27" ht="17" customHeight="1" s="101">
       <c r="A27" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">enderezo </t>
@@ -6004,7 +6825,7 @@
       <c r="L27" s="19" t="n"/>
       <c r="M27" s="19" t="n"/>
     </row>
-    <row r="28" ht="17" customHeight="1" s="100">
+    <row r="28" ht="17" customHeight="1" s="101">
       <c r="A28" s="81" t="inlineStr">
         <is>
           <t>quito el intermitente</t>
@@ -6041,7 +6862,7 @@
       <c r="L28" s="19" t="n"/>
       <c r="M28" s="19" t="n"/>
     </row>
-    <row r="29" ht="17" customHeight="1" s="100">
+    <row r="29" ht="17" customHeight="1" s="101">
       <c r="A29" s="81" t="inlineStr">
         <is>
           <t>atención coche dando marcha atrás</t>
@@ -6084,7 +6905,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6098,11 +6919,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col width="49.6640625" bestFit="1" customWidth="1" style="100" min="1" max="1"/>
-    <col width="10.5" bestFit="1" customWidth="1" style="100" min="2" max="2"/>
-    <col width="9.6640625" bestFit="1" customWidth="1" style="100" min="3" max="3"/>
-    <col width="11.6640625" customWidth="1" style="100" min="4" max="6"/>
-    <col width="12.6640625" customWidth="1" style="100" min="8" max="8"/>
+    <col width="49.6640625" bestFit="1" customWidth="1" style="101" min="1" max="1"/>
+    <col width="10.5" bestFit="1" customWidth="1" style="101" min="2" max="2"/>
+    <col width="9.6640625" bestFit="1" customWidth="1" style="101" min="3" max="3"/>
+    <col width="11.6640625" customWidth="1" style="101" min="4" max="6"/>
+    <col width="12.6640625" customWidth="1" style="101" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6122,7 +6943,7 @@
       <c r="L1" s="18" t="n"/>
       <c r="M1" s="18" t="n"/>
     </row>
-    <row r="2" ht="17" customHeight="1" s="100">
+    <row r="2" ht="17" customHeight="1" s="101">
       <c r="A2" s="10" t="inlineStr">
         <is>
           <t>Acciones verbalizadas</t>
@@ -6185,7 +7006,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="68" customHeight="1" s="100">
+    <row r="3" ht="68" customHeight="1" s="101">
       <c r="A3" s="7" t="inlineStr">
         <is>
           <t>ROTONDA 1</t>
@@ -6288,7 +7109,7 @@
       <c r="M4" s="19" t="n"/>
       <c r="O4" s="26" t="n"/>
     </row>
-    <row r="5" ht="17" customHeight="1" s="100">
+    <row r="5" ht="17" customHeight="1" s="101">
       <c r="A5" s="87" t="inlineStr">
         <is>
           <t xml:space="preserve">me preparo para rotonda </t>
@@ -6322,7 +7143,7 @@
       <c r="M5" s="19" t="n"/>
       <c r="O5" s="26" t="n"/>
     </row>
-    <row r="6" ht="17" customHeight="1" s="100">
+    <row r="6" ht="17" customHeight="1" s="101">
       <c r="A6" s="87" t="inlineStr">
         <is>
           <t xml:space="preserve">cambio a segunda </t>
@@ -6356,7 +7177,7 @@
       <c r="M6" s="19" t="n"/>
       <c r="O6" s="26" t="n"/>
     </row>
-    <row r="7" ht="17" customHeight="1" s="100">
+    <row r="7" ht="17" customHeight="1" s="101">
       <c r="A7" s="87" t="inlineStr">
         <is>
           <t xml:space="preserve">freno </t>
@@ -6390,7 +7211,7 @@
       <c r="M7" s="19" t="n"/>
       <c r="O7" s="26" t="n"/>
     </row>
-    <row r="8" ht="17" customHeight="1" s="100">
+    <row r="8" ht="17" customHeight="1" s="101">
       <c r="A8" s="87" t="inlineStr">
         <is>
           <t xml:space="preserve">miro a la izquierda </t>
@@ -6424,7 +7245,7 @@
       <c r="M8" s="19" t="n"/>
       <c r="O8" s="26" t="n"/>
     </row>
-    <row r="9" ht="17" customHeight="1" s="100">
+    <row r="9" ht="17" customHeight="1" s="101">
       <c r="A9" s="87" t="inlineStr">
         <is>
           <t xml:space="preserve">freno </t>
@@ -6458,7 +7279,7 @@
       <c r="M9" s="19" t="n"/>
       <c r="O9" s="26" t="n"/>
     </row>
-    <row r="10" ht="17" customHeight="1" s="100">
+    <row r="10" ht="17" customHeight="1" s="101">
       <c r="A10" s="87" t="inlineStr">
         <is>
           <t xml:space="preserve">miro a la izquierda </t>
@@ -6492,7 +7313,7 @@
       <c r="M10" s="19" t="n"/>
       <c r="O10" s="26" t="n"/>
     </row>
-    <row r="11" ht="17" customHeight="1" s="100">
+    <row r="11" ht="17" customHeight="1" s="101">
       <c r="A11" s="87" t="inlineStr">
         <is>
           <t xml:space="preserve">no viene nadie </t>
@@ -6528,7 +7349,7 @@
       <c r="M11" s="19" t="n"/>
       <c r="O11" s="26" t="n"/>
     </row>
-    <row r="12" ht="17" customHeight="1" s="100">
+    <row r="12" ht="17" customHeight="1" s="101">
       <c r="A12" s="87" t="inlineStr">
         <is>
           <t xml:space="preserve">acelero </t>
@@ -6564,7 +7385,7 @@
       <c r="M12" s="19" t="n"/>
       <c r="O12" s="26" t="n"/>
     </row>
-    <row r="13" ht="17" customHeight="1" s="100">
+    <row r="13" ht="17" customHeight="1" s="101">
       <c r="A13" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">entro en la rotonda </t>
@@ -6602,7 +7423,7 @@
       <c r="M13" s="19" t="n"/>
       <c r="O13" s="26" t="n"/>
     </row>
-    <row r="14" ht="17" customHeight="1" s="100">
+    <row r="14" ht="17" customHeight="1" s="101">
       <c r="A14" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">intermitente a la izquierda </t>
@@ -6642,7 +7463,7 @@
       <c r="M14" s="19" t="n"/>
       <c r="O14" s="26" t="n"/>
     </row>
-    <row r="15" ht="17" customHeight="1" s="100">
+    <row r="15" ht="17" customHeight="1" s="101">
       <c r="A15" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">cambio de carril a la izquierda en la rotonda </t>
@@ -6682,7 +7503,7 @@
       <c r="M15" s="19" t="n"/>
       <c r="O15" s="26" t="n"/>
     </row>
-    <row r="16" ht="17" customHeight="1" s="100">
+    <row r="16" ht="17" customHeight="1" s="101">
       <c r="A16" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">giro a la izquierda en la rotonda </t>
@@ -6720,7 +7541,7 @@
       <c r="M16" s="19" t="n"/>
       <c r="O16" s="26" t="n"/>
     </row>
-    <row r="17" ht="17" customHeight="1" s="100">
+    <row r="17" ht="17" customHeight="1" s="101">
       <c r="A17" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">intermitente a la derecha </t>
@@ -6758,7 +7579,7 @@
       <c r="M17" s="19" t="n"/>
       <c r="O17" s="26" t="n"/>
     </row>
-    <row r="18" ht="17" customHeight="1" s="100">
+    <row r="18" ht="17" customHeight="1" s="101">
       <c r="A18" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">miro a la derecha </t>
@@ -6796,7 +7617,7 @@
       <c r="M18" s="19" t="n"/>
       <c r="O18" s="26" t="n"/>
     </row>
-    <row r="19" ht="17" customHeight="1" s="100">
+    <row r="19" ht="17" customHeight="1" s="101">
       <c r="A19" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">no viene nadie </t>
@@ -6834,7 +7655,7 @@
       <c r="M19" s="19" t="n"/>
       <c r="O19" s="26" t="n"/>
     </row>
-    <row r="20" ht="17" customHeight="1" s="100">
+    <row r="20" ht="17" customHeight="1" s="101">
       <c r="A20" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">giro a la derecha para cambiar de carril en la rotonda </t>
@@ -6872,7 +7693,7 @@
       <c r="M20" s="19" t="n"/>
       <c r="O20" s="26" t="n"/>
     </row>
-    <row r="21" ht="17" customHeight="1" s="100">
+    <row r="21" ht="17" customHeight="1" s="101">
       <c r="A21" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">giro a la derecha para salir de la rotonda </t>
@@ -6908,7 +7729,7 @@
       <c r="M21" s="19" t="n"/>
       <c r="O21" s="26" t="n"/>
     </row>
-    <row r="22" ht="17" customHeight="1" s="100">
+    <row r="22" ht="17" customHeight="1" s="101">
       <c r="A22" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">salgo de la rotonda </t>
@@ -6944,7 +7765,7 @@
       <c r="M22" s="19" t="n"/>
       <c r="O22" s="26" t="n"/>
     </row>
-    <row r="23" ht="17" customHeight="1" s="100">
+    <row r="23" ht="17" customHeight="1" s="101">
       <c r="A23" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">enderezo </t>
@@ -6980,7 +7801,7 @@
       <c r="M23" s="19" t="n"/>
       <c r="O23" s="26" t="n"/>
     </row>
-    <row r="24" ht="17" customHeight="1" s="100">
+    <row r="24" ht="17" customHeight="1" s="101">
       <c r="A24" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">quito el intermitente </t>
@@ -7016,7 +7837,7 @@
       <c r="M24" s="19" t="n"/>
       <c r="O24" s="26" t="n"/>
     </row>
-    <row r="25" ht="17" customHeight="1" s="100">
+    <row r="25" ht="17" customHeight="1" s="101">
       <c r="A25" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">acelero </t>
@@ -7052,7 +7873,7 @@
       <c r="M25" s="19" t="n"/>
       <c r="O25" s="26" t="n"/>
     </row>
-    <row r="26" ht="17" customHeight="1" s="100">
+    <row r="26" ht="17" customHeight="1" s="101">
       <c r="A26" s="81" t="inlineStr">
         <is>
           <t>cambio tercera</t>
@@ -7095,7 +7916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7109,10 +7930,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col width="49.6640625" bestFit="1" customWidth="1" style="100" min="1" max="1"/>
-    <col width="10.33203125" bestFit="1" customWidth="1" style="100" min="2" max="2"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="100" min="3" max="3"/>
-    <col width="11.33203125" customWidth="1" style="100" min="4" max="6"/>
+    <col width="49.6640625" bestFit="1" customWidth="1" style="101" min="1" max="1"/>
+    <col width="10.33203125" bestFit="1" customWidth="1" style="101" min="2" max="2"/>
+    <col width="9.5" bestFit="1" customWidth="1" style="101" min="3" max="3"/>
+    <col width="11.33203125" customWidth="1" style="101" min="4" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7132,7 +7953,7 @@
       <c r="L1" s="18" t="n"/>
       <c r="M1" s="18" t="n"/>
     </row>
-    <row r="2" ht="17" customHeight="1" s="100">
+    <row r="2" ht="17" customHeight="1" s="101">
       <c r="A2" s="10" t="inlineStr">
         <is>
           <t>Acciones verbalizadas</t>
@@ -7199,7 +8020,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="85" customHeight="1" s="100">
+    <row r="3" ht="85" customHeight="1" s="101">
       <c r="A3" s="7" t="inlineStr">
         <is>
           <t>ROTONDA 1</t>
@@ -8039,7 +8860,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8053,10 +8874,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col width="49.6640625" bestFit="1" customWidth="1" style="100" min="1" max="1"/>
-    <col width="10.33203125" bestFit="1" customWidth="1" style="100" min="2" max="2"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="100" min="3" max="3"/>
-    <col width="11.6640625" customWidth="1" style="100" min="4" max="6"/>
+    <col width="49.6640625" bestFit="1" customWidth="1" style="101" min="1" max="1"/>
+    <col width="10.33203125" bestFit="1" customWidth="1" style="101" min="2" max="2"/>
+    <col width="9.5" bestFit="1" customWidth="1" style="101" min="3" max="3"/>
+    <col width="11.6640625" customWidth="1" style="101" min="4" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -8076,7 +8897,7 @@
       <c r="L1" s="18" t="n"/>
       <c r="M1" s="18" t="n"/>
     </row>
-    <row r="2" ht="17" customHeight="1" s="100">
+    <row r="2" ht="17" customHeight="1" s="101">
       <c r="A2" s="10" t="inlineStr">
         <is>
           <t>Acciones verbalizadas</t>
@@ -8143,7 +8964,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="85" customHeight="1" s="100">
+    <row r="3" ht="85" customHeight="1" s="101">
       <c r="A3" s="7" t="inlineStr">
         <is>
           <t>ROTONDA 1</t>
@@ -9024,7 +9845,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9038,10 +9859,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col width="49.6640625" bestFit="1" customWidth="1" style="100" min="1" max="1"/>
-    <col width="10.33203125" bestFit="1" customWidth="1" style="100" min="2" max="2"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="100" min="3" max="3"/>
-    <col width="11.33203125" customWidth="1" style="100" min="4" max="6"/>
+    <col width="49.6640625" bestFit="1" customWidth="1" style="101" min="1" max="1"/>
+    <col width="10.33203125" bestFit="1" customWidth="1" style="101" min="2" max="2"/>
+    <col width="9.5" bestFit="1" customWidth="1" style="101" min="3" max="3"/>
+    <col width="11.33203125" customWidth="1" style="101" min="4" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9061,7 +9882,7 @@
       <c r="L1" s="18" t="n"/>
       <c r="M1" s="18" t="n"/>
     </row>
-    <row r="2" ht="17" customHeight="1" s="100">
+    <row r="2" ht="17" customHeight="1" s="101">
       <c r="A2" s="10" t="inlineStr">
         <is>
           <t>Acciones verbalizadas</t>
@@ -9128,7 +9949,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="85" customHeight="1" s="100">
+    <row r="3" ht="85" customHeight="1" s="101">
       <c r="A3" s="7" t="inlineStr">
         <is>
           <t>ROTONDA 1</t>
@@ -9469,7 +10290,7 @@
       <c r="M11" s="19" t="n"/>
       <c r="O11" s="26" t="n"/>
     </row>
-    <row r="12" ht="17" customHeight="1" s="100">
+    <row r="12" ht="17" customHeight="1" s="101">
       <c r="A12" s="87" t="inlineStr">
         <is>
           <t xml:space="preserve">intermitente izquierda </t>
@@ -9505,7 +10326,7 @@
       <c r="M12" s="19" t="n"/>
       <c r="O12" s="26" t="n"/>
     </row>
-    <row r="13" ht="17" customHeight="1" s="100">
+    <row r="13" ht="17" customHeight="1" s="101">
       <c r="A13" s="87" t="inlineStr">
         <is>
           <t>vía libre</t>
@@ -9541,7 +10362,7 @@
       <c r="M13" s="19" t="n"/>
       <c r="O13" s="26" t="n"/>
     </row>
-    <row r="14" ht="17" customHeight="1" s="100">
+    <row r="14" ht="17" customHeight="1" s="101">
       <c r="A14" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">entro en la rotonda </t>
@@ -9577,7 +10398,7 @@
       <c r="M14" s="19" t="n"/>
       <c r="O14" s="26" t="n"/>
     </row>
-    <row r="15" ht="17" customHeight="1" s="100">
+    <row r="15" ht="17" customHeight="1" s="101">
       <c r="A15" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">giro a la izquierda cambio al carril izquierdo en la rotonda </t>
@@ -9613,7 +10434,7 @@
       <c r="M15" s="19" t="n"/>
       <c r="O15" s="26" t="n"/>
     </row>
-    <row r="16" ht="17" customHeight="1" s="100">
+    <row r="16" ht="17" customHeight="1" s="101">
       <c r="A16" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">giro a la izquierda en la rotonda </t>
@@ -9649,7 +10470,7 @@
       <c r="M16" s="19" t="n"/>
       <c r="O16" s="26" t="n"/>
     </row>
-    <row r="17" ht="17" customHeight="1" s="100">
+    <row r="17" ht="17" customHeight="1" s="101">
       <c r="A17" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">retrovisor central </t>
@@ -9685,7 +10506,7 @@
       <c r="M17" s="19" t="n"/>
       <c r="O17" s="26" t="n"/>
     </row>
-    <row r="18" ht="17" customHeight="1" s="100">
+    <row r="18" ht="17" customHeight="1" s="101">
       <c r="A18" s="83" t="inlineStr">
         <is>
           <t>vía libre</t>
@@ -9721,7 +10542,7 @@
       <c r="M18" s="19" t="n"/>
       <c r="O18" s="26" t="n"/>
     </row>
-    <row r="19" ht="17" customHeight="1" s="100">
+    <row r="19" ht="17" customHeight="1" s="101">
       <c r="A19" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">mira la derecha </t>
@@ -9757,7 +10578,7 @@
       <c r="M19" s="19" t="n"/>
       <c r="O19" s="26" t="n"/>
     </row>
-    <row r="20" ht="17" customHeight="1" s="100">
+    <row r="20" ht="17" customHeight="1" s="101">
       <c r="A20" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">intermitente derecho </t>
@@ -9793,7 +10614,7 @@
       <c r="M20" s="19" t="n"/>
       <c r="O20" s="26" t="n"/>
     </row>
-    <row r="21" ht="17" customHeight="1" s="100">
+    <row r="21" ht="17" customHeight="1" s="101">
       <c r="A21" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">giro a la derecha para cambiar de carril en la rotonda </t>
@@ -9829,7 +10650,7 @@
       <c r="M21" s="19" t="n"/>
       <c r="O21" s="26" t="n"/>
     </row>
-    <row r="22" ht="17" customHeight="1" s="100">
+    <row r="22" ht="17" customHeight="1" s="101">
       <c r="A22" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">giro a la derecha para salir de la rotonda </t>
@@ -9865,7 +10686,7 @@
       <c r="M22" s="19" t="n"/>
       <c r="O22" s="26" t="n"/>
     </row>
-    <row r="23" ht="17" customHeight="1" s="100">
+    <row r="23" ht="17" customHeight="1" s="101">
       <c r="A23" s="81" t="inlineStr">
         <is>
           <t>salgo de la rotonda</t>
@@ -9901,7 +10722,7 @@
       <c r="M23" s="19" t="n"/>
       <c r="O23" s="26" t="n"/>
     </row>
-    <row r="24" ht="17" customHeight="1" s="100">
+    <row r="24" ht="17" customHeight="1" s="101">
       <c r="A24" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">acelero </t>
@@ -9937,7 +10758,7 @@
       <c r="M24" s="19" t="n"/>
       <c r="O24" s="26" t="n"/>
     </row>
-    <row r="25" ht="17" customHeight="1" s="100">
+    <row r="25" ht="17" customHeight="1" s="101">
       <c r="A25" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">enderezo </t>
@@ -9973,7 +10794,7 @@
       <c r="M25" s="19" t="n"/>
       <c r="O25" s="26" t="n"/>
     </row>
-    <row r="26" ht="17" customHeight="1" s="100">
+    <row r="26" ht="17" customHeight="1" s="101">
       <c r="A26" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">quito el intermitente </t>
@@ -10009,7 +10830,7 @@
       <c r="M26" s="19" t="n"/>
       <c r="O26" s="26" t="n"/>
     </row>
-    <row r="27" ht="17" customHeight="1" s="100">
+    <row r="27" ht="17" customHeight="1" s="101">
       <c r="A27" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">subo marcha tercera </t>
@@ -10051,7 +10872,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10059,16 +10880,16 @@
   </sheetPr>
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B22" sqref="B22:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col width="49.6640625" bestFit="1" customWidth="1" style="100" min="1" max="1"/>
-    <col width="10.33203125" bestFit="1" customWidth="1" style="100" min="2" max="2"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="100" min="3" max="3"/>
-    <col width="11.33203125" customWidth="1" style="100" min="4" max="6"/>
+    <col width="49.6640625" bestFit="1" customWidth="1" style="101" min="1" max="1"/>
+    <col width="10.33203125" bestFit="1" customWidth="1" style="101" min="2" max="2"/>
+    <col width="9.5" bestFit="1" customWidth="1" style="101" min="3" max="3"/>
+    <col width="11.33203125" customWidth="1" style="101" min="4" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -10088,7 +10909,7 @@
       <c r="L1" s="18" t="n"/>
       <c r="M1" s="18" t="n"/>
     </row>
-    <row r="2" ht="17" customHeight="1" s="100">
+    <row r="2" ht="17" customHeight="1" s="101">
       <c r="A2" s="10" t="inlineStr">
         <is>
           <t>Acciones verbalizadas</t>
@@ -10155,7 +10976,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="85" customHeight="1" s="100">
+    <row r="3" ht="85" customHeight="1" s="101">
       <c r="A3" s="7" t="inlineStr">
         <is>
           <t>ROTONDA 1</t>
@@ -10224,7 +11045,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="17" customHeight="1" s="100">
+    <row r="4" ht="17" customHeight="1" s="101">
       <c r="A4" s="87" t="inlineStr">
         <is>
           <t xml:space="preserve">me preparo para rotonda </t>
@@ -10260,7 +11081,7 @@
       <c r="M4" s="19" t="n"/>
       <c r="O4" s="26" t="n"/>
     </row>
-    <row r="5" ht="17" customHeight="1" s="100">
+    <row r="5" ht="17" customHeight="1" s="101">
       <c r="A5" s="87" t="inlineStr">
         <is>
           <t xml:space="preserve">levanto el pie del acelerador </t>
@@ -10296,7 +11117,7 @@
       <c r="M5" s="19" t="n"/>
       <c r="O5" s="26" t="n"/>
     </row>
-    <row r="6" ht="17" customHeight="1" s="100">
+    <row r="6" ht="17" customHeight="1" s="101">
       <c r="A6" s="87" t="inlineStr">
         <is>
           <t xml:space="preserve">bajo a segunda </t>
@@ -10332,7 +11153,7 @@
       <c r="M6" s="19" t="n"/>
       <c r="O6" s="26" t="n"/>
     </row>
-    <row r="7" ht="17" customHeight="1" s="100">
+    <row r="7" ht="17" customHeight="1" s="101">
       <c r="A7" s="87" t="inlineStr">
         <is>
           <t xml:space="preserve">levanto el pie del acelerador </t>
@@ -10368,7 +11189,7 @@
       <c r="M7" s="19" t="n"/>
       <c r="O7" s="26" t="n"/>
     </row>
-    <row r="8" ht="17" customHeight="1" s="100">
+    <row r="8" ht="17" customHeight="1" s="101">
       <c r="A8" s="87" t="inlineStr">
         <is>
           <t xml:space="preserve">freno </t>
@@ -10404,7 +11225,7 @@
       <c r="M8" s="19" t="n"/>
       <c r="O8" s="26" t="n"/>
     </row>
-    <row r="9" ht="17" customHeight="1" s="100">
+    <row r="9" ht="17" customHeight="1" s="101">
       <c r="A9" s="87" t="inlineStr">
         <is>
           <t xml:space="preserve">freno </t>
@@ -10440,7 +11261,7 @@
       <c r="M9" s="19" t="n"/>
       <c r="O9" s="26" t="n"/>
     </row>
-    <row r="10" ht="17" customHeight="1" s="100">
+    <row r="10" ht="17" customHeight="1" s="101">
       <c r="A10" s="87" t="inlineStr">
         <is>
           <t xml:space="preserve">bajo a Primera </t>
@@ -10476,7 +11297,7 @@
       <c r="M10" s="19" t="n"/>
       <c r="O10" s="26" t="n"/>
     </row>
-    <row r="11" ht="17" customHeight="1" s="100">
+    <row r="11" ht="17" customHeight="1" s="101">
       <c r="A11" s="87" t="inlineStr">
         <is>
           <t xml:space="preserve">acelero </t>
@@ -10512,7 +11333,7 @@
       <c r="M11" s="19" t="n"/>
       <c r="O11" s="26" t="n"/>
     </row>
-    <row r="12" ht="17" customHeight="1" s="100">
+    <row r="12" ht="17" customHeight="1" s="101">
       <c r="A12" s="87" t="inlineStr">
         <is>
           <t xml:space="preserve">miro a la izquierda </t>
@@ -10548,7 +11369,7 @@
       <c r="M12" s="19" t="n"/>
       <c r="O12" s="26" t="n"/>
     </row>
-    <row r="13" ht="17" customHeight="1" s="100">
+    <row r="13" ht="17" customHeight="1" s="101">
       <c r="A13" s="87" t="inlineStr">
         <is>
           <t xml:space="preserve">vía libre </t>
@@ -10584,7 +11405,7 @@
       <c r="M13" s="19" t="n"/>
       <c r="O13" s="26" t="n"/>
     </row>
-    <row r="14" ht="17" customHeight="1" s="100">
+    <row r="14" ht="17" customHeight="1" s="101">
       <c r="A14" s="87" t="inlineStr">
         <is>
           <t xml:space="preserve">intermitente a la izquierda </t>
@@ -10620,7 +11441,7 @@
       <c r="M14" s="19" t="n"/>
       <c r="O14" s="26" t="n"/>
     </row>
-    <row r="15" ht="17" customHeight="1" s="100">
+    <row r="15" ht="17" customHeight="1" s="101">
       <c r="A15" s="87" t="inlineStr">
         <is>
           <t xml:space="preserve">acelero </t>
@@ -10656,7 +11477,7 @@
       <c r="M15" s="19" t="n"/>
       <c r="O15" s="26" t="n"/>
     </row>
-    <row r="16" ht="17" customHeight="1" s="100">
+    <row r="16" ht="17" customHeight="1" s="101">
       <c r="A16" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">entro en la rotonda </t>
@@ -10696,7 +11517,7 @@
       <c r="M16" s="19" t="n"/>
       <c r="O16" s="26" t="n"/>
     </row>
-    <row r="17" ht="17" customHeight="1" s="100">
+    <row r="17" ht="17" customHeight="1" s="101">
       <c r="A17" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">subo a segunda </t>
@@ -10738,7 +11559,7 @@
       </c>
       <c r="O17" s="26" t="n"/>
     </row>
-    <row r="18" ht="17" customHeight="1" s="100">
+    <row r="18" ht="17" customHeight="1" s="101">
       <c r="A18" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">giro a la izquierda en la rotonda para cambiar de carril </t>
@@ -10778,7 +11599,7 @@
       </c>
       <c r="O18" s="26" t="n"/>
     </row>
-    <row r="19" ht="17" customHeight="1" s="100">
+    <row r="19" ht="17" customHeight="1" s="101">
       <c r="A19" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">giro a la izquierda en la rotonda </t>
@@ -10814,7 +11635,7 @@
       <c r="M19" s="19" t="n"/>
       <c r="O19" s="26" t="n"/>
     </row>
-    <row r="20" ht="17" customHeight="1" s="100">
+    <row r="20" ht="17" customHeight="1" s="101">
       <c r="A20" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">intermitente a la derecha </t>
@@ -10850,7 +11671,7 @@
       <c r="M20" s="19" t="n"/>
       <c r="O20" s="26" t="n"/>
     </row>
-    <row r="21" ht="17" customHeight="1" s="100">
+    <row r="21" ht="17" customHeight="1" s="101">
       <c r="A21" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">retrovisor derecho </t>
@@ -10886,7 +11707,7 @@
       <c r="M21" s="19" t="n"/>
       <c r="O21" s="26" t="n"/>
     </row>
-    <row r="22" ht="17" customHeight="1" s="100">
+    <row r="22" ht="17" customHeight="1" s="101">
       <c r="A22" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">mira la derecha </t>
@@ -10922,7 +11743,7 @@
       <c r="M22" s="19" t="n"/>
       <c r="O22" s="26" t="n"/>
     </row>
-    <row r="23" ht="17" customHeight="1" s="100">
+    <row r="23" ht="17" customHeight="1" s="101">
       <c r="A23" s="83" t="inlineStr">
         <is>
           <t>vía libre</t>
@@ -10958,7 +11779,7 @@
       <c r="M23" s="19" t="n"/>
       <c r="O23" s="26" t="n"/>
     </row>
-    <row r="24" ht="17" customHeight="1" s="100">
+    <row r="24" ht="17" customHeight="1" s="101">
       <c r="A24" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">giro a la derecha para cambiar de carril en la rotonda </t>
@@ -10994,7 +11815,7 @@
       <c r="M24" s="19" t="n"/>
       <c r="O24" s="26" t="n"/>
     </row>
-    <row r="25" ht="17" customHeight="1" s="100">
+    <row r="25" ht="17" customHeight="1" s="101">
       <c r="A25" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">giro a la derecha para salir de la rotonda </t>
@@ -11030,7 +11851,7 @@
       <c r="M25" s="19" t="n"/>
       <c r="O25" s="26" t="n"/>
     </row>
-    <row r="26" ht="17" customHeight="1" s="100">
+    <row r="26" ht="17" customHeight="1" s="101">
       <c r="A26" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">salgo de la rotonda </t>
@@ -11066,7 +11887,7 @@
       <c r="M26" s="19" t="n"/>
       <c r="O26" s="26" t="n"/>
     </row>
-    <row r="27" ht="17" customHeight="1" s="100">
+    <row r="27" ht="17" customHeight="1" s="101">
       <c r="A27" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">acelero </t>
@@ -11101,7 +11922,7 @@
       <c r="L27" s="19" t="n"/>
       <c r="M27" s="19" t="n"/>
     </row>
-    <row r="28" ht="17" customHeight="1" s="100">
+    <row r="28" ht="17" customHeight="1" s="101">
       <c r="A28" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">quito el intermitente </t>
@@ -11136,7 +11957,7 @@
       <c r="L28" s="19" t="n"/>
       <c r="M28" s="19" t="n"/>
     </row>
-    <row r="29" ht="17" customHeight="1" s="100">
+    <row r="29" ht="17" customHeight="1" s="101">
       <c r="A29" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">subo a Tercera </t>
@@ -11171,7 +11992,7 @@
       <c r="L29" s="19" t="n"/>
       <c r="M29" s="19" t="n"/>
     </row>
-    <row r="30" ht="17" customHeight="1" s="100">
+    <row r="30" ht="17" customHeight="1" s="101">
       <c r="A30" s="81" t="inlineStr">
         <is>
           <t>acelero</t>
@@ -11205,980 +12026,6 @@
       <c r="K30" s="21" t="n"/>
       <c r="L30" s="19" t="n"/>
       <c r="M30" s="19" t="n"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:O25"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col width="49.6640625" bestFit="1" customWidth="1" style="100" min="1" max="1"/>
-    <col width="10.33203125" bestFit="1" customWidth="1" style="100" min="2" max="2"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="100" min="3" max="3"/>
-    <col width="11" customWidth="1" style="100" min="4" max="6"/>
-    <col width="13.6640625" customWidth="1" style="6" min="8" max="8"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="25" t="n">
-        <v>44400</v>
-      </c>
-      <c r="B1" s="89" t="n"/>
-      <c r="C1" s="17" t="n"/>
-      <c r="D1" s="17" t="n"/>
-      <c r="E1" s="17" t="n"/>
-      <c r="F1" s="17" t="n"/>
-      <c r="G1" s="18" t="n"/>
-      <c r="H1" s="18" t="n"/>
-      <c r="I1" s="18" t="n"/>
-      <c r="J1" s="18" t="n"/>
-      <c r="K1" s="18" t="n"/>
-      <c r="L1" s="18" t="n"/>
-      <c r="M1" s="18" t="n"/>
-    </row>
-    <row r="2" ht="17" customHeight="1" s="100">
-      <c r="A2" s="10" t="inlineStr">
-        <is>
-          <t>Acciones verbalizadas</t>
-        </is>
-      </c>
-      <c r="B2" s="10" t="inlineStr">
-        <is>
-          <t>x1</t>
-        </is>
-      </c>
-      <c r="C2" s="10" t="inlineStr">
-        <is>
-          <t>x2</t>
-        </is>
-      </c>
-      <c r="D2" s="10" t="inlineStr">
-        <is>
-          <t>x3</t>
-        </is>
-      </c>
-      <c r="E2" s="10" t="inlineStr">
-        <is>
-          <t>x4</t>
-        </is>
-      </c>
-      <c r="F2" s="10" t="inlineStr">
-        <is>
-          <t>x5</t>
-        </is>
-      </c>
-      <c r="G2" s="10" t="inlineStr">
-        <is>
-          <t>x6</t>
-        </is>
-      </c>
-      <c r="H2" s="10" t="inlineStr">
-        <is>
-          <t>x7</t>
-        </is>
-      </c>
-      <c r="I2" s="10" t="inlineStr">
-        <is>
-          <t>x8</t>
-        </is>
-      </c>
-      <c r="J2" s="10" t="inlineStr">
-        <is>
-          <t>x9</t>
-        </is>
-      </c>
-      <c r="K2" s="10" t="inlineStr">
-        <is>
-          <t>x10</t>
-        </is>
-      </c>
-      <c r="L2" s="10" t="inlineStr">
-        <is>
-          <t>x11</t>
-        </is>
-      </c>
-      <c r="M2" s="10" t="inlineStr">
-        <is>
-          <t>x12</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="68" customHeight="1" s="100">
-      <c r="A3" s="7" t="inlineStr">
-        <is>
-          <t>ROTONDA 1</t>
-        </is>
-      </c>
-      <c r="B3" s="7" t="inlineStr">
-        <is>
-          <t>Percepción</t>
-        </is>
-      </c>
-      <c r="C3" s="91" t="inlineStr">
-        <is>
-          <t>Acción</t>
-        </is>
-      </c>
-      <c r="D3" s="23" t="inlineStr">
-        <is>
-          <t>Distancia real al ceda el paso (metros)</t>
-        </is>
-      </c>
-      <c r="E3" s="23" t="inlineStr">
-        <is>
-          <t>Velocidad actual</t>
-        </is>
-      </c>
-      <c r="F3" s="23" t="inlineStr">
-        <is>
-          <t>Límie velocidad GoogleMaps API</t>
-        </is>
-      </c>
-      <c r="G3" s="23" t="inlineStr">
-        <is>
-          <t>Posición</t>
-        </is>
-      </c>
-      <c r="H3" s="33" t="inlineStr">
-        <is>
-          <t>Distancia con coche delante
-1 = media
-2 = cerca</t>
-        </is>
-      </c>
-      <c r="I3" s="43" t="inlineStr">
-        <is>
-          <t>Zi</t>
-        </is>
-      </c>
-      <c r="J3" s="44" t="inlineStr">
-        <is>
-          <t>Zc</t>
-        </is>
-      </c>
-      <c r="K3" s="45" t="inlineStr">
-        <is>
-          <t>Zd</t>
-        </is>
-      </c>
-      <c r="L3" s="22" t="inlineStr">
-        <is>
-          <t>Coche en Carril izquierdo</t>
-        </is>
-      </c>
-      <c r="M3" s="22" t="inlineStr">
-        <is>
-          <t>Coche en Carril derecho</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="17" customHeight="1" s="100">
-      <c r="A4" s="87" t="inlineStr">
-        <is>
-          <t xml:space="preserve">me preparo para rotonda </t>
-        </is>
-      </c>
-      <c r="B4" s="87" t="n"/>
-      <c r="C4" s="87" t="inlineStr">
-        <is>
-          <t>RND-MD</t>
-        </is>
-      </c>
-      <c r="D4" s="64" t="n">
-        <v>230</v>
-      </c>
-      <c r="E4" s="64" t="n">
-        <v>63.73</v>
-      </c>
-      <c r="F4" s="64" t="n">
-        <v>70</v>
-      </c>
-      <c r="G4" s="58" t="inlineStr">
-        <is>
-          <t>Aprox</t>
-        </is>
-      </c>
-      <c r="H4" s="20" t="n"/>
-      <c r="I4" s="21" t="n"/>
-      <c r="J4" s="21" t="n"/>
-      <c r="K4" s="21" t="n"/>
-      <c r="L4" s="19" t="n"/>
-      <c r="M4" s="19" t="n"/>
-      <c r="O4" s="26" t="n"/>
-    </row>
-    <row r="5" ht="17" customHeight="1" s="100">
-      <c r="A5" s="87" t="inlineStr">
-        <is>
-          <t xml:space="preserve">levanto el pie del acelerador </t>
-        </is>
-      </c>
-      <c r="B5" s="87" t="n"/>
-      <c r="C5" s="87" t="inlineStr">
-        <is>
-          <t>T-OFF</t>
-        </is>
-      </c>
-      <c r="D5" s="64" t="n">
-        <v>170</v>
-      </c>
-      <c r="E5" s="64" t="n">
-        <v>63.2</v>
-      </c>
-      <c r="F5" s="64" t="n">
-        <v>70</v>
-      </c>
-      <c r="G5" s="13" t="inlineStr">
-        <is>
-          <t>Aprox</t>
-        </is>
-      </c>
-      <c r="H5" s="20" t="n"/>
-      <c r="I5" s="21" t="n"/>
-      <c r="J5" s="21" t="n"/>
-      <c r="K5" s="21" t="n"/>
-      <c r="L5" s="19" t="n"/>
-      <c r="M5" s="19" t="n"/>
-      <c r="O5" s="26" t="n"/>
-    </row>
-    <row r="6" ht="17" customHeight="1" s="100">
-      <c r="A6" s="87" t="inlineStr">
-        <is>
-          <t xml:space="preserve">bajo a Tercera </t>
-        </is>
-      </c>
-      <c r="B6" s="87" t="n"/>
-      <c r="C6" s="87" t="inlineStr">
-        <is>
-          <t>GD</t>
-        </is>
-      </c>
-      <c r="D6" s="64" t="n">
-        <v>120</v>
-      </c>
-      <c r="E6" s="64" t="n">
-        <v>58.15</v>
-      </c>
-      <c r="F6" s="64" t="n">
-        <v>60</v>
-      </c>
-      <c r="G6" s="13" t="inlineStr">
-        <is>
-          <t>Aprox</t>
-        </is>
-      </c>
-      <c r="H6" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="21" t="n"/>
-      <c r="J6" s="21" t="n"/>
-      <c r="K6" s="21" t="n"/>
-      <c r="L6" s="19" t="n"/>
-      <c r="M6" s="19" t="n"/>
-      <c r="O6" s="26" t="n"/>
-    </row>
-    <row r="7" ht="17" customHeight="1" s="100">
-      <c r="A7" s="87" t="inlineStr">
-        <is>
-          <t xml:space="preserve">levanto el pie del acelerador </t>
-        </is>
-      </c>
-      <c r="B7" s="87" t="n"/>
-      <c r="C7" s="87" t="inlineStr">
-        <is>
-          <t>T-OFF</t>
-        </is>
-      </c>
-      <c r="D7" s="64" t="n">
-        <v>110</v>
-      </c>
-      <c r="E7" s="64" t="n">
-        <v>58.11</v>
-      </c>
-      <c r="F7" s="64" t="n">
-        <v>60</v>
-      </c>
-      <c r="G7" s="13" t="inlineStr">
-        <is>
-          <t>Aprox</t>
-        </is>
-      </c>
-      <c r="H7" s="20" t="n"/>
-      <c r="I7" s="21" t="n"/>
-      <c r="J7" s="21" t="n"/>
-      <c r="K7" s="21" t="n"/>
-      <c r="L7" s="19" t="n"/>
-      <c r="M7" s="19" t="n"/>
-      <c r="O7" s="26" t="n"/>
-    </row>
-    <row r="8" ht="17" customHeight="1" s="100">
-      <c r="A8" s="87" t="inlineStr">
-        <is>
-          <t xml:space="preserve">freno </t>
-        </is>
-      </c>
-      <c r="B8" s="87" t="n"/>
-      <c r="C8" s="87" t="inlineStr">
-        <is>
-          <t>B-ON</t>
-        </is>
-      </c>
-      <c r="D8" s="64" t="n">
-        <v>30</v>
-      </c>
-      <c r="E8" s="64" t="n">
-        <v>49.72</v>
-      </c>
-      <c r="F8" s="64" t="n">
-        <v>40</v>
-      </c>
-      <c r="G8" s="13" t="inlineStr">
-        <is>
-          <t>Aprox</t>
-        </is>
-      </c>
-      <c r="H8" s="20" t="n"/>
-      <c r="I8" s="21" t="n"/>
-      <c r="J8" s="21" t="n"/>
-      <c r="K8" s="21" t="n"/>
-      <c r="L8" s="19" t="n"/>
-      <c r="M8" s="19" t="n"/>
-      <c r="O8" s="26" t="n"/>
-    </row>
-    <row r="9" ht="17" customHeight="1" s="100">
-      <c r="A9" s="87" t="inlineStr">
-        <is>
-          <t xml:space="preserve">cambio segunda </t>
-        </is>
-      </c>
-      <c r="B9" s="87" t="n"/>
-      <c r="C9" s="87" t="inlineStr">
-        <is>
-          <t>GD</t>
-        </is>
-      </c>
-      <c r="D9" s="64" t="n">
-        <v>18</v>
-      </c>
-      <c r="E9" s="64" t="n">
-        <v>41.43</v>
-      </c>
-      <c r="F9" s="64" t="n">
-        <v>40</v>
-      </c>
-      <c r="G9" s="13" t="inlineStr">
-        <is>
-          <t>Aprox</t>
-        </is>
-      </c>
-      <c r="H9" s="20" t="n"/>
-      <c r="I9" s="21" t="n"/>
-      <c r="J9" s="21" t="n"/>
-      <c r="K9" s="21" t="n"/>
-      <c r="L9" s="19" t="n"/>
-      <c r="M9" s="19" t="n"/>
-      <c r="O9" s="26" t="n"/>
-    </row>
-    <row r="10" ht="17" customHeight="1" s="100">
-      <c r="A10" s="87" t="inlineStr">
-        <is>
-          <t xml:space="preserve">miro a la izquierda </t>
-        </is>
-      </c>
-      <c r="B10" s="87" t="inlineStr">
-        <is>
-          <t>LV-FREE</t>
-        </is>
-      </c>
-      <c r="C10" s="87" t="n"/>
-      <c r="D10" s="64" t="n">
-        <v>8</v>
-      </c>
-      <c r="E10" s="64" t="n">
-        <v>33.94</v>
-      </c>
-      <c r="F10" s="64" t="n">
-        <v>40</v>
-      </c>
-      <c r="G10" s="13" t="inlineStr">
-        <is>
-          <t>Aprox</t>
-        </is>
-      </c>
-      <c r="H10" s="20" t="n"/>
-      <c r="I10" s="21" t="n"/>
-      <c r="J10" s="21" t="n"/>
-      <c r="K10" s="21" t="n"/>
-      <c r="L10" s="19" t="n"/>
-      <c r="M10" s="19" t="n"/>
-      <c r="O10" s="26" t="n"/>
-    </row>
-    <row r="11" ht="17" customHeight="1" s="100">
-      <c r="A11" s="87" t="inlineStr">
-        <is>
-          <t>vía libre</t>
-        </is>
-      </c>
-      <c r="B11" s="87" t="inlineStr">
-        <is>
-          <t>L-FREE</t>
-        </is>
-      </c>
-      <c r="C11" s="87" t="n"/>
-      <c r="D11" s="64" t="n">
-        <v>8</v>
-      </c>
-      <c r="E11" s="64" t="n">
-        <v>33.94</v>
-      </c>
-      <c r="F11" s="64" t="n">
-        <v>40</v>
-      </c>
-      <c r="G11" s="13" t="inlineStr">
-        <is>
-          <t>Aprox</t>
-        </is>
-      </c>
-      <c r="H11" s="20" t="n"/>
-      <c r="I11" s="21" t="n"/>
-      <c r="J11" s="21" t="n"/>
-      <c r="K11" s="21" t="n"/>
-      <c r="L11" s="19" t="n"/>
-      <c r="M11" s="19" t="n"/>
-      <c r="O11" s="26" t="n"/>
-    </row>
-    <row r="12" ht="17" customHeight="1" s="100">
-      <c r="A12" s="87" t="inlineStr">
-        <is>
-          <t xml:space="preserve">intermitente a la izquierda </t>
-        </is>
-      </c>
-      <c r="B12" s="87" t="n"/>
-      <c r="C12" s="87" t="inlineStr">
-        <is>
-          <t>LB-ON</t>
-        </is>
-      </c>
-      <c r="D12" s="64" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E12" s="64" t="n">
-        <v>31.11</v>
-      </c>
-      <c r="F12" s="64" t="n">
-        <v>40</v>
-      </c>
-      <c r="G12" s="13" t="inlineStr">
-        <is>
-          <t>Aprox</t>
-        </is>
-      </c>
-      <c r="H12" s="20" t="n"/>
-      <c r="I12" s="21" t="n"/>
-      <c r="J12" s="21" t="n"/>
-      <c r="K12" s="21" t="n"/>
-      <c r="L12" s="19" t="n"/>
-      <c r="M12" s="19" t="n"/>
-      <c r="O12" s="26" t="n"/>
-    </row>
-    <row r="13" ht="17" customHeight="1" s="100">
-      <c r="A13" s="83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">entro en la rotonda </t>
-        </is>
-      </c>
-      <c r="B13" s="83" t="n"/>
-      <c r="C13" s="83" t="inlineStr">
-        <is>
-          <t>RND-IN</t>
-        </is>
-      </c>
-      <c r="D13" s="34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E13" s="34" t="n">
-        <v>30.41</v>
-      </c>
-      <c r="F13" s="34" t="n">
-        <v>40</v>
-      </c>
-      <c r="G13" s="52" t="inlineStr">
-        <is>
-          <t>Dentro</t>
-        </is>
-      </c>
-      <c r="H13" s="20" t="n"/>
-      <c r="I13" s="21" t="n"/>
-      <c r="J13" s="21" t="n"/>
-      <c r="K13" s="21" t="n"/>
-      <c r="L13" s="19" t="n"/>
-      <c r="M13" s="19" t="n"/>
-      <c r="O13" s="26" t="n"/>
-    </row>
-    <row r="14" ht="17" customHeight="1" s="100">
-      <c r="A14" s="83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">gira a la izquierda en la rotonda para cambiar de carril </t>
-        </is>
-      </c>
-      <c r="B14" s="83" t="n"/>
-      <c r="C14" s="83" t="inlineStr">
-        <is>
-          <t>CHG-L</t>
-        </is>
-      </c>
-      <c r="D14" s="34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E14" s="34" t="n">
-        <v>28.89</v>
-      </c>
-      <c r="F14" s="34" t="n">
-        <v>40</v>
-      </c>
-      <c r="G14" s="52" t="inlineStr">
-        <is>
-          <t>Dentro</t>
-        </is>
-      </c>
-      <c r="H14" s="20" t="n"/>
-      <c r="I14" s="21" t="n"/>
-      <c r="J14" s="21" t="n"/>
-      <c r="K14" s="21" t="n"/>
-      <c r="L14" s="19" t="n"/>
-      <c r="M14" s="19" t="n"/>
-      <c r="O14" s="26" t="n"/>
-    </row>
-    <row r="15" ht="17" customHeight="1" s="100">
-      <c r="A15" s="83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">giro a la izquierda en la rotonda </t>
-        </is>
-      </c>
-      <c r="B15" s="83" t="n"/>
-      <c r="C15" s="83" t="inlineStr">
-        <is>
-          <t>TRN-L</t>
-        </is>
-      </c>
-      <c r="D15" s="34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E15" s="34" t="n">
-        <v>28.28</v>
-      </c>
-      <c r="F15" s="34" t="n">
-        <v>40</v>
-      </c>
-      <c r="G15" s="52" t="inlineStr">
-        <is>
-          <t>Dentro</t>
-        </is>
-      </c>
-      <c r="H15" s="20" t="n"/>
-      <c r="I15" s="21" t="n"/>
-      <c r="J15" s="21" t="n"/>
-      <c r="K15" s="21" t="n"/>
-      <c r="L15" s="19" t="n"/>
-      <c r="M15" s="19" t="n"/>
-      <c r="O15" s="26" t="n"/>
-    </row>
-    <row r="16" ht="17" customHeight="1" s="100">
-      <c r="A16" s="83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">miro a la derecha </t>
-        </is>
-      </c>
-      <c r="B16" s="83" t="inlineStr">
-        <is>
-          <t>RV-FREE</t>
-        </is>
-      </c>
-      <c r="C16" s="83" t="n"/>
-      <c r="D16" s="34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E16" s="34" t="n">
-        <v>25.78</v>
-      </c>
-      <c r="F16" s="34" t="n">
-        <v>40</v>
-      </c>
-      <c r="G16" s="52" t="inlineStr">
-        <is>
-          <t>Dentro</t>
-        </is>
-      </c>
-      <c r="H16" s="20" t="n"/>
-      <c r="I16" s="21" t="n"/>
-      <c r="J16" s="21" t="n"/>
-      <c r="K16" s="21" t="n"/>
-      <c r="L16" s="19" t="n"/>
-      <c r="M16" s="19" t="n"/>
-      <c r="O16" s="26" t="n"/>
-    </row>
-    <row r="17" ht="17" customHeight="1" s="100">
-      <c r="A17" s="83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">vía libre </t>
-        </is>
-      </c>
-      <c r="B17" s="83" t="inlineStr">
-        <is>
-          <t>RE-FREE</t>
-        </is>
-      </c>
-      <c r="C17" s="83" t="n"/>
-      <c r="D17" s="34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E17" s="34" t="n">
-        <v>26.43</v>
-      </c>
-      <c r="F17" s="34" t="n">
-        <v>40</v>
-      </c>
-      <c r="G17" s="52" t="inlineStr">
-        <is>
-          <t>Dentro</t>
-        </is>
-      </c>
-      <c r="H17" s="20" t="n"/>
-      <c r="I17" s="21" t="n"/>
-      <c r="J17" s="21" t="n"/>
-      <c r="K17" s="21" t="n"/>
-      <c r="L17" s="19" t="n"/>
-      <c r="M17" s="19" t="n"/>
-      <c r="O17" s="26" t="n"/>
-    </row>
-    <row r="18" ht="17" customHeight="1" s="100">
-      <c r="A18" s="83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">intermitente a la derecha </t>
-        </is>
-      </c>
-      <c r="B18" s="83" t="n"/>
-      <c r="C18" s="83" t="inlineStr">
-        <is>
-          <t>RB-ON</t>
-        </is>
-      </c>
-      <c r="D18" s="34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E18" s="34" t="n">
-        <v>26.72</v>
-      </c>
-      <c r="F18" s="34" t="n">
-        <v>40</v>
-      </c>
-      <c r="G18" s="52" t="inlineStr">
-        <is>
-          <t>Dentro</t>
-        </is>
-      </c>
-      <c r="H18" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" s="21" t="n"/>
-      <c r="J18" s="21" t="n"/>
-      <c r="K18" s="21" t="n"/>
-      <c r="L18" s="19" t="n"/>
-      <c r="M18" s="19" t="n"/>
-      <c r="O18" s="26" t="n"/>
-    </row>
-    <row r="19" ht="17" customHeight="1" s="100">
-      <c r="A19" s="83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">giro a la derecha para cambiar de carril en la rotonda </t>
-        </is>
-      </c>
-      <c r="B19" s="83" t="n"/>
-      <c r="C19" s="83" t="inlineStr">
-        <is>
-          <t>CHG-R</t>
-        </is>
-      </c>
-      <c r="D19" s="34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E19" s="34" t="n">
-        <v>28.22</v>
-      </c>
-      <c r="F19" s="34" t="n">
-        <v>40</v>
-      </c>
-      <c r="G19" s="52" t="inlineStr">
-        <is>
-          <t>Dentro</t>
-        </is>
-      </c>
-      <c r="H19" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="21" t="n"/>
-      <c r="J19" s="21" t="n"/>
-      <c r="K19" s="21" t="n"/>
-      <c r="L19" s="19" t="n"/>
-      <c r="M19" s="19" t="n"/>
-      <c r="O19" s="26" t="n"/>
-    </row>
-    <row r="20" ht="17" customHeight="1" s="100">
-      <c r="A20" s="83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">giro a la derecha para salir de la rotonda </t>
-        </is>
-      </c>
-      <c r="B20" s="83" t="n"/>
-      <c r="C20" s="83" t="inlineStr">
-        <is>
-          <t>TRN-R</t>
-        </is>
-      </c>
-      <c r="D20" s="34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E20" s="34" t="n">
-        <v>31.95</v>
-      </c>
-      <c r="F20" s="34" t="n">
-        <v>40</v>
-      </c>
-      <c r="G20" s="52" t="inlineStr">
-        <is>
-          <t>Dentro</t>
-        </is>
-      </c>
-      <c r="H20" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="21" t="n"/>
-      <c r="J20" s="21" t="n"/>
-      <c r="K20" s="21" t="n"/>
-      <c r="L20" s="19" t="n"/>
-      <c r="M20" s="19" t="n"/>
-      <c r="O20" s="26" t="n"/>
-    </row>
-    <row r="21" ht="17" customHeight="1" s="100">
-      <c r="A21" s="81" t="inlineStr">
-        <is>
-          <t xml:space="preserve">salgo de la rotonda </t>
-        </is>
-      </c>
-      <c r="B21" s="81" t="n"/>
-      <c r="C21" s="81" t="inlineStr">
-        <is>
-          <t>RND-OUT</t>
-        </is>
-      </c>
-      <c r="D21" s="41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E21" s="41" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="F21" s="41" t="n">
-        <v>40</v>
-      </c>
-      <c r="G21" s="65" t="inlineStr">
-        <is>
-          <t>Salida</t>
-        </is>
-      </c>
-      <c r="H21" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="21" t="n"/>
-      <c r="J21" s="21" t="n"/>
-      <c r="K21" s="21" t="n"/>
-      <c r="L21" s="19" t="n"/>
-      <c r="M21" s="19" t="n"/>
-      <c r="O21" s="26" t="n"/>
-    </row>
-    <row r="22" ht="17" customHeight="1" s="100">
-      <c r="A22" s="81" t="inlineStr">
-        <is>
-          <t xml:space="preserve">acelero </t>
-        </is>
-      </c>
-      <c r="B22" s="81" t="n"/>
-      <c r="C22" s="81" t="inlineStr">
-        <is>
-          <t>T-ON</t>
-        </is>
-      </c>
-      <c r="D22" s="41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E22" s="41" t="n">
-        <v>45.51</v>
-      </c>
-      <c r="F22" s="41" t="n">
-        <v>40</v>
-      </c>
-      <c r="G22" s="65" t="inlineStr">
-        <is>
-          <t>Salida</t>
-        </is>
-      </c>
-      <c r="H22" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" s="21" t="n"/>
-      <c r="J22" s="21" t="n"/>
-      <c r="K22" s="21" t="n"/>
-      <c r="L22" s="19" t="n"/>
-      <c r="M22" s="19" t="n"/>
-      <c r="O22" s="26" t="n"/>
-    </row>
-    <row r="23" ht="17" customHeight="1" s="100">
-      <c r="A23" s="81" t="inlineStr">
-        <is>
-          <t xml:space="preserve">quito el intermitente </t>
-        </is>
-      </c>
-      <c r="B23" s="81" t="n"/>
-      <c r="C23" s="81" t="inlineStr">
-        <is>
-          <t>RB-OFF</t>
-        </is>
-      </c>
-      <c r="D23" s="41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E23" s="41" t="n">
-        <v>45.94</v>
-      </c>
-      <c r="F23" s="41" t="n">
-        <v>40</v>
-      </c>
-      <c r="G23" s="65" t="inlineStr">
-        <is>
-          <t>Salida</t>
-        </is>
-      </c>
-      <c r="H23" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" s="21" t="n"/>
-      <c r="J23" s="21" t="n"/>
-      <c r="K23" s="21" t="n"/>
-      <c r="L23" s="19" t="n"/>
-      <c r="M23" s="19" t="n"/>
-      <c r="O23" s="26" t="n"/>
-    </row>
-    <row r="24" ht="17" customHeight="1" s="100">
-      <c r="A24" s="81" t="inlineStr">
-        <is>
-          <t xml:space="preserve">subo a Tercera </t>
-        </is>
-      </c>
-      <c r="B24" s="81" t="n"/>
-      <c r="C24" s="81" t="inlineStr">
-        <is>
-          <t>GU</t>
-        </is>
-      </c>
-      <c r="D24" s="41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E24" s="41" t="n">
-        <v>47.31</v>
-      </c>
-      <c r="F24" s="41" t="n">
-        <v>40</v>
-      </c>
-      <c r="G24" s="65" t="inlineStr">
-        <is>
-          <t>Salida</t>
-        </is>
-      </c>
-      <c r="H24" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" s="21" t="n"/>
-      <c r="J24" s="21" t="n"/>
-      <c r="K24" s="21" t="n"/>
-      <c r="L24" s="19" t="n"/>
-      <c r="M24" s="19" t="n"/>
-      <c r="O24" s="26" t="n"/>
-    </row>
-    <row r="25" ht="17" customHeight="1" s="100">
-      <c r="A25" s="81" t="inlineStr">
-        <is>
-          <t>acelero</t>
-        </is>
-      </c>
-      <c r="B25" s="81" t="n"/>
-      <c r="C25" s="81" t="inlineStr">
-        <is>
-          <t>T-ON</t>
-        </is>
-      </c>
-      <c r="D25" s="41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E25" s="41" t="n">
-        <v>48.74</v>
-      </c>
-      <c r="F25" s="41" t="n">
-        <v>40</v>
-      </c>
-      <c r="G25" s="65" t="inlineStr">
-        <is>
-          <t>Salida</t>
-        </is>
-      </c>
-      <c r="H25" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" s="21" t="n"/>
-      <c r="J25" s="21" t="n"/>
-      <c r="K25" s="21" t="n"/>
-      <c r="L25" s="19" t="n"/>
-      <c r="M25" s="19" t="n"/>
-      <c r="O25" s="26" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12200,12 +12047,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col width="8.6640625" customWidth="1" style="100" min="6" max="6"/>
-    <col width="23.6640625" bestFit="1" customWidth="1" style="100" min="7" max="7"/>
-    <col width="24.33203125" customWidth="1" style="100" min="8" max="8"/>
-    <col width="15.1640625" bestFit="1" customWidth="1" style="100" min="9" max="9"/>
-    <col width="59.33203125" bestFit="1" customWidth="1" style="100" min="11" max="11"/>
-    <col width="11.5" bestFit="1" customWidth="1" style="100" min="14" max="14"/>
+    <col width="8.6640625" customWidth="1" style="101" min="6" max="6"/>
+    <col width="23.6640625" bestFit="1" customWidth="1" style="101" min="7" max="7"/>
+    <col width="24.33203125" customWidth="1" style="101" min="8" max="8"/>
+    <col width="15.1640625" bestFit="1" customWidth="1" style="101" min="9" max="9"/>
+    <col width="59.33203125" bestFit="1" customWidth="1" style="101" min="11" max="11"/>
+    <col width="11.5" bestFit="1" customWidth="1" style="101" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -12747,7 +12594,7 @@
       </c>
       <c r="K22" s="72" t="n"/>
     </row>
-    <row r="23" ht="16" customHeight="1" s="100">
+    <row r="23" ht="16" customHeight="1" s="101">
       <c r="G23" s="72" t="inlineStr">
         <is>
           <t>recto</t>
@@ -12878,7 +12725,7 @@
         </is>
       </c>
     </row>
-    <row r="28" ht="34" customHeight="1" s="100">
+    <row r="28" ht="34" customHeight="1" s="101">
       <c r="G28" s="70" t="inlineStr">
         <is>
           <t>Lado izquierda libre</t>
@@ -12905,7 +12752,7 @@
         </is>
       </c>
     </row>
-    <row r="29" ht="17" customHeight="1" s="100">
+    <row r="29" ht="17" customHeight="1" s="101">
       <c r="G29" s="70" t="inlineStr">
         <is>
           <t>Lado izquierda ocupado</t>
@@ -12932,7 +12779,7 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="17" customHeight="1" s="100">
+    <row r="30" ht="17" customHeight="1" s="101">
       <c r="G30" s="70" t="inlineStr">
         <is>
           <t>Lado derecha libre</t>
@@ -12959,7 +12806,7 @@
         </is>
       </c>
     </row>
-    <row r="31" ht="17" customHeight="1" s="100">
+    <row r="31" ht="17" customHeight="1" s="101">
       <c r="G31" s="70" t="inlineStr">
         <is>
           <t>Lado derecha ocupado</t>
@@ -12986,7 +12833,7 @@
         </is>
       </c>
     </row>
-    <row r="32" ht="17" customHeight="1" s="100">
+    <row r="32" ht="17" customHeight="1" s="101">
       <c r="G32" s="72" t="inlineStr">
         <is>
           <t>atrás libre</t>
@@ -13013,7 +12860,7 @@
         </is>
       </c>
     </row>
-    <row r="33" ht="17" customHeight="1" s="100">
+    <row r="33" ht="17" customHeight="1" s="101">
       <c r="G33" s="72" t="inlineStr">
         <is>
           <t>atrás ocupado</t>
@@ -13193,1993 +13040,12 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:O25"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col width="49.6640625" bestFit="1" customWidth="1" style="100" min="1" max="1"/>
-    <col width="10.33203125" bestFit="1" customWidth="1" style="100" min="2" max="2"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="100" min="3" max="3"/>
-    <col width="11.33203125" customWidth="1" style="100" min="4" max="6"/>
-    <col width="12.5" bestFit="1" customWidth="1" style="100" min="8" max="8"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="25" t="n">
-        <v>44403</v>
-      </c>
-      <c r="B1" s="89" t="n"/>
-      <c r="C1" s="17" t="n"/>
-      <c r="D1" s="17" t="n"/>
-      <c r="E1" s="17" t="n"/>
-      <c r="F1" s="17" t="n"/>
-      <c r="G1" s="18" t="n"/>
-      <c r="H1" s="18" t="n"/>
-      <c r="I1" s="18" t="n"/>
-      <c r="J1" s="18" t="n"/>
-      <c r="K1" s="18" t="n"/>
-      <c r="L1" s="18" t="n"/>
-      <c r="M1" s="18" t="n"/>
-    </row>
-    <row r="2" ht="17" customHeight="1" s="100">
-      <c r="A2" s="10" t="inlineStr">
-        <is>
-          <t>Acciones verbalizadas</t>
-        </is>
-      </c>
-      <c r="B2" s="10" t="inlineStr">
-        <is>
-          <t>x1</t>
-        </is>
-      </c>
-      <c r="C2" s="10" t="inlineStr">
-        <is>
-          <t>x2</t>
-        </is>
-      </c>
-      <c r="D2" s="10" t="inlineStr">
-        <is>
-          <t>x3</t>
-        </is>
-      </c>
-      <c r="E2" s="10" t="inlineStr">
-        <is>
-          <t>x4</t>
-        </is>
-      </c>
-      <c r="F2" s="10" t="inlineStr">
-        <is>
-          <t>x5</t>
-        </is>
-      </c>
-      <c r="G2" s="10" t="inlineStr">
-        <is>
-          <t>x6</t>
-        </is>
-      </c>
-      <c r="H2" s="10" t="inlineStr">
-        <is>
-          <t>x7</t>
-        </is>
-      </c>
-      <c r="I2" s="10" t="inlineStr">
-        <is>
-          <t>x8</t>
-        </is>
-      </c>
-      <c r="J2" s="10" t="inlineStr">
-        <is>
-          <t>x9</t>
-        </is>
-      </c>
-      <c r="K2" s="10" t="inlineStr">
-        <is>
-          <t>x10</t>
-        </is>
-      </c>
-      <c r="L2" s="10" t="inlineStr">
-        <is>
-          <t>x11</t>
-        </is>
-      </c>
-      <c r="M2" s="10" t="inlineStr">
-        <is>
-          <t>x12</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="68" customHeight="1" s="100">
-      <c r="A3" s="7" t="inlineStr">
-        <is>
-          <t>ROTONDA 1</t>
-        </is>
-      </c>
-      <c r="B3" s="7" t="inlineStr">
-        <is>
-          <t>Percepción</t>
-        </is>
-      </c>
-      <c r="C3" s="91" t="inlineStr">
-        <is>
-          <t>ETIQUETA</t>
-        </is>
-      </c>
-      <c r="D3" s="23" t="inlineStr">
-        <is>
-          <t>Distancia real al ceda el paso (metros)</t>
-        </is>
-      </c>
-      <c r="E3" s="23" t="inlineStr">
-        <is>
-          <t>Velocidad actual</t>
-        </is>
-      </c>
-      <c r="F3" s="23" t="inlineStr">
-        <is>
-          <t>Límie velocidad GoogleMaps API</t>
-        </is>
-      </c>
-      <c r="G3" s="23" t="inlineStr">
-        <is>
-          <t>Posición</t>
-        </is>
-      </c>
-      <c r="H3" s="33" t="inlineStr">
-        <is>
-          <t>Distancia con coche delante
-1 = media
-2 = cerca</t>
-        </is>
-      </c>
-      <c r="I3" s="43" t="inlineStr">
-        <is>
-          <t>Zi</t>
-        </is>
-      </c>
-      <c r="J3" s="44" t="inlineStr">
-        <is>
-          <t>Zc</t>
-        </is>
-      </c>
-      <c r="K3" s="45" t="inlineStr">
-        <is>
-          <t>Zd</t>
-        </is>
-      </c>
-      <c r="L3" s="22" t="inlineStr">
-        <is>
-          <t>Coche en Carril izquierdo</t>
-        </is>
-      </c>
-      <c r="M3" s="22" t="inlineStr">
-        <is>
-          <t>Coche en Carril derecho</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="87" t="inlineStr">
-        <is>
-          <t xml:space="preserve">me preparo para rotonda </t>
-        </is>
-      </c>
-      <c r="B4" s="87" t="n"/>
-      <c r="C4" s="87" t="inlineStr">
-        <is>
-          <t>RND-MD</t>
-        </is>
-      </c>
-      <c r="D4" s="64" t="n">
-        <v>230</v>
-      </c>
-      <c r="E4" s="64" t="n">
-        <v>67.12</v>
-      </c>
-      <c r="F4" s="64" t="n">
-        <v>70</v>
-      </c>
-      <c r="G4" s="87" t="inlineStr">
-        <is>
-          <t>Aprox</t>
-        </is>
-      </c>
-      <c r="H4" s="20" t="n"/>
-      <c r="I4" s="21" t="n"/>
-      <c r="J4" s="21" t="n"/>
-      <c r="K4" s="21" t="n"/>
-      <c r="L4" s="19" t="n"/>
-      <c r="M4" s="19" t="n"/>
-      <c r="O4" s="26" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="87" t="inlineStr">
-        <is>
-          <t xml:space="preserve">levanto el pie del acelerador </t>
-        </is>
-      </c>
-      <c r="B5" s="87" t="n"/>
-      <c r="C5" s="87" t="inlineStr">
-        <is>
-          <t>T-OFF</t>
-        </is>
-      </c>
-      <c r="D5" s="64" t="n">
-        <v>180</v>
-      </c>
-      <c r="E5" s="64" t="n">
-        <v>64.25</v>
-      </c>
-      <c r="F5" s="64" t="n">
-        <v>70</v>
-      </c>
-      <c r="G5" s="87" t="inlineStr">
-        <is>
-          <t>Aprox</t>
-        </is>
-      </c>
-      <c r="H5" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="21" t="n"/>
-      <c r="J5" s="21" t="n"/>
-      <c r="K5" s="21" t="n"/>
-      <c r="L5" s="19" t="n"/>
-      <c r="M5" s="19" t="n"/>
-      <c r="O5" s="26" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="87" t="inlineStr">
-        <is>
-          <t xml:space="preserve">bajo a segunda </t>
-        </is>
-      </c>
-      <c r="B6" s="87" t="n"/>
-      <c r="C6" s="87" t="inlineStr">
-        <is>
-          <t>GD</t>
-        </is>
-      </c>
-      <c r="D6" s="64" t="n">
-        <v>130</v>
-      </c>
-      <c r="E6" s="64" t="n">
-        <v>56.29</v>
-      </c>
-      <c r="F6" s="64" t="n">
-        <v>60</v>
-      </c>
-      <c r="G6" s="87" t="inlineStr">
-        <is>
-          <t>Aprox</t>
-        </is>
-      </c>
-      <c r="H6" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="21" t="n"/>
-      <c r="J6" s="21" t="n"/>
-      <c r="K6" s="21" t="n"/>
-      <c r="L6" s="19" t="n"/>
-      <c r="M6" s="19" t="n"/>
-      <c r="O6" s="26" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="87" t="inlineStr">
-        <is>
-          <t xml:space="preserve">levanto el pie del acelerador </t>
-        </is>
-      </c>
-      <c r="B7" s="87" t="n"/>
-      <c r="C7" s="87" t="inlineStr">
-        <is>
-          <t>T-OFF</t>
-        </is>
-      </c>
-      <c r="D7" s="64" t="n">
-        <v>81</v>
-      </c>
-      <c r="E7" s="64" t="n">
-        <v>51.87</v>
-      </c>
-      <c r="F7" s="64" t="n">
-        <v>40</v>
-      </c>
-      <c r="G7" s="87" t="inlineStr">
-        <is>
-          <t>Aprox</t>
-        </is>
-      </c>
-      <c r="H7" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="21" t="n"/>
-      <c r="J7" s="21" t="n"/>
-      <c r="K7" s="21" t="n"/>
-      <c r="L7" s="19" t="n"/>
-      <c r="M7" s="19" t="n"/>
-      <c r="O7" s="26" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="87" t="inlineStr">
-        <is>
-          <t xml:space="preserve">freno </t>
-        </is>
-      </c>
-      <c r="B8" s="87" t="n"/>
-      <c r="C8" s="87" t="inlineStr">
-        <is>
-          <t>B-ON</t>
-        </is>
-      </c>
-      <c r="D8" s="64" t="n">
-        <v>20</v>
-      </c>
-      <c r="E8" s="64" t="n">
-        <v>34.81</v>
-      </c>
-      <c r="F8" s="64" t="n">
-        <v>40</v>
-      </c>
-      <c r="G8" s="87" t="inlineStr">
-        <is>
-          <t>Aprox</t>
-        </is>
-      </c>
-      <c r="H8" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="21" t="n"/>
-      <c r="J8" s="21" t="n"/>
-      <c r="K8" s="21" t="n"/>
-      <c r="L8" s="19" t="n"/>
-      <c r="M8" s="19" t="n"/>
-      <c r="O8" s="26" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="87" t="inlineStr">
-        <is>
-          <t xml:space="preserve">miro a la izquierda </t>
-        </is>
-      </c>
-      <c r="B9" s="87" t="inlineStr">
-        <is>
-          <t>LV-FREE</t>
-        </is>
-      </c>
-      <c r="C9" s="87" t="n"/>
-      <c r="D9" s="64" t="n">
-        <v>20</v>
-      </c>
-      <c r="E9" s="64" t="n">
-        <v>34.81</v>
-      </c>
-      <c r="F9" s="64" t="n">
-        <v>40</v>
-      </c>
-      <c r="G9" s="87" t="inlineStr">
-        <is>
-          <t>Aprox</t>
-        </is>
-      </c>
-      <c r="H9" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="21" t="n"/>
-      <c r="J9" s="21" t="n"/>
-      <c r="K9" s="21" t="n"/>
-      <c r="L9" s="19" t="n"/>
-      <c r="M9" s="19" t="n"/>
-      <c r="O9" s="26" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="87" t="inlineStr">
-        <is>
-          <t xml:space="preserve">vía libre </t>
-        </is>
-      </c>
-      <c r="B10" s="87" t="inlineStr">
-        <is>
-          <t>L-FREE</t>
-        </is>
-      </c>
-      <c r="C10" s="87" t="n"/>
-      <c r="D10" s="64" t="n">
-        <v>12</v>
-      </c>
-      <c r="E10" s="64" t="n">
-        <v>30.68</v>
-      </c>
-      <c r="F10" s="64" t="n">
-        <v>40</v>
-      </c>
-      <c r="G10" s="87" t="inlineStr">
-        <is>
-          <t>Aprox</t>
-        </is>
-      </c>
-      <c r="H10" s="20" t="n"/>
-      <c r="I10" s="21" t="n"/>
-      <c r="J10" s="21" t="n"/>
-      <c r="K10" s="21" t="n"/>
-      <c r="L10" s="19" t="n"/>
-      <c r="M10" s="19" t="n"/>
-      <c r="O10" s="26" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="87" t="inlineStr">
-        <is>
-          <t xml:space="preserve">intermitente a la izquierda </t>
-        </is>
-      </c>
-      <c r="B11" s="87" t="n"/>
-      <c r="C11" s="87" t="inlineStr">
-        <is>
-          <t>LB-ON</t>
-        </is>
-      </c>
-      <c r="D11" s="64" t="n">
-        <v>5</v>
-      </c>
-      <c r="E11" s="64" t="n">
-        <v>28.35</v>
-      </c>
-      <c r="F11" s="64" t="n">
-        <v>40</v>
-      </c>
-      <c r="G11" s="87" t="inlineStr">
-        <is>
-          <t>Aprox</t>
-        </is>
-      </c>
-      <c r="H11" s="20" t="n"/>
-      <c r="I11" s="21" t="n"/>
-      <c r="J11" s="21" t="n"/>
-      <c r="K11" s="21" t="n"/>
-      <c r="L11" s="19" t="n"/>
-      <c r="M11" s="19" t="n"/>
-      <c r="O11" s="26" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">entro en la rotonda </t>
-        </is>
-      </c>
-      <c r="B12" s="83" t="n"/>
-      <c r="C12" s="83" t="inlineStr">
-        <is>
-          <t>RND-IN</t>
-        </is>
-      </c>
-      <c r="D12" s="34" t="n">
-        <v>5</v>
-      </c>
-      <c r="E12" s="34" t="n">
-        <v>28.35</v>
-      </c>
-      <c r="F12" s="34" t="n">
-        <v>40</v>
-      </c>
-      <c r="G12" s="34" t="inlineStr">
-        <is>
-          <t>Dentro</t>
-        </is>
-      </c>
-      <c r="H12" s="20" t="n"/>
-      <c r="I12" s="21" t="n"/>
-      <c r="J12" s="21" t="n"/>
-      <c r="K12" s="21" t="n"/>
-      <c r="L12" s="19" t="n"/>
-      <c r="M12" s="19" t="n"/>
-      <c r="O12" s="26" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">giro izquierda para cambiar de carril en la rotonda </t>
-        </is>
-      </c>
-      <c r="B13" s="83" t="n"/>
-      <c r="C13" s="83" t="inlineStr">
-        <is>
-          <t>CHG-L</t>
-        </is>
-      </c>
-      <c r="D13" s="34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E13" s="34" t="n">
-        <v>29.64</v>
-      </c>
-      <c r="F13" s="34" t="n">
-        <v>40</v>
-      </c>
-      <c r="G13" s="34" t="inlineStr">
-        <is>
-          <t>Dentro</t>
-        </is>
-      </c>
-      <c r="H13" s="20" t="n"/>
-      <c r="I13" s="21" t="n"/>
-      <c r="J13" s="21" t="n"/>
-      <c r="K13" s="21" t="n"/>
-      <c r="L13" s="19" t="n"/>
-      <c r="M13" s="19" t="n"/>
-      <c r="O13" s="26" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">gire a la izquierda en la rotonda </t>
-        </is>
-      </c>
-      <c r="B14" s="83" t="n"/>
-      <c r="C14" s="83" t="inlineStr">
-        <is>
-          <t>TRN-L</t>
-        </is>
-      </c>
-      <c r="D14" s="34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E14" s="34" t="n">
-        <v>25.95</v>
-      </c>
-      <c r="F14" s="34" t="n">
-        <v>40</v>
-      </c>
-      <c r="G14" s="34" t="inlineStr">
-        <is>
-          <t>Dentro</t>
-        </is>
-      </c>
-      <c r="H14" s="20" t="n"/>
-      <c r="I14" s="21" t="n"/>
-      <c r="J14" s="21" t="n"/>
-      <c r="K14" s="21" t="n"/>
-      <c r="L14" s="19" t="n"/>
-      <c r="M14" s="19" t="n"/>
-      <c r="O14" s="26" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">mira la derecha </t>
-        </is>
-      </c>
-      <c r="B15" s="83" t="inlineStr">
-        <is>
-          <t>RV-FREE</t>
-        </is>
-      </c>
-      <c r="C15" s="83" t="n"/>
-      <c r="D15" s="34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E15" s="34" t="n">
-        <v>25.41</v>
-      </c>
-      <c r="F15" s="34" t="n">
-        <v>40</v>
-      </c>
-      <c r="G15" s="34" t="inlineStr">
-        <is>
-          <t>Dentro</t>
-        </is>
-      </c>
-      <c r="H15" s="20" t="n"/>
-      <c r="I15" s="21" t="n"/>
-      <c r="J15" s="21" t="n"/>
-      <c r="K15" s="21" t="n"/>
-      <c r="L15" s="19" t="n"/>
-      <c r="M15" s="19" t="n"/>
-      <c r="O15" s="26" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">vía libre </t>
-        </is>
-      </c>
-      <c r="B16" s="83" t="inlineStr">
-        <is>
-          <t>RV-FREE</t>
-        </is>
-      </c>
-      <c r="C16" s="83" t="n"/>
-      <c r="D16" s="34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E16" s="34" t="n">
-        <v>25.97</v>
-      </c>
-      <c r="F16" s="34" t="n">
-        <v>40</v>
-      </c>
-      <c r="G16" s="34" t="inlineStr">
-        <is>
-          <t>Dentro</t>
-        </is>
-      </c>
-      <c r="H16" s="20" t="n"/>
-      <c r="I16" s="21" t="n"/>
-      <c r="J16" s="21" t="n"/>
-      <c r="K16" s="21" t="n"/>
-      <c r="L16" s="19" t="n"/>
-      <c r="M16" s="19" t="n"/>
-      <c r="O16" s="26" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">intermitente la derecha </t>
-        </is>
-      </c>
-      <c r="B17" s="83" t="n"/>
-      <c r="C17" s="83" t="inlineStr">
-        <is>
-          <t>RB-ON</t>
-        </is>
-      </c>
-      <c r="D17" s="34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E17" s="34" t="n">
-        <v>25.97</v>
-      </c>
-      <c r="F17" s="34" t="n">
-        <v>40</v>
-      </c>
-      <c r="G17" s="34" t="inlineStr">
-        <is>
-          <t>Dentro</t>
-        </is>
-      </c>
-      <c r="H17" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" s="21" t="n"/>
-      <c r="J17" s="21" t="n"/>
-      <c r="K17" s="21" t="n"/>
-      <c r="L17" s="19" t="n"/>
-      <c r="M17" s="19" t="n"/>
-      <c r="O17" s="26" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">gira a la derecha para cambiar de carril en la rotonda </t>
-        </is>
-      </c>
-      <c r="B18" s="83" t="n"/>
-      <c r="C18" s="83" t="inlineStr">
-        <is>
-          <t>CHG-R</t>
-        </is>
-      </c>
-      <c r="D18" s="34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E18" s="34" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="F18" s="34" t="n">
-        <v>40</v>
-      </c>
-      <c r="G18" s="34" t="inlineStr">
-        <is>
-          <t>Dentro</t>
-        </is>
-      </c>
-      <c r="H18" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" s="21" t="n"/>
-      <c r="J18" s="21" t="n"/>
-      <c r="K18" s="21" t="n"/>
-      <c r="L18" s="19" t="n"/>
-      <c r="M18" s="19" t="n"/>
-      <c r="O18" s="26" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">gira a la derecha para salir de la rotonda </t>
-        </is>
-      </c>
-      <c r="B19" s="83" t="n"/>
-      <c r="C19" s="83" t="inlineStr">
-        <is>
-          <t>TRN-G</t>
-        </is>
-      </c>
-      <c r="D19" s="34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E19" s="34" t="n">
-        <v>33.34</v>
-      </c>
-      <c r="F19" s="34" t="n">
-        <v>40</v>
-      </c>
-      <c r="G19" s="34" t="inlineStr">
-        <is>
-          <t>Dentro</t>
-        </is>
-      </c>
-      <c r="H19" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="21" t="n"/>
-      <c r="J19" s="21" t="n"/>
-      <c r="K19" s="21" t="n"/>
-      <c r="L19" s="19" t="n"/>
-      <c r="M19" s="19" t="n"/>
-      <c r="O19" s="26" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="81" t="inlineStr">
-        <is>
-          <t>SALGO DE LA ROTONDA</t>
-        </is>
-      </c>
-      <c r="B20" s="81" t="n"/>
-      <c r="C20" s="81" t="inlineStr">
-        <is>
-          <t>RND-OUT</t>
-        </is>
-      </c>
-      <c r="D20" s="41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E20" s="41" t="n">
-        <v>33.34</v>
-      </c>
-      <c r="F20" s="41" t="n">
-        <v>40</v>
-      </c>
-      <c r="G20" s="42" t="inlineStr">
-        <is>
-          <t>Saliendo</t>
-        </is>
-      </c>
-      <c r="H20" s="20" t="n"/>
-      <c r="I20" s="21" t="n"/>
-      <c r="J20" s="21" t="n"/>
-      <c r="K20" s="21" t="n"/>
-      <c r="L20" s="19" t="n"/>
-      <c r="M20" s="19" t="n"/>
-      <c r="O20" s="26" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="81" t="inlineStr">
-        <is>
-          <t xml:space="preserve">enderezo </t>
-        </is>
-      </c>
-      <c r="B21" s="81" t="n"/>
-      <c r="C21" s="81" t="inlineStr">
-        <is>
-          <t>STR</t>
-        </is>
-      </c>
-      <c r="D21" s="41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E21" s="41" t="n">
-        <v>39.77</v>
-      </c>
-      <c r="F21" s="41" t="n">
-        <v>40</v>
-      </c>
-      <c r="G21" s="42" t="inlineStr">
-        <is>
-          <t>Saliendo</t>
-        </is>
-      </c>
-      <c r="H21" s="20" t="n"/>
-      <c r="I21" s="21" t="n"/>
-      <c r="J21" s="21" t="n"/>
-      <c r="K21" s="21" t="n"/>
-      <c r="L21" s="19" t="n"/>
-      <c r="M21" s="19" t="n"/>
-      <c r="O21" s="26" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="81" t="inlineStr">
-        <is>
-          <t xml:space="preserve">quito el intermitente </t>
-        </is>
-      </c>
-      <c r="B22" s="81" t="n"/>
-      <c r="C22" s="81" t="inlineStr">
-        <is>
-          <t>RB-OFF</t>
-        </is>
-      </c>
-      <c r="D22" s="41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E22" s="41" t="n">
-        <v>46.99</v>
-      </c>
-      <c r="F22" s="41" t="n">
-        <v>40</v>
-      </c>
-      <c r="G22" s="42" t="inlineStr">
-        <is>
-          <t>Saliendo</t>
-        </is>
-      </c>
-      <c r="H22" s="20" t="n"/>
-      <c r="I22" s="21" t="n"/>
-      <c r="J22" s="21" t="n"/>
-      <c r="K22" s="21" t="n"/>
-      <c r="L22" s="19" t="n"/>
-      <c r="M22" s="19" t="n"/>
-      <c r="O22" s="26" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="81" t="inlineStr">
-        <is>
-          <t xml:space="preserve">acelero </t>
-        </is>
-      </c>
-      <c r="B23" s="81" t="n"/>
-      <c r="C23" s="81" t="inlineStr">
-        <is>
-          <t>T-ON</t>
-        </is>
-      </c>
-      <c r="D23" s="41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E23" s="41" t="n">
-        <v>46.99</v>
-      </c>
-      <c r="F23" s="41" t="n">
-        <v>40</v>
-      </c>
-      <c r="G23" s="42" t="inlineStr">
-        <is>
-          <t>Saliendo</t>
-        </is>
-      </c>
-      <c r="H23" s="20" t="n"/>
-      <c r="I23" s="21" t="n"/>
-      <c r="J23" s="21" t="n"/>
-      <c r="K23" s="21" t="n"/>
-      <c r="L23" s="19" t="n"/>
-      <c r="M23" s="19" t="n"/>
-      <c r="O23" s="26" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="81" t="inlineStr">
-        <is>
-          <t xml:space="preserve">subo a Tercera </t>
-        </is>
-      </c>
-      <c r="B24" s="81" t="n"/>
-      <c r="C24" s="81" t="inlineStr">
-        <is>
-          <t>GU</t>
-        </is>
-      </c>
-      <c r="D24" s="41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E24" s="41" t="n">
-        <v>48.74</v>
-      </c>
-      <c r="F24" s="41" t="n">
-        <v>40</v>
-      </c>
-      <c r="G24" s="42" t="inlineStr">
-        <is>
-          <t>Saliendo</t>
-        </is>
-      </c>
-      <c r="H24" s="20" t="n"/>
-      <c r="I24" s="21" t="n"/>
-      <c r="J24" s="21" t="n"/>
-      <c r="K24" s="21" t="n"/>
-      <c r="L24" s="19" t="n"/>
-      <c r="M24" s="19" t="n"/>
-      <c r="O24" s="26" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="81" t="inlineStr">
-        <is>
-          <t>acelero</t>
-        </is>
-      </c>
-      <c r="B25" s="81" t="n"/>
-      <c r="C25" s="81" t="inlineStr">
-        <is>
-          <t>T-ON</t>
-        </is>
-      </c>
-      <c r="D25" s="41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E25" s="41" t="n">
-        <v>48.74</v>
-      </c>
-      <c r="F25" s="41" t="n">
-        <v>40</v>
-      </c>
-      <c r="G25" s="42" t="inlineStr">
-        <is>
-          <t>Saliendo</t>
-        </is>
-      </c>
-      <c r="H25" s="20" t="n"/>
-      <c r="I25" s="21" t="n"/>
-      <c r="J25" s="21" t="n"/>
-      <c r="K25" s="21" t="n"/>
-      <c r="L25" s="19" t="n"/>
-      <c r="M25" s="19" t="n"/>
-      <c r="O25" s="26" t="n"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:O26"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col width="49.6640625" bestFit="1" customWidth="1" style="100" min="1" max="1"/>
-    <col width="10.33203125" bestFit="1" customWidth="1" style="100" min="2" max="2"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="100" min="3" max="3"/>
-    <col width="11.33203125" customWidth="1" style="100" min="4" max="6"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="25" t="n">
-        <v>44404</v>
-      </c>
-      <c r="B1" s="89" t="n"/>
-      <c r="C1" s="17" t="n"/>
-      <c r="D1" s="17" t="n"/>
-      <c r="E1" s="17" t="n"/>
-      <c r="F1" s="17" t="n"/>
-      <c r="G1" s="18" t="n"/>
-      <c r="H1" s="18" t="n"/>
-      <c r="I1" s="18" t="n"/>
-      <c r="J1" s="18" t="n"/>
-      <c r="K1" s="18" t="n"/>
-      <c r="L1" s="18" t="n"/>
-      <c r="M1" s="18" t="n"/>
-    </row>
-    <row r="2" ht="17" customHeight="1" s="100">
-      <c r="A2" s="10" t="inlineStr">
-        <is>
-          <t>Acciones verbalizadas</t>
-        </is>
-      </c>
-      <c r="B2" s="10" t="inlineStr">
-        <is>
-          <t>x1</t>
-        </is>
-      </c>
-      <c r="C2" s="10" t="inlineStr">
-        <is>
-          <t>x2</t>
-        </is>
-      </c>
-      <c r="D2" s="10" t="inlineStr">
-        <is>
-          <t>x3</t>
-        </is>
-      </c>
-      <c r="E2" s="10" t="inlineStr">
-        <is>
-          <t>x4</t>
-        </is>
-      </c>
-      <c r="F2" s="10" t="inlineStr">
-        <is>
-          <t>x5</t>
-        </is>
-      </c>
-      <c r="G2" s="10" t="inlineStr">
-        <is>
-          <t>x6</t>
-        </is>
-      </c>
-      <c r="H2" s="10" t="inlineStr">
-        <is>
-          <t>x7</t>
-        </is>
-      </c>
-      <c r="I2" s="10" t="inlineStr">
-        <is>
-          <t>x8</t>
-        </is>
-      </c>
-      <c r="J2" s="10" t="inlineStr">
-        <is>
-          <t>x9</t>
-        </is>
-      </c>
-      <c r="K2" s="10" t="inlineStr">
-        <is>
-          <t>x10</t>
-        </is>
-      </c>
-      <c r="L2" s="10" t="inlineStr">
-        <is>
-          <t>x11</t>
-        </is>
-      </c>
-      <c r="M2" s="10" t="inlineStr">
-        <is>
-          <t>x12</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="85" customHeight="1" s="100">
-      <c r="A3" s="7" t="inlineStr">
-        <is>
-          <t>ROTONDA 1</t>
-        </is>
-      </c>
-      <c r="B3" s="7" t="inlineStr">
-        <is>
-          <t>Percepción</t>
-        </is>
-      </c>
-      <c r="C3" s="91" t="inlineStr">
-        <is>
-          <t>Acción</t>
-        </is>
-      </c>
-      <c r="D3" s="23" t="inlineStr">
-        <is>
-          <t>Distancia real al ceda el paso (metros)</t>
-        </is>
-      </c>
-      <c r="E3" s="23" t="inlineStr">
-        <is>
-          <t>Velocidad actual</t>
-        </is>
-      </c>
-      <c r="F3" s="23" t="inlineStr">
-        <is>
-          <t>Límie velocidad GoogleMaps API</t>
-        </is>
-      </c>
-      <c r="G3" s="23" t="inlineStr">
-        <is>
-          <t>Posición</t>
-        </is>
-      </c>
-      <c r="H3" s="33" t="inlineStr">
-        <is>
-          <t>Distancia con coche delante
-1 = media
-2 = cerca</t>
-        </is>
-      </c>
-      <c r="I3" s="43" t="inlineStr">
-        <is>
-          <t>Zi</t>
-        </is>
-      </c>
-      <c r="J3" s="44" t="inlineStr">
-        <is>
-          <t>Zc</t>
-        </is>
-      </c>
-      <c r="K3" s="45" t="inlineStr">
-        <is>
-          <t>Zd</t>
-        </is>
-      </c>
-      <c r="L3" s="22" t="inlineStr">
-        <is>
-          <t>Coche en Carril izquierdo</t>
-        </is>
-      </c>
-      <c r="M3" s="22" t="inlineStr">
-        <is>
-          <t>Coche en Carril derecho</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="87" t="inlineStr">
-        <is>
-          <t xml:space="preserve">me preparo para rotonda </t>
-        </is>
-      </c>
-      <c r="B4" s="87" t="n"/>
-      <c r="C4" s="87" t="inlineStr">
-        <is>
-          <t>RND-MD</t>
-        </is>
-      </c>
-      <c r="D4" s="64" t="n">
-        <v>250</v>
-      </c>
-      <c r="E4" s="64" t="n">
-        <v>58.55</v>
-      </c>
-      <c r="F4" s="64" t="n">
-        <v>70</v>
-      </c>
-      <c r="G4" s="87" t="inlineStr">
-        <is>
-          <t>Aprox</t>
-        </is>
-      </c>
-      <c r="H4" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" s="21" t="n"/>
-      <c r="J4" s="21" t="n"/>
-      <c r="K4" s="21" t="n"/>
-      <c r="L4" s="19" t="n"/>
-      <c r="M4" s="19" t="n"/>
-      <c r="O4" s="26" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="87" t="inlineStr">
-        <is>
-          <t xml:space="preserve">levanto el pie del acelerador </t>
-        </is>
-      </c>
-      <c r="B5" s="87" t="n"/>
-      <c r="C5" s="87" t="inlineStr">
-        <is>
-          <t>T-OFF</t>
-        </is>
-      </c>
-      <c r="D5" s="64" t="n">
-        <v>160</v>
-      </c>
-      <c r="E5" s="64" t="n">
-        <v>50.96</v>
-      </c>
-      <c r="F5" s="64" t="n">
-        <v>70</v>
-      </c>
-      <c r="G5" s="87" t="inlineStr">
-        <is>
-          <t>Aprox</t>
-        </is>
-      </c>
-      <c r="H5" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" s="21" t="n"/>
-      <c r="J5" s="21" t="n"/>
-      <c r="K5" s="21" t="n"/>
-      <c r="L5" s="19" t="n"/>
-      <c r="M5" s="19" t="n"/>
-      <c r="O5" s="26" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="87" t="inlineStr">
-        <is>
-          <t xml:space="preserve">bajo a segunda </t>
-        </is>
-      </c>
-      <c r="B6" s="87" t="n"/>
-      <c r="C6" s="87" t="inlineStr">
-        <is>
-          <t>GD</t>
-        </is>
-      </c>
-      <c r="D6" s="64" t="n">
-        <v>100</v>
-      </c>
-      <c r="E6" s="64" t="n">
-        <v>49.26</v>
-      </c>
-      <c r="F6" s="64" t="n">
-        <v>60</v>
-      </c>
-      <c r="G6" s="87" t="inlineStr">
-        <is>
-          <t>Aprox</t>
-        </is>
-      </c>
-      <c r="H6" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" s="21" t="n"/>
-      <c r="J6" s="21" t="n"/>
-      <c r="K6" s="21" t="n"/>
-      <c r="L6" s="19" t="n"/>
-      <c r="M6" s="19" t="n"/>
-      <c r="O6" s="26" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="87" t="inlineStr">
-        <is>
-          <t xml:space="preserve">freno </t>
-        </is>
-      </c>
-      <c r="B7" s="87" t="n"/>
-      <c r="C7" s="87" t="inlineStr">
-        <is>
-          <t>B-ON</t>
-        </is>
-      </c>
-      <c r="D7" s="64" t="n">
-        <v>77</v>
-      </c>
-      <c r="E7" s="64" t="n">
-        <v>48.92</v>
-      </c>
-      <c r="F7" s="64" t="n">
-        <v>40</v>
-      </c>
-      <c r="G7" s="87" t="inlineStr">
-        <is>
-          <t>Aprox</t>
-        </is>
-      </c>
-      <c r="H7" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" s="21" t="n"/>
-      <c r="J7" s="21" t="n"/>
-      <c r="K7" s="21" t="n"/>
-      <c r="L7" s="19" t="n"/>
-      <c r="M7" s="19" t="n"/>
-      <c r="O7" s="26" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="87" t="inlineStr">
-        <is>
-          <t>miro a la izquierda</t>
-        </is>
-      </c>
-      <c r="B8" s="87" t="inlineStr">
-        <is>
-          <t>LV-FREE</t>
-        </is>
-      </c>
-      <c r="C8" s="87" t="n"/>
-      <c r="D8" s="64" t="n">
-        <v>38</v>
-      </c>
-      <c r="E8" s="64" t="n">
-        <v>41.54</v>
-      </c>
-      <c r="F8" s="64" t="n">
-        <v>40</v>
-      </c>
-      <c r="G8" s="87" t="inlineStr">
-        <is>
-          <t>Aprox</t>
-        </is>
-      </c>
-      <c r="H8" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="21" t="n"/>
-      <c r="J8" s="21" t="n"/>
-      <c r="K8" s="21" t="n"/>
-      <c r="L8" s="19" t="n"/>
-      <c r="M8" s="19" t="n"/>
-      <c r="O8" s="26" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="87" t="inlineStr">
-        <is>
-          <t xml:space="preserve">freno </t>
-        </is>
-      </c>
-      <c r="B9" s="87" t="n"/>
-      <c r="C9" s="87" t="inlineStr">
-        <is>
-          <t>B-ON</t>
-        </is>
-      </c>
-      <c r="D9" s="64" t="n">
-        <v>18</v>
-      </c>
-      <c r="E9" s="64" t="n">
-        <v>32.76</v>
-      </c>
-      <c r="F9" s="64" t="n">
-        <v>40</v>
-      </c>
-      <c r="G9" s="87" t="inlineStr">
-        <is>
-          <t>Aprox</t>
-        </is>
-      </c>
-      <c r="H9" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="21" t="n"/>
-      <c r="J9" s="21" t="n"/>
-      <c r="K9" s="21" t="n"/>
-      <c r="L9" s="19" t="n"/>
-      <c r="M9" s="19" t="n"/>
-      <c r="O9" s="26" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="87" t="inlineStr">
-        <is>
-          <t xml:space="preserve">vía libre </t>
-        </is>
-      </c>
-      <c r="B10" s="87" t="inlineStr">
-        <is>
-          <t>L-FREE</t>
-        </is>
-      </c>
-      <c r="C10" s="87" t="n"/>
-      <c r="D10" s="64" t="n">
-        <v>10</v>
-      </c>
-      <c r="E10" s="64" t="n">
-        <v>28.41</v>
-      </c>
-      <c r="F10" s="64" t="n">
-        <v>40</v>
-      </c>
-      <c r="G10" s="87" t="inlineStr">
-        <is>
-          <t>Aprox</t>
-        </is>
-      </c>
-      <c r="H10" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="21" t="n"/>
-      <c r="J10" s="21" t="n"/>
-      <c r="K10" s="21" t="n"/>
-      <c r="L10" s="19" t="n"/>
-      <c r="M10" s="19" t="n"/>
-      <c r="O10" s="26" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="87" t="inlineStr">
-        <is>
-          <t xml:space="preserve">intermitente a la izquierda </t>
-        </is>
-      </c>
-      <c r="B11" s="87" t="n"/>
-      <c r="C11" s="87" t="inlineStr">
-        <is>
-          <t>LB-ON</t>
-        </is>
-      </c>
-      <c r="D11" s="64" t="n">
-        <v>3</v>
-      </c>
-      <c r="E11" s="64" t="n">
-        <v>25.56</v>
-      </c>
-      <c r="F11" s="64" t="n">
-        <v>40</v>
-      </c>
-      <c r="G11" s="87" t="inlineStr">
-        <is>
-          <t>Aprox</t>
-        </is>
-      </c>
-      <c r="H11" s="20" t="n"/>
-      <c r="I11" s="21" t="n"/>
-      <c r="J11" s="21" t="n"/>
-      <c r="K11" s="21" t="n"/>
-      <c r="L11" s="19" t="n"/>
-      <c r="M11" s="19" t="n"/>
-      <c r="O11" s="26" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">entro en la rotonda </t>
-        </is>
-      </c>
-      <c r="B12" s="83" t="n"/>
-      <c r="C12" s="83" t="inlineStr">
-        <is>
-          <t>RND-IN</t>
-        </is>
-      </c>
-      <c r="D12" s="34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E12" s="34" t="n">
-        <v>25.46</v>
-      </c>
-      <c r="F12" s="34" t="n">
-        <v>40</v>
-      </c>
-      <c r="G12" s="34" t="inlineStr">
-        <is>
-          <t>Dentro</t>
-        </is>
-      </c>
-      <c r="H12" s="20" t="n"/>
-      <c r="I12" s="21" t="n"/>
-      <c r="J12" s="21" t="n"/>
-      <c r="K12" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" s="19" t="n"/>
-      <c r="M12" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="O12" s="26" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">giro a la izquierda para cambiar de carril en la rotonda </t>
-        </is>
-      </c>
-      <c r="B13" s="83" t="n"/>
-      <c r="C13" s="83" t="inlineStr">
-        <is>
-          <t>CHG-L</t>
-        </is>
-      </c>
-      <c r="D13" s="34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E13" s="34" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="F13" s="34" t="n">
-        <v>40</v>
-      </c>
-      <c r="G13" s="34" t="inlineStr">
-        <is>
-          <t>Dentro</t>
-        </is>
-      </c>
-      <c r="H13" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" s="28" t="n"/>
-      <c r="J13" s="28" t="n"/>
-      <c r="K13" s="28" t="n"/>
-      <c r="L13" s="19" t="n"/>
-      <c r="M13" s="19" t="n"/>
-      <c r="O13" s="26" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">giro a la izquierda en la rotonda </t>
-        </is>
-      </c>
-      <c r="B14" s="83" t="n"/>
-      <c r="C14" s="83" t="inlineStr">
-        <is>
-          <t>TRN-L</t>
-        </is>
-      </c>
-      <c r="D14" s="34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E14" s="34" t="n">
-        <v>26.59</v>
-      </c>
-      <c r="F14" s="34" t="n">
-        <v>40</v>
-      </c>
-      <c r="G14" s="34" t="inlineStr">
-        <is>
-          <t>Dentro</t>
-        </is>
-      </c>
-      <c r="H14" s="20" t="n"/>
-      <c r="I14" s="28" t="n"/>
-      <c r="J14" s="28" t="n"/>
-      <c r="K14" s="28" t="n"/>
-      <c r="L14" s="19" t="n"/>
-      <c r="M14" s="19" t="n"/>
-      <c r="O14" s="26" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">retrovisor central </t>
-        </is>
-      </c>
-      <c r="B15" s="83" t="inlineStr">
-        <is>
-          <t>BK-FREE</t>
-        </is>
-      </c>
-      <c r="C15" s="83" t="n"/>
-      <c r="D15" s="34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E15" s="34" t="n">
-        <v>23.29</v>
-      </c>
-      <c r="F15" s="34" t="n">
-        <v>40</v>
-      </c>
-      <c r="G15" s="34" t="inlineStr">
-        <is>
-          <t>Dentro</t>
-        </is>
-      </c>
-      <c r="H15" s="20" t="n"/>
-      <c r="I15" s="28" t="n"/>
-      <c r="J15" s="28" t="n"/>
-      <c r="K15" s="28" t="n"/>
-      <c r="L15" s="19" t="n"/>
-      <c r="M15" s="19" t="n"/>
-      <c r="O15" s="26" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">vía libre </t>
-        </is>
-      </c>
-      <c r="B16" s="83" t="inlineStr">
-        <is>
-          <t>BK-FREE</t>
-        </is>
-      </c>
-      <c r="C16" s="83" t="n"/>
-      <c r="D16" s="34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E16" s="34" t="n">
-        <v>22.37</v>
-      </c>
-      <c r="F16" s="34" t="n">
-        <v>40</v>
-      </c>
-      <c r="G16" s="34" t="inlineStr">
-        <is>
-          <t>Dentro</t>
-        </is>
-      </c>
-      <c r="H16" s="20" t="n"/>
-      <c r="I16" s="28" t="n"/>
-      <c r="J16" s="28" t="n"/>
-      <c r="K16" s="28" t="n"/>
-      <c r="L16" s="19" t="n"/>
-      <c r="M16" s="19" t="n"/>
-      <c r="O16" s="26" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">miro a la derecha </t>
-        </is>
-      </c>
-      <c r="B17" s="83" t="inlineStr">
-        <is>
-          <t>RV-FREE</t>
-        </is>
-      </c>
-      <c r="C17" s="83" t="n"/>
-      <c r="D17" s="34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E17" s="34" t="n">
-        <v>22.79</v>
-      </c>
-      <c r="F17" s="34" t="n">
-        <v>40</v>
-      </c>
-      <c r="G17" s="34" t="inlineStr">
-        <is>
-          <t>Dentro</t>
-        </is>
-      </c>
-      <c r="H17" s="20" t="n"/>
-      <c r="I17" s="28" t="n"/>
-      <c r="J17" s="28" t="n"/>
-      <c r="K17" s="28" t="n"/>
-      <c r="L17" s="19" t="n"/>
-      <c r="M17" s="19" t="n"/>
-      <c r="O17" s="26" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">vía libre </t>
-        </is>
-      </c>
-      <c r="B18" s="83" t="inlineStr">
-        <is>
-          <t>RV-FREE</t>
-        </is>
-      </c>
-      <c r="C18" s="83" t="n"/>
-      <c r="D18" s="34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E18" s="34" t="n">
-        <v>22.79</v>
-      </c>
-      <c r="F18" s="34" t="n">
-        <v>40</v>
-      </c>
-      <c r="G18" s="34" t="inlineStr">
-        <is>
-          <t>Dentro</t>
-        </is>
-      </c>
-      <c r="H18" s="20" t="n"/>
-      <c r="I18" s="28" t="n"/>
-      <c r="J18" s="28" t="n"/>
-      <c r="K18" s="28" t="n"/>
-      <c r="L18" s="19" t="n"/>
-      <c r="M18" s="19" t="n"/>
-      <c r="O18" s="26" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">intermitente derecho </t>
-        </is>
-      </c>
-      <c r="B19" s="83" t="n"/>
-      <c r="C19" s="83" t="inlineStr">
-        <is>
-          <t>RB-ON</t>
-        </is>
-      </c>
-      <c r="D19" s="34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E19" s="34" t="n">
-        <v>21.76</v>
-      </c>
-      <c r="F19" s="34" t="n">
-        <v>40</v>
-      </c>
-      <c r="G19" s="34" t="inlineStr">
-        <is>
-          <t>Dentro</t>
-        </is>
-      </c>
-      <c r="H19" s="20" t="n"/>
-      <c r="I19" s="28" t="n"/>
-      <c r="J19" s="28" t="n"/>
-      <c r="K19" s="28" t="n"/>
-      <c r="L19" s="19" t="n"/>
-      <c r="M19" s="19" t="n"/>
-      <c r="O19" s="26" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">giro a la derecha para cambiar de carril en la rotonda </t>
-        </is>
-      </c>
-      <c r="B20" s="83" t="n"/>
-      <c r="C20" s="83" t="inlineStr">
-        <is>
-          <t>CHG-R</t>
-        </is>
-      </c>
-      <c r="D20" s="34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E20" s="34" t="n">
-        <v>24.01</v>
-      </c>
-      <c r="F20" s="34" t="n">
-        <v>40</v>
-      </c>
-      <c r="G20" s="34" t="inlineStr">
-        <is>
-          <t>Dentro</t>
-        </is>
-      </c>
-      <c r="H20" s="20" t="n"/>
-      <c r="I20" s="28" t="n"/>
-      <c r="J20" s="28" t="n"/>
-      <c r="K20" s="28" t="n"/>
-      <c r="L20" s="19" t="n"/>
-      <c r="M20" s="19" t="n"/>
-      <c r="O20" s="26" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">giro a la derecha para salir en la rotonda </t>
-        </is>
-      </c>
-      <c r="B21" s="83" t="n"/>
-      <c r="C21" s="83" t="inlineStr">
-        <is>
-          <t>TRN-R</t>
-        </is>
-      </c>
-      <c r="D21" s="34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E21" s="34" t="n">
-        <v>27.33</v>
-      </c>
-      <c r="F21" s="34" t="n">
-        <v>40</v>
-      </c>
-      <c r="G21" s="34" t="inlineStr">
-        <is>
-          <t>Dentro</t>
-        </is>
-      </c>
-      <c r="H21" s="20" t="n"/>
-      <c r="I21" s="28" t="n"/>
-      <c r="J21" s="28" t="n"/>
-      <c r="K21" s="28" t="n"/>
-      <c r="L21" s="19" t="n"/>
-      <c r="M21" s="19" t="n"/>
-      <c r="O21" s="26" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="81" t="inlineStr">
-        <is>
-          <t xml:space="preserve">salgo de la rotonda </t>
-        </is>
-      </c>
-      <c r="B22" s="81" t="n"/>
-      <c r="C22" s="81" t="inlineStr">
-        <is>
-          <t>RND-OUT</t>
-        </is>
-      </c>
-      <c r="D22" s="41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E22" s="41" t="n">
-        <v>36.54</v>
-      </c>
-      <c r="F22" s="41" t="n">
-        <v>40</v>
-      </c>
-      <c r="G22" s="42" t="inlineStr">
-        <is>
-          <t>Saliendo</t>
-        </is>
-      </c>
-      <c r="H22" s="20" t="n"/>
-      <c r="I22" s="28" t="n"/>
-      <c r="J22" s="28" t="n"/>
-      <c r="K22" s="28" t="n"/>
-      <c r="L22" s="19" t="n"/>
-      <c r="M22" s="19" t="n"/>
-      <c r="O22" s="26" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="81" t="inlineStr">
-        <is>
-          <t xml:space="preserve">acelero </t>
-        </is>
-      </c>
-      <c r="B23" s="81" t="n"/>
-      <c r="C23" s="81" t="inlineStr">
-        <is>
-          <t>T-ON</t>
-        </is>
-      </c>
-      <c r="D23" s="41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E23" s="41" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="F23" s="41" t="n">
-        <v>40</v>
-      </c>
-      <c r="G23" s="42" t="inlineStr">
-        <is>
-          <t>Saliendo</t>
-        </is>
-      </c>
-      <c r="H23" s="20" t="n"/>
-      <c r="I23" s="28" t="n"/>
-      <c r="J23" s="28" t="n"/>
-      <c r="K23" s="28" t="n"/>
-      <c r="L23" s="19" t="n"/>
-      <c r="M23" s="19" t="n"/>
-      <c r="O23" s="26" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="81" t="inlineStr">
-        <is>
-          <t xml:space="preserve">quito el intermitente </t>
-        </is>
-      </c>
-      <c r="B24" s="81" t="n"/>
-      <c r="C24" s="81" t="inlineStr">
-        <is>
-          <t>RB-OFF</t>
-        </is>
-      </c>
-      <c r="D24" s="41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E24" s="41" t="n">
-        <v>43.35</v>
-      </c>
-      <c r="F24" s="41" t="n">
-        <v>40</v>
-      </c>
-      <c r="G24" s="42" t="inlineStr">
-        <is>
-          <t>Saliendo</t>
-        </is>
-      </c>
-      <c r="H24" s="20" t="n"/>
-      <c r="I24" s="28" t="n"/>
-      <c r="J24" s="28" t="n"/>
-      <c r="K24" s="28" t="n"/>
-      <c r="L24" s="19" t="n"/>
-      <c r="M24" s="19" t="n"/>
-      <c r="O24" s="26" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="81" t="inlineStr">
-        <is>
-          <t xml:space="preserve">subo a Tercera </t>
-        </is>
-      </c>
-      <c r="B25" s="81" t="n"/>
-      <c r="C25" s="81" t="inlineStr">
-        <is>
-          <t>GU</t>
-        </is>
-      </c>
-      <c r="D25" s="41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E25" s="41" t="n">
-        <v>43.35</v>
-      </c>
-      <c r="F25" s="41" t="n">
-        <v>40</v>
-      </c>
-      <c r="G25" s="42" t="inlineStr">
-        <is>
-          <t>Saliendo</t>
-        </is>
-      </c>
-      <c r="H25" s="20" t="n"/>
-      <c r="I25" s="28" t="n"/>
-      <c r="J25" s="28" t="n"/>
-      <c r="K25" s="28" t="n"/>
-      <c r="L25" s="19" t="n"/>
-      <c r="M25" s="19" t="n"/>
-      <c r="O25" s="26" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="81" t="inlineStr">
-        <is>
-          <t>acelero</t>
-        </is>
-      </c>
-      <c r="B26" s="81" t="n"/>
-      <c r="C26" s="81" t="inlineStr">
-        <is>
-          <t>T-ON</t>
-        </is>
-      </c>
-      <c r="D26" s="41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E26" s="41" t="n">
-        <v>48.49</v>
-      </c>
-      <c r="F26" s="41" t="n">
-        <v>40</v>
-      </c>
-      <c r="G26" s="42" t="inlineStr">
-        <is>
-          <t>Saliendo</t>
-        </is>
-      </c>
-      <c r="H26" s="20" t="n"/>
-      <c r="I26" s="28" t="n"/>
-      <c r="J26" s="28" t="n"/>
-      <c r="K26" s="28" t="n"/>
-      <c r="L26" s="19" t="n"/>
-      <c r="M26" s="19" t="n"/>
-      <c r="O26" s="26" t="n"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15187,157 +13053,577 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="103.5" customWidth="1" style="100" min="1" max="1"/>
+    <col width="75.90000000000001" customWidth="1" style="101" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="101" t="inlineStr">
-        <is>
-          <t>06/07/2021</t>
-        </is>
-      </c>
-      <c r="B1" s="101" t="inlineStr"/>
-      <c r="C1" s="101" t="n"/>
-      <c r="D1" s="101" t="n"/>
-      <c r="E1" s="101" t="n"/>
-      <c r="F1" s="101" t="n"/>
-      <c r="G1" s="101" t="n"/>
-      <c r="H1" s="101" t="n"/>
-      <c r="I1" s="101" t="n"/>
-      <c r="J1" s="101" t="n"/>
-      <c r="K1" s="101" t="n"/>
-      <c r="L1" s="101" t="n"/>
-      <c r="M1" s="101" t="n"/>
+      <c r="A1" s="102" t="inlineStr">
+        <is>
+          <t>16/07/21</t>
+        </is>
+      </c>
+      <c r="B1" s="102" t="inlineStr"/>
+      <c r="C1" s="102" t="n"/>
+      <c r="D1" s="102" t="n"/>
+      <c r="E1" s="102" t="n"/>
+      <c r="F1" s="102" t="n"/>
+      <c r="G1" s="102" t="n"/>
+      <c r="H1" s="102" t="n"/>
+      <c r="I1" s="102" t="n"/>
+      <c r="J1" s="102" t="n"/>
+      <c r="K1" s="102" t="n"/>
+      <c r="L1" s="102" t="n"/>
+      <c r="M1" s="102" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="101" t="inlineStr">
+      <c r="A2" s="102" t="inlineStr">
         <is>
           <t>Acciones verbalizadas</t>
         </is>
       </c>
-      <c r="B2" s="101" t="inlineStr">
+      <c r="B2" s="102" t="inlineStr">
         <is>
           <t>x1</t>
         </is>
       </c>
-      <c r="C2" s="101" t="inlineStr">
+      <c r="C2" s="102" t="inlineStr">
         <is>
           <t>x2</t>
         </is>
       </c>
-      <c r="D2" s="101" t="inlineStr">
+      <c r="D2" s="102" t="inlineStr">
         <is>
           <t>x3</t>
         </is>
       </c>
-      <c r="E2" s="101" t="inlineStr">
+      <c r="E2" s="102" t="inlineStr">
         <is>
           <t>x4</t>
         </is>
       </c>
-      <c r="F2" s="101" t="inlineStr">
+      <c r="F2" s="102" t="inlineStr">
         <is>
           <t>x5</t>
         </is>
       </c>
-      <c r="G2" s="101" t="inlineStr">
+      <c r="G2" s="102" t="inlineStr">
         <is>
           <t>x6</t>
         </is>
       </c>
-      <c r="H2" s="101" t="inlineStr">
+      <c r="H2" s="102" t="inlineStr">
         <is>
           <t>x7</t>
         </is>
       </c>
-      <c r="I2" s="101" t="inlineStr">
+      <c r="I2" s="102" t="inlineStr">
         <is>
           <t>x8</t>
         </is>
       </c>
-      <c r="J2" s="101" t="inlineStr">
+      <c r="J2" s="102" t="inlineStr">
         <is>
           <t>x9</t>
         </is>
       </c>
-      <c r="K2" s="101" t="inlineStr">
+      <c r="K2" s="102" t="inlineStr">
         <is>
           <t>x10</t>
         </is>
       </c>
-      <c r="L2" s="101" t="inlineStr">
+      <c r="L2" s="102" t="inlineStr">
         <is>
           <t>x11</t>
         </is>
       </c>
-      <c r="M2" s="101" t="inlineStr">
+      <c r="M2" s="102" t="inlineStr">
         <is>
           <t>x12</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="101" t="inlineStr">
-        <is>
-          <t>ROTONDA</t>
-        </is>
-      </c>
-      <c r="B3" s="101" t="inlineStr">
+      <c r="A3" s="102" t="inlineStr">
+        <is>
+          <t>ROTONDA 1</t>
+        </is>
+      </c>
+      <c r="B3" s="102" t="inlineStr">
         <is>
           <t>Percepción</t>
         </is>
       </c>
-      <c r="C3" s="101" t="inlineStr">
+      <c r="C3" s="102" t="inlineStr">
         <is>
           <t>Acción</t>
         </is>
       </c>
-      <c r="D3" s="101" t="inlineStr">
+      <c r="D3" s="102" t="inlineStr">
         <is>
           <t>Distancia real al ceda el paso (metros)</t>
         </is>
       </c>
-      <c r="E3" s="101" t="inlineStr">
+      <c r="E3" s="102" t="inlineStr">
         <is>
           <t>Velocidad actual</t>
         </is>
       </c>
-      <c r="F3" s="101" t="inlineStr">
+      <c r="F3" s="102" t="inlineStr">
         <is>
           <t>Límite velocidad GoogleMaps API</t>
         </is>
       </c>
-      <c r="G3" s="101" t="inlineStr">
+      <c r="G3" s="102" t="inlineStr">
         <is>
           <t>Posición</t>
         </is>
       </c>
-      <c r="H3" s="101" t="inlineStr">
+      <c r="H3" s="102" t="inlineStr">
         <is>
           <t>Distancia con coche delante 1 = media 2 = cerca</t>
         </is>
       </c>
-      <c r="I3" s="101" t="inlineStr">
+      <c r="I3" s="102" t="inlineStr">
         <is>
           <t>Zi</t>
         </is>
       </c>
-      <c r="J3" s="101" t="inlineStr">
+      <c r="J3" s="102" t="inlineStr">
         <is>
           <t>Zc</t>
         </is>
       </c>
-      <c r="K3" s="101" t="inlineStr">
+      <c r="K3" s="102" t="inlineStr">
         <is>
           <t>Zd</t>
         </is>
       </c>
-      <c r="L3" s="101" t="inlineStr">
+      <c r="L3" s="102" t="inlineStr">
         <is>
           <t>Coche en Carril izquierdo</t>
         </is>
       </c>
-      <c r="M3" s="101" t="inlineStr">
+      <c r="M3" s="102" t="inlineStr">
+        <is>
+          <t>Coche en Carril derecho</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">preparo rotonda </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>APROX</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> levanto pie acelerador </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>T-OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> embrago </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>G-ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> bajo segunda </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>GD</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>45.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> desembrague </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>G-OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> mira izquierda </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>LV</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> intermitente izquierda </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>LB-ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> freno </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>B-ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> embrago </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>G-ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> bajo primera </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>GD</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>desembrague</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>G-OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> vienen acelero </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>T-ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> rotonda gire izquierda rotonda cambio carril rotonda embrago </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>G-ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> subo segunda </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>GU</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>desembrague</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>G-OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> gira izquierda </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>TURN-L</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> rotonda intermitente derecha </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>RB-ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> retrovisor central </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>FV-Mirror</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> derecha rotonda cambiar carril fino derecha rotonda salgo rotonda </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>RND-EXIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> intermitente enderezo Bravo subo Tercera acelero </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>T-ON</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="75.90000000000001" customWidth="1" style="101" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="102" t="inlineStr">
+        <is>
+          <t>09/07/21</t>
+        </is>
+      </c>
+      <c r="B1" s="102" t="inlineStr"/>
+      <c r="C1" s="102" t="n"/>
+      <c r="D1" s="102" t="n"/>
+      <c r="E1" s="102" t="n"/>
+      <c r="F1" s="102" t="n"/>
+      <c r="G1" s="102" t="n"/>
+      <c r="H1" s="102" t="n"/>
+      <c r="I1" s="102" t="n"/>
+      <c r="J1" s="102" t="n"/>
+      <c r="K1" s="102" t="n"/>
+      <c r="L1" s="102" t="n"/>
+      <c r="M1" s="102" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="102" t="inlineStr">
+        <is>
+          <t>Acciones verbalizadas</t>
+        </is>
+      </c>
+      <c r="B2" s="102" t="inlineStr">
+        <is>
+          <t>x1</t>
+        </is>
+      </c>
+      <c r="C2" s="102" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
+      </c>
+      <c r="D2" s="102" t="inlineStr">
+        <is>
+          <t>x3</t>
+        </is>
+      </c>
+      <c r="E2" s="102" t="inlineStr">
+        <is>
+          <t>x4</t>
+        </is>
+      </c>
+      <c r="F2" s="102" t="inlineStr">
+        <is>
+          <t>x5</t>
+        </is>
+      </c>
+      <c r="G2" s="102" t="inlineStr">
+        <is>
+          <t>x6</t>
+        </is>
+      </c>
+      <c r="H2" s="102" t="inlineStr">
+        <is>
+          <t>x7</t>
+        </is>
+      </c>
+      <c r="I2" s="102" t="inlineStr">
+        <is>
+          <t>x8</t>
+        </is>
+      </c>
+      <c r="J2" s="102" t="inlineStr">
+        <is>
+          <t>x9</t>
+        </is>
+      </c>
+      <c r="K2" s="102" t="inlineStr">
+        <is>
+          <t>x10</t>
+        </is>
+      </c>
+      <c r="L2" s="102" t="inlineStr">
+        <is>
+          <t>x11</t>
+        </is>
+      </c>
+      <c r="M2" s="102" t="inlineStr">
+        <is>
+          <t>x12</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="102" t="inlineStr">
+        <is>
+          <t>ROTONDA 1</t>
+        </is>
+      </c>
+      <c r="B3" s="102" t="inlineStr">
+        <is>
+          <t>Percepción</t>
+        </is>
+      </c>
+      <c r="C3" s="102" t="inlineStr">
+        <is>
+          <t>Acción</t>
+        </is>
+      </c>
+      <c r="D3" s="102" t="inlineStr">
+        <is>
+          <t>Distancia real al ceda el paso (metros)</t>
+        </is>
+      </c>
+      <c r="E3" s="102" t="inlineStr">
+        <is>
+          <t>Velocidad actual</t>
+        </is>
+      </c>
+      <c r="F3" s="102" t="inlineStr">
+        <is>
+          <t>Límite velocidad GoogleMaps API</t>
+        </is>
+      </c>
+      <c r="G3" s="102" t="inlineStr">
+        <is>
+          <t>Posición</t>
+        </is>
+      </c>
+      <c r="H3" s="102" t="inlineStr">
+        <is>
+          <t>Distancia con coche delante 1 = media 2 = cerca</t>
+        </is>
+      </c>
+      <c r="I3" s="102" t="inlineStr">
+        <is>
+          <t>Zi</t>
+        </is>
+      </c>
+      <c r="J3" s="102" t="inlineStr">
+        <is>
+          <t>Zc</t>
+        </is>
+      </c>
+      <c r="K3" s="102" t="inlineStr">
+        <is>
+          <t>Zd</t>
+        </is>
+      </c>
+      <c r="L3" s="102" t="inlineStr">
+        <is>
+          <t>Coche en Carril izquierdo</t>
+        </is>
+      </c>
+      <c r="M3" s="102" t="inlineStr">
         <is>
           <t>Coche en Carril derecho</t>
         </is>
@@ -15358,11 +13644,7 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>APROX</t>
-        </is>
-      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -15385,11 +13667,7 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>APROX</t>
-        </is>
-      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -15412,11 +13690,7 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>APROX</t>
-        </is>
-      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -15439,15 +13713,11 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>45.09</t>
+          <t>45.88</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>APROX</t>
-        </is>
-      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -15470,11 +13740,7 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>APROX</t>
-        </is>
-      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -15497,11 +13763,7 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>APROX</t>
-        </is>
-      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -15524,11 +13786,7 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>APROX</t>
-        </is>
-      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -15551,11 +13809,7 @@
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>APROX</t>
-        </is>
-      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -15578,11 +13832,7 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>APROX</t>
-        </is>
-      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -15605,11 +13855,7 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>APROX</t>
-        </is>
-      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -15632,11 +13878,7 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>APROX</t>
-        </is>
-      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -15647,23 +13889,19 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>entro rotonda</t>
+          <t xml:space="preserve"> vienen acelero </t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>RND-IN</t>
+          <t>T-ON</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>DENTRO</t>
-        </is>
-      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -15674,23 +13912,19 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> vienen acelero </t>
+          <t xml:space="preserve"> rotonda gire izquierda rotonda cambio carril rotonda embrago </t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>T-ON</t>
+          <t>G-ON</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>DENTRO</t>
-        </is>
-      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -15701,23 +13935,19 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> rotonda gire izquierda rotonda cambio carril rotonda embrago </t>
+          <t xml:space="preserve"> subo segunda </t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>G-ON</t>
+          <t>GU</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>DENTRO</t>
-        </is>
-      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -15728,23 +13958,19 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> subo segunda </t>
+          <t>desembrague</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
-          <t>GU</t>
+          <t>G-OFF</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>DENTRO</t>
-        </is>
-      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -15755,23 +13981,19 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>desembrague</t>
+          <t xml:space="preserve"> gira izquierda </t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
-          <t>G-OFF</t>
+          <t>TURN-L</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>DENTRO</t>
-        </is>
-      </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -15782,23 +14004,19 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> gira izquierda </t>
+          <t xml:space="preserve"> rotonda intermitente derecha </t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
-          <t>TURN-L</t>
+          <t>RB-ON</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>DENTRO</t>
-        </is>
-      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -15809,23 +14027,19 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> rotonda intermitente derecha </t>
+          <t xml:space="preserve"> retrovisor central </t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
-          <t>RB-ON</t>
+          <t>FV-Mirror</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>DENTRO</t>
-        </is>
-      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -15836,23 +14050,19 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> retrovisor central </t>
+          <t xml:space="preserve"> derecha rotonda cambiar carril fino derecha rotonda salgo rotonda </t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
-          <t>FV-Mirror</t>
+          <t>RND-EXIT</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>DENTRO</t>
-        </is>
-      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -15863,23 +14073,19 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> derecha rotonda cambiar carril fino derecha rotonda salgo rotonda </t>
+          <t xml:space="preserve"> intermitente enderezo Bravo subo Tercera acelero </t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
-          <t>RND-EXIT</t>
+          <t>T-ON</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>SALIENDO</t>
-        </is>
-      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -15887,39 +14093,587 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> intermitente enderezo Bravo subo Tercera acelero </t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>T-ON</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>SALIENDO</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col width="30.1640625" customWidth="1" style="101" min="1" max="1"/>
+    <col width="10.5" bestFit="1" customWidth="1" style="73" min="2" max="2"/>
+    <col width="9.6640625" customWidth="1" style="73" min="3" max="3"/>
+    <col width="13.5" customWidth="1" style="6" min="4" max="6"/>
+    <col width="13.5" customWidth="1" style="101" min="7" max="7"/>
+    <col width="16.1640625" customWidth="1" style="18" min="8" max="8"/>
+    <col width="5.33203125" customWidth="1" style="18" min="9" max="11"/>
+    <col width="10.33203125" customWidth="1" style="17" min="12" max="13"/>
+    <col width="10.83203125" customWidth="1" style="101" min="14" max="20"/>
+    <col width="10.83203125" customWidth="1" style="101" min="21" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="8" t="n"/>
+    </row>
+    <row r="2" ht="17" customHeight="1" s="101">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>Acciones verbalizadas</t>
+        </is>
+      </c>
+      <c r="B2" s="18" t="inlineStr">
+        <is>
+          <t>x1</t>
+        </is>
+      </c>
+      <c r="C2" s="18" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
+      </c>
+      <c r="D2" s="18" t="inlineStr">
+        <is>
+          <t>x3</t>
+        </is>
+      </c>
+      <c r="E2" s="18" t="inlineStr">
+        <is>
+          <t>x4</t>
+        </is>
+      </c>
+      <c r="F2" s="18" t="inlineStr">
+        <is>
+          <t>x5</t>
+        </is>
+      </c>
+      <c r="G2" s="18" t="inlineStr">
+        <is>
+          <t>x6</t>
+        </is>
+      </c>
+      <c r="H2" s="18" t="inlineStr">
+        <is>
+          <t>x7</t>
+        </is>
+      </c>
+      <c r="I2" s="18" t="inlineStr">
+        <is>
+          <t>x8</t>
+        </is>
+      </c>
+      <c r="J2" s="18" t="inlineStr">
+        <is>
+          <t>x9</t>
+        </is>
+      </c>
+      <c r="K2" s="18" t="inlineStr">
+        <is>
+          <t>x10</t>
+        </is>
+      </c>
+      <c r="L2" s="18" t="inlineStr">
+        <is>
+          <t>x11</t>
+        </is>
+      </c>
+      <c r="M2" s="18" t="inlineStr">
+        <is>
+          <t>x12</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="85" customHeight="1" s="101">
+      <c r="A3" s="7" t="inlineStr">
+        <is>
+          <t>ROTONDA 1</t>
+        </is>
+      </c>
+      <c r="B3" s="91" t="inlineStr">
+        <is>
+          <t>Percepción</t>
+        </is>
+      </c>
+      <c r="C3" s="91" t="inlineStr">
+        <is>
+          <t>Acción</t>
+        </is>
+      </c>
+      <c r="D3" s="23" t="inlineStr">
+        <is>
+          <t>Distancia real al ceda el paso (metros)</t>
+        </is>
+      </c>
+      <c r="E3" s="23" t="inlineStr">
+        <is>
+          <t>Velocidad actual</t>
+        </is>
+      </c>
+      <c r="F3" s="23" t="inlineStr">
+        <is>
+          <t>Límie velocidad GoogleMaps API</t>
+        </is>
+      </c>
+      <c r="G3" s="23" t="inlineStr">
+        <is>
+          <t>Posición</t>
+        </is>
+      </c>
+      <c r="H3" s="33" t="inlineStr">
+        <is>
+          <t>Distancia con coche delante
+1 = media
+2 = cerca</t>
+        </is>
+      </c>
+      <c r="I3" s="43" t="inlineStr">
+        <is>
+          <t>Zi</t>
+        </is>
+      </c>
+      <c r="J3" s="44" t="inlineStr">
+        <is>
+          <t>Zc</t>
+        </is>
+      </c>
+      <c r="K3" s="45" t="inlineStr">
+        <is>
+          <t>Zd</t>
+        </is>
+      </c>
+      <c r="L3" s="22" t="inlineStr">
+        <is>
+          <t>Coche en Carril izquierdo</t>
+        </is>
+      </c>
+      <c r="M3" s="22" t="inlineStr">
+        <is>
+          <t>Coche en Carril derecho</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" customFormat="1" s="9">
+      <c r="A4" s="35" t="n"/>
+      <c r="B4" s="74" t="n"/>
+      <c r="C4" s="74" t="n"/>
+      <c r="D4" s="36" t="n"/>
+      <c r="E4" s="36" t="n"/>
+      <c r="F4" s="36" t="n"/>
+      <c r="G4" s="35" t="n"/>
+      <c r="H4" s="20" t="n"/>
+      <c r="I4" s="21" t="n"/>
+      <c r="J4" s="21" t="n"/>
+      <c r="K4" s="21" t="n"/>
+      <c r="L4" s="11" t="n"/>
+      <c r="M4" s="11" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="37" t="n"/>
+      <c r="B5" s="75" t="n"/>
+      <c r="C5" s="75" t="n"/>
+      <c r="D5" s="38" t="n"/>
+      <c r="E5" s="38" t="n"/>
+      <c r="F5" s="38" t="n"/>
+      <c r="G5" s="37" t="n"/>
+      <c r="H5" s="20" t="n"/>
+      <c r="I5" s="21" t="n"/>
+      <c r="J5" s="21" t="n"/>
+      <c r="K5" s="21" t="n"/>
+      <c r="L5" s="11" t="n"/>
+      <c r="M5" s="11" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="39" t="n"/>
+      <c r="B6" s="75" t="n"/>
+      <c r="C6" s="75" t="n"/>
+      <c r="D6" s="38" t="n"/>
+      <c r="E6" s="38" t="n"/>
+      <c r="F6" s="38" t="n"/>
+      <c r="G6" s="37" t="n"/>
+      <c r="H6" s="20" t="n"/>
+      <c r="I6" s="21" t="n"/>
+      <c r="J6" s="21" t="n"/>
+      <c r="K6" s="21" t="n"/>
+      <c r="L6" s="11" t="n"/>
+      <c r="M6" s="11" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="39" t="n"/>
+      <c r="B7" s="75" t="n"/>
+      <c r="C7" s="75" t="n"/>
+      <c r="D7" s="38" t="n"/>
+      <c r="E7" s="38" t="n"/>
+      <c r="F7" s="38" t="n"/>
+      <c r="G7" s="37" t="n"/>
+      <c r="H7" s="20" t="n"/>
+      <c r="I7" s="21" t="n"/>
+      <c r="J7" s="21" t="n"/>
+      <c r="K7" s="21" t="n"/>
+      <c r="L7" s="11" t="n"/>
+      <c r="M7" s="11" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="39" t="n"/>
+      <c r="B8" s="75" t="n"/>
+      <c r="C8" s="75" t="n"/>
+      <c r="D8" s="38" t="n"/>
+      <c r="E8" s="38" t="n"/>
+      <c r="F8" s="38" t="n"/>
+      <c r="G8" s="37" t="n"/>
+      <c r="H8" s="20" t="n"/>
+      <c r="I8" s="21" t="n"/>
+      <c r="J8" s="21" t="n"/>
+      <c r="K8" s="21" t="n"/>
+      <c r="L8" s="11" t="n"/>
+      <c r="M8" s="11" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="39" t="n"/>
+      <c r="B9" s="75" t="n"/>
+      <c r="C9" s="75" t="n"/>
+      <c r="D9" s="38" t="n"/>
+      <c r="E9" s="38" t="n"/>
+      <c r="F9" s="38" t="n"/>
+      <c r="G9" s="37" t="n"/>
+      <c r="H9" s="20" t="n"/>
+      <c r="I9" s="21" t="n"/>
+      <c r="J9" s="21" t="n"/>
+      <c r="K9" s="21" t="n"/>
+      <c r="L9" s="11" t="n"/>
+      <c r="M9" s="11" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="40" t="n"/>
+      <c r="B10" s="75" t="n"/>
+      <c r="C10" s="75" t="n"/>
+      <c r="D10" s="38" t="n"/>
+      <c r="E10" s="38" t="n"/>
+      <c r="F10" s="38" t="n"/>
+      <c r="G10" s="37" t="n"/>
+      <c r="H10" s="20" t="n"/>
+      <c r="I10" s="21" t="n"/>
+      <c r="J10" s="21" t="n"/>
+      <c r="K10" s="21" t="n"/>
+      <c r="L10" s="11" t="n"/>
+      <c r="M10" s="11" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="40" t="n"/>
+      <c r="B11" s="75" t="n"/>
+      <c r="C11" s="75" t="n"/>
+      <c r="D11" s="38" t="n"/>
+      <c r="E11" s="38" t="n"/>
+      <c r="F11" s="38" t="n"/>
+      <c r="G11" s="37" t="n"/>
+      <c r="H11" s="20" t="n"/>
+      <c r="I11" s="21" t="n"/>
+      <c r="J11" s="21" t="n"/>
+      <c r="K11" s="21" t="n"/>
+      <c r="L11" s="11" t="n"/>
+      <c r="M11" s="11" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="76" t="n"/>
+      <c r="C12" s="76" t="n"/>
+      <c r="D12" s="34" t="n"/>
+      <c r="E12" s="34" t="n"/>
+      <c r="F12" s="34" t="n"/>
+      <c r="G12" s="34" t="n"/>
+      <c r="H12" s="20" t="n"/>
+      <c r="I12" s="28" t="n"/>
+      <c r="J12" s="28" t="n"/>
+      <c r="K12" s="28" t="n"/>
+      <c r="L12" s="11" t="n"/>
+      <c r="M12" s="11" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="83" t="n"/>
+      <c r="B13" s="77" t="n"/>
+      <c r="C13" s="77" t="n"/>
+      <c r="D13" s="34" t="n"/>
+      <c r="E13" s="34" t="n"/>
+      <c r="F13" s="34" t="n"/>
+      <c r="G13" s="34" t="n"/>
+      <c r="H13" s="20" t="n"/>
+      <c r="I13" s="28" t="n"/>
+      <c r="J13" s="28" t="n"/>
+      <c r="K13" s="28" t="n"/>
+      <c r="L13" s="11" t="n"/>
+      <c r="M13" s="11" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="83" t="n"/>
+      <c r="B14" s="77" t="n"/>
+      <c r="C14" s="77" t="n"/>
+      <c r="D14" s="34" t="n"/>
+      <c r="E14" s="34" t="n"/>
+      <c r="F14" s="34" t="n"/>
+      <c r="G14" s="34" t="n"/>
+      <c r="H14" s="20" t="n"/>
+      <c r="I14" s="28" t="n"/>
+      <c r="J14" s="28" t="n"/>
+      <c r="K14" s="28" t="n"/>
+      <c r="L14" s="11" t="n"/>
+      <c r="M14" s="11" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="n"/>
+      <c r="B15" s="77" t="n"/>
+      <c r="C15" s="77" t="n"/>
+      <c r="D15" s="34" t="n"/>
+      <c r="E15" s="34" t="n"/>
+      <c r="F15" s="34" t="n"/>
+      <c r="G15" s="34" t="n"/>
+      <c r="H15" s="20" t="n"/>
+      <c r="I15" s="28" t="n"/>
+      <c r="J15" s="28" t="n"/>
+      <c r="K15" s="28" t="n"/>
+      <c r="L15" s="11" t="n"/>
+      <c r="M15" s="11" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="n"/>
+      <c r="B16" s="77" t="n"/>
+      <c r="C16" s="77" t="n"/>
+      <c r="D16" s="34" t="n"/>
+      <c r="E16" s="34" t="n"/>
+      <c r="F16" s="34" t="n"/>
+      <c r="G16" s="34" t="n"/>
+      <c r="H16" s="20" t="n"/>
+      <c r="I16" s="28" t="n"/>
+      <c r="J16" s="28" t="n"/>
+      <c r="K16" s="28" t="n"/>
+      <c r="L16" s="11" t="n"/>
+      <c r="M16" s="11" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="83" t="n"/>
+      <c r="B17" s="77" t="n"/>
+      <c r="C17" s="77" t="n"/>
+      <c r="D17" s="34" t="n"/>
+      <c r="E17" s="34" t="n"/>
+      <c r="F17" s="34" t="n"/>
+      <c r="G17" s="34" t="n"/>
+      <c r="H17" s="20" t="n"/>
+      <c r="I17" s="28" t="n"/>
+      <c r="J17" s="28" t="n"/>
+      <c r="K17" s="28" t="n"/>
+      <c r="L17" s="11" t="n"/>
+      <c r="M17" s="11" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="83" t="n"/>
+      <c r="B18" s="77" t="n"/>
+      <c r="C18" s="77" t="n"/>
+      <c r="D18" s="34" t="n"/>
+      <c r="E18" s="34" t="n"/>
+      <c r="F18" s="34" t="n"/>
+      <c r="G18" s="34" t="n"/>
+      <c r="H18" s="20" t="n"/>
+      <c r="I18" s="28" t="n"/>
+      <c r="J18" s="28" t="n"/>
+      <c r="K18" s="28" t="n"/>
+      <c r="L18" s="11" t="n"/>
+      <c r="M18" s="11" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="n"/>
+      <c r="B19" s="77" t="n"/>
+      <c r="C19" s="77" t="n"/>
+      <c r="D19" s="34" t="n"/>
+      <c r="E19" s="34" t="n"/>
+      <c r="F19" s="34" t="n"/>
+      <c r="G19" s="34" t="n"/>
+      <c r="H19" s="20" t="n"/>
+      <c r="I19" s="28" t="n"/>
+      <c r="J19" s="28" t="n"/>
+      <c r="K19" s="28" t="n"/>
+      <c r="L19" s="11" t="n"/>
+      <c r="M19" s="11" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="n"/>
+      <c r="B20" s="77" t="n"/>
+      <c r="C20" s="34" t="n"/>
+      <c r="D20" s="34" t="n"/>
+      <c r="E20" s="34" t="n"/>
+      <c r="F20" s="34" t="n"/>
+      <c r="G20" s="34" t="n"/>
+      <c r="H20" s="20" t="n"/>
+      <c r="I20" s="28" t="n"/>
+      <c r="J20" s="28" t="n"/>
+      <c r="K20" s="28" t="n"/>
+      <c r="L20" s="11" t="n"/>
+      <c r="M20" s="11" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="n"/>
+      <c r="B21" s="77" t="n"/>
+      <c r="C21" s="77" t="n"/>
+      <c r="D21" s="34" t="n"/>
+      <c r="E21" s="34" t="n"/>
+      <c r="F21" s="34" t="n"/>
+      <c r="G21" s="34" t="n"/>
+      <c r="H21" s="20" t="n"/>
+      <c r="I21" s="28" t="n"/>
+      <c r="J21" s="28" t="n"/>
+      <c r="K21" s="28" t="n"/>
+      <c r="L21" s="11" t="n"/>
+      <c r="M21" s="11" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="n"/>
+      <c r="B22" s="77" t="n"/>
+      <c r="C22" s="77" t="n"/>
+      <c r="D22" s="34" t="n"/>
+      <c r="E22" s="34" t="n"/>
+      <c r="F22" s="34" t="n"/>
+      <c r="G22" s="34" t="n"/>
+      <c r="H22" s="20" t="n"/>
+      <c r="I22" s="28" t="n"/>
+      <c r="J22" s="28" t="n"/>
+      <c r="K22" s="28" t="n"/>
+      <c r="L22" s="11" t="n"/>
+      <c r="M22" s="11" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="83" t="n"/>
+      <c r="B23" s="77" t="n"/>
+      <c r="C23" s="77" t="n"/>
+      <c r="D23" s="34" t="n"/>
+      <c r="E23" s="34" t="n"/>
+      <c r="F23" s="34" t="n"/>
+      <c r="G23" s="34" t="n"/>
+      <c r="H23" s="20" t="n"/>
+      <c r="I23" s="28" t="n"/>
+      <c r="J23" s="28" t="n"/>
+      <c r="K23" s="28" t="n"/>
+      <c r="L23" s="11" t="n"/>
+      <c r="M23" s="11" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="n"/>
+      <c r="B24" s="78" t="n"/>
+      <c r="C24" s="78" t="n"/>
+      <c r="D24" s="41" t="n"/>
+      <c r="E24" s="41" t="n"/>
+      <c r="F24" s="41" t="n"/>
+      <c r="G24" s="42" t="n"/>
+      <c r="H24" s="20" t="n"/>
+      <c r="I24" s="28" t="n"/>
+      <c r="J24" s="28" t="n"/>
+      <c r="K24" s="28" t="n"/>
+      <c r="L24" s="11" t="n"/>
+      <c r="M24" s="11" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="81" t="n"/>
+      <c r="B25" s="78" t="n"/>
+      <c r="C25" s="78" t="n"/>
+      <c r="D25" s="41" t="n"/>
+      <c r="E25" s="41" t="n"/>
+      <c r="F25" s="41" t="n"/>
+      <c r="G25" s="42" t="n"/>
+      <c r="H25" s="20" t="n"/>
+      <c r="I25" s="28" t="n"/>
+      <c r="J25" s="28" t="n"/>
+      <c r="K25" s="28" t="n"/>
+      <c r="L25" s="11" t="n"/>
+      <c r="M25" s="11" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="81" t="n"/>
+      <c r="B26" s="78" t="n"/>
+      <c r="C26" s="78" t="n"/>
+      <c r="D26" s="41" t="n"/>
+      <c r="E26" s="41" t="n"/>
+      <c r="F26" s="41" t="n"/>
+      <c r="G26" s="42" t="n"/>
+      <c r="H26" s="20" t="n"/>
+      <c r="I26" s="28" t="n"/>
+      <c r="J26" s="28" t="n"/>
+      <c r="K26" s="28" t="n"/>
+      <c r="L26" s="11" t="n"/>
+      <c r="M26" s="11" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="n"/>
+      <c r="B27" s="78" t="n"/>
+      <c r="C27" s="78" t="n"/>
+      <c r="D27" s="41" t="n"/>
+      <c r="E27" s="41" t="n"/>
+      <c r="F27" s="41" t="n"/>
+      <c r="G27" s="42" t="n"/>
+      <c r="H27" s="20" t="n"/>
+      <c r="I27" s="28" t="n"/>
+      <c r="J27" s="28" t="n"/>
+      <c r="K27" s="28" t="n"/>
+      <c r="L27" s="11" t="n"/>
+      <c r="M27" s="11" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="n"/>
+      <c r="B28" s="78" t="n"/>
+      <c r="C28" s="78" t="n"/>
+      <c r="D28" s="41" t="n"/>
+      <c r="E28" s="41" t="n"/>
+      <c r="F28" s="41" t="n"/>
+      <c r="G28" s="42" t="n"/>
+      <c r="H28" s="20" t="n"/>
+      <c r="I28" s="28" t="n"/>
+      <c r="J28" s="28" t="n"/>
+      <c r="K28" s="28" t="n"/>
+      <c r="L28" s="11" t="n"/>
+      <c r="M28" s="11" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="n"/>
+      <c r="B29" s="78" t="n"/>
+      <c r="C29" s="78" t="n"/>
+      <c r="D29" s="41" t="n"/>
+      <c r="E29" s="41" t="n"/>
+      <c r="F29" s="41" t="n"/>
+      <c r="G29" s="42" t="n"/>
+      <c r="H29" s="20" t="n"/>
+      <c r="I29" s="28" t="n"/>
+      <c r="J29" s="28" t="n"/>
+      <c r="K29" s="28" t="n"/>
+      <c r="L29" s="11" t="n"/>
+      <c r="M29" s="11" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="81" t="n"/>
+      <c r="B30" s="78" t="n"/>
+      <c r="C30" s="78" t="n"/>
+      <c r="D30" s="41" t="n"/>
+      <c r="E30" s="41" t="n"/>
+      <c r="F30" s="41" t="n"/>
+      <c r="G30" s="42" t="n"/>
+      <c r="H30" s="20" t="n"/>
+      <c r="I30" s="28" t="n"/>
+      <c r="J30" s="28" t="n"/>
+      <c r="K30" s="28" t="n"/>
+      <c r="L30" s="11" t="n"/>
+      <c r="M30" s="11" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15929,16 +14683,16 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="K26" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col width="30.1640625" customWidth="1" style="100" min="1" max="1"/>
+    <col width="30.1640625" customWidth="1" style="101" min="1" max="1"/>
     <col width="10.5" bestFit="1" customWidth="1" style="73" min="2" max="2"/>
     <col width="9.6640625" customWidth="1" style="73" min="3" max="3"/>
     <col width="13.5" customWidth="1" style="6" min="4" max="6"/>
-    <col width="13.5" customWidth="1" style="100" min="7" max="7"/>
+    <col width="13.5" customWidth="1" style="101" min="7" max="7"/>
     <col width="16.1640625" customWidth="1" style="18" min="8" max="8"/>
     <col width="5.33203125" customWidth="1" style="18" min="9" max="11"/>
     <col width="10.33203125" customWidth="1" style="17" min="12" max="13"/>
@@ -15949,7 +14703,7 @@
         <v>44292</v>
       </c>
     </row>
-    <row r="2" ht="17" customHeight="1" s="100">
+    <row r="2" ht="17" customHeight="1" s="101">
       <c r="A2" s="7" t="inlineStr">
         <is>
           <t>Acciones verbalizadas</t>
@@ -16016,7 +14770,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="85" customHeight="1" s="100">
+    <row r="3" ht="85" customHeight="1" s="101">
       <c r="A3" s="7" t="inlineStr">
         <is>
           <t>ROTONDA 1</t>
@@ -16966,7 +15720,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16993,9 +15747,9 @@
     <col width="9.1640625" customWidth="1" style="18" min="12" max="13"/>
     <col width="10.83203125" customWidth="1" style="17" min="14" max="14"/>
     <col width="10.83203125" customWidth="1" style="26" min="15" max="15"/>
-    <col width="10.83203125" customWidth="1" style="100" min="16" max="16"/>
-    <col width="10.83203125" customWidth="1" style="17" min="17" max="17"/>
-    <col width="10.83203125" customWidth="1" style="17" min="18" max="16384"/>
+    <col width="10.83203125" customWidth="1" style="101" min="16" max="16"/>
+    <col width="10.83203125" customWidth="1" style="17" min="17" max="25"/>
+    <col width="10.83203125" customWidth="1" style="17" min="26" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -17004,7 +15758,7 @@
       </c>
       <c r="B1" s="89" t="n"/>
     </row>
-    <row r="2" ht="17" customHeight="1" s="100">
+    <row r="2" ht="17" customHeight="1" s="101">
       <c r="A2" s="10" t="inlineStr">
         <is>
           <t>Acciones verbalizadas</t>
@@ -17071,7 +15825,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="85" customHeight="1" s="100">
+    <row r="3" ht="85" customHeight="1" s="101">
       <c r="A3" s="7" t="inlineStr">
         <is>
           <t>ROTONDA 1</t>
@@ -17176,7 +15930,7 @@
       <c r="M4" s="19" t="n"/>
       <c r="O4" s="26" t="n"/>
     </row>
-    <row r="5" ht="17" customHeight="1" s="100">
+    <row r="5" ht="17" customHeight="1" s="101">
       <c r="A5" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">cambio a tercera </t>
@@ -17214,7 +15968,7 @@
       </c>
       <c r="P5" s="17" t="n"/>
     </row>
-    <row r="6" ht="17" customHeight="1" s="100">
+    <row r="6" ht="17" customHeight="1" s="101">
       <c r="A6" s="50" t="inlineStr">
         <is>
           <t>levanto el pie del acelerador</t>
@@ -17250,7 +16004,7 @@
       <c r="M6" s="19" t="n"/>
       <c r="P6" s="17" t="n"/>
     </row>
-    <row r="7" ht="17" customHeight="1" s="100">
+    <row r="7" ht="17" customHeight="1" s="101">
       <c r="A7" s="50" t="inlineStr">
         <is>
           <t>cambio a segunda</t>
@@ -17286,7 +16040,7 @@
       <c r="M7" s="19" t="n"/>
       <c r="P7" s="17" t="n"/>
     </row>
-    <row r="8" ht="17" customHeight="1" s="100">
+    <row r="8" ht="17" customHeight="1" s="101">
       <c r="A8" s="51" t="inlineStr">
         <is>
           <t xml:space="preserve">intermitente a la izquierda </t>
@@ -17322,7 +16076,7 @@
       <c r="M8" s="19" t="n"/>
       <c r="P8" s="17" t="n"/>
     </row>
-    <row r="9" ht="17" customHeight="1" s="100">
+    <row r="9" ht="17" customHeight="1" s="101">
       <c r="A9" s="51" t="inlineStr">
         <is>
           <t>mira la izquierda en la rotonda</t>
@@ -17358,7 +16112,7 @@
       <c r="M9" s="19" t="n"/>
       <c r="P9" s="17" t="n"/>
     </row>
-    <row r="10" ht="17" customHeight="1" s="100">
+    <row r="10" ht="17" customHeight="1" s="101">
       <c r="A10" s="14" t="inlineStr">
         <is>
           <t xml:space="preserve">entro en la rotonda </t>
@@ -17394,7 +16148,7 @@
       <c r="M10" s="19" t="n"/>
       <c r="P10" s="17" t="n"/>
     </row>
-    <row r="11" ht="17" customHeight="1" s="100">
+    <row r="11" ht="17" customHeight="1" s="101">
       <c r="A11" s="15" t="inlineStr">
         <is>
           <t xml:space="preserve">carril izquierdo de la rotonda </t>
@@ -17432,7 +16186,7 @@
       <c r="M11" s="19" t="n"/>
       <c r="P11" s="17" t="n"/>
     </row>
-    <row r="12" ht="17" customHeight="1" s="100">
+    <row r="12" ht="17" customHeight="1" s="101">
       <c r="A12" s="15" t="inlineStr">
         <is>
           <t xml:space="preserve">giro a la izquierda en la rotonda </t>
@@ -17470,7 +16224,7 @@
       <c r="M12" s="19" t="n"/>
       <c r="P12" s="17" t="n"/>
     </row>
-    <row r="13" ht="17" customHeight="1" s="100">
+    <row r="13" ht="17" customHeight="1" s="101">
       <c r="A13" s="15" t="inlineStr">
         <is>
           <t xml:space="preserve">mantengo el giro </t>
@@ -17508,7 +16262,7 @@
       <c r="M13" s="19" t="n"/>
       <c r="P13" s="17" t="n"/>
     </row>
-    <row r="14" ht="17" customHeight="1" s="100">
+    <row r="14" ht="17" customHeight="1" s="101">
       <c r="A14" s="16" t="inlineStr">
         <is>
           <t xml:space="preserve">mantengo el giro </t>
@@ -17546,7 +16300,7 @@
       <c r="M14" s="19" t="n"/>
       <c r="P14" s="17" t="n"/>
     </row>
-    <row r="15" ht="17" customHeight="1" s="100">
+    <row r="15" ht="17" customHeight="1" s="101">
       <c r="A15" s="16" t="inlineStr">
         <is>
           <t xml:space="preserve">mantengo el giro </t>
@@ -17584,7 +16338,7 @@
       <c r="M15" s="19" t="n"/>
       <c r="P15" s="17" t="n"/>
     </row>
-    <row r="16" ht="17" customHeight="1" s="100">
+    <row r="16" ht="17" customHeight="1" s="101">
       <c r="A16" s="16" t="inlineStr">
         <is>
           <t xml:space="preserve">mantengo el giro </t>
@@ -17622,7 +16376,7 @@
       <c r="M16" s="19" t="n"/>
       <c r="P16" s="17" t="n"/>
     </row>
-    <row r="17" ht="17" customHeight="1" s="100">
+    <row r="17" ht="17" customHeight="1" s="101">
       <c r="A17" s="15" t="inlineStr">
         <is>
           <t xml:space="preserve">intermitente a la derecha </t>
@@ -17660,7 +16414,7 @@
       <c r="M17" s="19" t="n"/>
       <c r="P17" s="17" t="n"/>
     </row>
-    <row r="18" ht="17" customHeight="1" s="100">
+    <row r="18" ht="17" customHeight="1" s="101">
       <c r="A18" s="15" t="inlineStr">
         <is>
           <t xml:space="preserve">retrovisor central </t>
@@ -17698,7 +16452,7 @@
       <c r="M18" s="19" t="n"/>
       <c r="P18" s="17" t="n"/>
     </row>
-    <row r="19" ht="17" customHeight="1" s="100">
+    <row r="19" ht="17" customHeight="1" s="101">
       <c r="A19" s="15" t="inlineStr">
         <is>
           <t xml:space="preserve">miro la derecha </t>
@@ -17736,7 +16490,7 @@
       <c r="M19" s="19" t="n"/>
       <c r="P19" s="17" t="n"/>
     </row>
-    <row r="20" ht="17" customHeight="1" s="100">
+    <row r="20" ht="17" customHeight="1" s="101">
       <c r="A20" s="15" t="inlineStr">
         <is>
           <t xml:space="preserve">gira a la derecha </t>
@@ -17774,7 +16528,7 @@
       <c r="M20" s="19" t="n"/>
       <c r="P20" s="17" t="n"/>
     </row>
-    <row r="21" ht="17" customHeight="1" s="100">
+    <row r="21" ht="17" customHeight="1" s="101">
       <c r="A21" s="16" t="inlineStr">
         <is>
           <t xml:space="preserve">giro a la derecha </t>
@@ -17812,7 +16566,7 @@
       <c r="M21" s="19" t="n"/>
       <c r="P21" s="17" t="n"/>
     </row>
-    <row r="22" ht="17" customHeight="1" s="100">
+    <row r="22" ht="17" customHeight="1" s="101">
       <c r="A22" s="53" t="inlineStr">
         <is>
           <t xml:space="preserve">salgo por la rotonda </t>
@@ -17850,7 +16604,7 @@
       <c r="M22" s="19" t="n"/>
       <c r="P22" s="17" t="n"/>
     </row>
-    <row r="23" ht="17" customHeight="1" s="100">
+    <row r="23" ht="17" customHeight="1" s="101">
       <c r="A23" s="53" t="inlineStr">
         <is>
           <t xml:space="preserve">giro a la derecha </t>
@@ -17888,7 +16642,7 @@
       <c r="M23" s="19" t="n"/>
       <c r="P23" s="17" t="n"/>
     </row>
-    <row r="24" ht="17" customHeight="1" s="100">
+    <row r="24" ht="17" customHeight="1" s="101">
       <c r="A24" s="53" t="inlineStr">
         <is>
           <t xml:space="preserve">quito el intermitente </t>
@@ -17926,7 +16680,7 @@
       <c r="M24" s="19" t="n"/>
       <c r="P24" s="17" t="n"/>
     </row>
-    <row r="25" ht="17" customHeight="1" s="100">
+    <row r="25" ht="17" customHeight="1" s="101">
       <c r="A25" s="53" t="inlineStr">
         <is>
           <t xml:space="preserve">cambiar tercera </t>
@@ -17964,7 +16718,7 @@
       <c r="M25" s="19" t="n"/>
       <c r="P25" s="17" t="n"/>
     </row>
-    <row r="26" ht="17" customHeight="1" s="100">
+    <row r="26" ht="17" customHeight="1" s="101">
       <c r="A26" s="56" t="inlineStr">
         <is>
           <t>giro a la derecha</t>
@@ -18087,7 +16841,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18112,8 +16866,8 @@
     <col width="9.1640625" customWidth="1" style="18" min="12" max="13"/>
     <col width="10.83203125" customWidth="1" style="17" min="14" max="14"/>
     <col width="20" bestFit="1" customWidth="1" style="26" min="15" max="15"/>
-    <col width="10.83203125" customWidth="1" style="17" min="16" max="17"/>
-    <col width="10.83203125" customWidth="1" style="17" min="18" max="16384"/>
+    <col width="10.83203125" customWidth="1" style="17" min="16" max="25"/>
+    <col width="10.83203125" customWidth="1" style="17" min="26" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -18122,7 +16876,7 @@
       </c>
       <c r="B1" s="89" t="n"/>
     </row>
-    <row r="2" ht="17" customHeight="1" s="100">
+    <row r="2" ht="17" customHeight="1" s="101">
       <c r="A2" s="10" t="inlineStr">
         <is>
           <t>Acciones verbalizadas</t>
@@ -18189,7 +16943,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="68" customHeight="1" s="100">
+    <row r="3" ht="68" customHeight="1" s="101">
       <c r="A3" s="7" t="inlineStr">
         <is>
           <t>ROTONDA 1</t>
@@ -18295,7 +17049,7 @@
       <c r="L4" s="19" t="n"/>
       <c r="M4" s="19" t="n"/>
     </row>
-    <row r="5" ht="17" customHeight="1" s="100">
+    <row r="5" ht="17" customHeight="1" s="101">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">freno </t>
@@ -18332,7 +17086,7 @@
       <c r="L5" s="19" t="n"/>
       <c r="M5" s="19" t="n"/>
     </row>
-    <row r="6" ht="17" customHeight="1" s="100">
+    <row r="6" ht="17" customHeight="1" s="101">
       <c r="A6" s="87" t="inlineStr">
         <is>
           <t xml:space="preserve">quito el pie del freno </t>
@@ -18369,7 +17123,7 @@
       <c r="L6" s="19" t="n"/>
       <c r="M6" s="19" t="n"/>
     </row>
-    <row r="7" ht="17" customHeight="1" s="100">
+    <row r="7" ht="17" customHeight="1" s="101">
       <c r="A7" s="87" t="inlineStr">
         <is>
           <t xml:space="preserve">acelero ligeramente </t>
@@ -18406,7 +17160,7 @@
       <c r="L7" s="19" t="n"/>
       <c r="M7" s="19" t="n"/>
     </row>
-    <row r="8" ht="17" customHeight="1" s="100">
+    <row r="8" ht="17" customHeight="1" s="101">
       <c r="A8" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">quito el pie del acelerador </t>
@@ -18443,7 +17197,7 @@
       <c r="L8" s="19" t="n"/>
       <c r="M8" s="19" t="n"/>
     </row>
-    <row r="9" ht="17" customHeight="1" s="100">
+    <row r="9" ht="17" customHeight="1" s="101">
       <c r="A9" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">freno </t>
@@ -18480,7 +17234,7 @@
       <c r="L9" s="19" t="n"/>
       <c r="M9" s="19" t="n"/>
     </row>
-    <row r="10" ht="17" customHeight="1" s="100">
+    <row r="10" ht="17" customHeight="1" s="101">
       <c r="A10" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">cambio segunda </t>
@@ -18517,7 +17271,7 @@
       <c r="L10" s="19" t="n"/>
       <c r="M10" s="19" t="n"/>
     </row>
-    <row r="11" ht="17" customHeight="1" s="100">
+    <row r="11" ht="17" customHeight="1" s="101">
       <c r="A11" s="87" t="inlineStr">
         <is>
           <t xml:space="preserve">miro la derecha </t>
@@ -18556,7 +17310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" ht="17" customHeight="1" s="100">
+    <row r="12" ht="17" customHeight="1" s="101">
       <c r="A12" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">intermitente a la izquierda </t>
@@ -18593,7 +17347,7 @@
       <c r="L12" s="19" t="n"/>
       <c r="M12" s="19" t="n"/>
     </row>
-    <row r="13" ht="17" customHeight="1" s="100">
+    <row r="13" ht="17" customHeight="1" s="101">
       <c r="A13" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">mira la izquierda </t>
@@ -18630,7 +17384,7 @@
       <c r="L13" s="19" t="n"/>
       <c r="M13" s="19" t="n"/>
     </row>
-    <row r="14" ht="17" customHeight="1" s="100">
+    <row r="14" ht="17" customHeight="1" s="101">
       <c r="A14" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">entro en la rotonda </t>
@@ -18669,7 +17423,7 @@
       <c r="L14" s="19" t="n"/>
       <c r="M14" s="19" t="n"/>
     </row>
-    <row r="15" ht="17" customHeight="1" s="100">
+    <row r="15" ht="17" customHeight="1" s="101">
       <c r="A15" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">cambio del carril a la izquierda </t>
@@ -18708,7 +17462,7 @@
       <c r="L15" s="19" t="n"/>
       <c r="M15" s="19" t="n"/>
     </row>
-    <row r="16" ht="17" customHeight="1" s="100">
+    <row r="16" ht="17" customHeight="1" s="101">
       <c r="A16" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">giro a la izquierda </t>
@@ -18747,7 +17501,7 @@
       <c r="L16" s="19" t="n"/>
       <c r="M16" s="19" t="n"/>
     </row>
-    <row r="17" ht="17" customHeight="1" s="100">
+    <row r="17" ht="17" customHeight="1" s="101">
       <c r="A17" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">continuo girando a la izquierda </t>
@@ -18784,7 +17538,7 @@
       <c r="L17" s="19" t="n"/>
       <c r="M17" s="19" t="n"/>
     </row>
-    <row r="18" ht="17" customHeight="1" s="100">
+    <row r="18" ht="17" customHeight="1" s="101">
       <c r="A18" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">continua girando al izquierda </t>
@@ -18823,7 +17577,7 @@
       <c r="L18" s="19" t="n"/>
       <c r="M18" s="19" t="n"/>
     </row>
-    <row r="19" ht="17" customHeight="1" s="100">
+    <row r="19" ht="17" customHeight="1" s="101">
       <c r="A19" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">intermitente a la derecha </t>
@@ -18862,7 +17616,7 @@
       <c r="L19" s="19" t="n"/>
       <c r="M19" s="19" t="n"/>
     </row>
-    <row r="20" ht="17" customHeight="1" s="100">
+    <row r="20" ht="17" customHeight="1" s="101">
       <c r="A20" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">mira la derecha </t>
@@ -18901,7 +17655,7 @@
       <c r="L20" s="19" t="n"/>
       <c r="M20" s="19" t="n"/>
     </row>
-    <row r="21" ht="17" customHeight="1" s="100">
+    <row r="21" ht="17" customHeight="1" s="101">
       <c r="A21" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">retrovisor central </t>
@@ -18940,7 +17694,7 @@
       <c r="L21" s="19" t="n"/>
       <c r="M21" s="19" t="n"/>
     </row>
-    <row r="22" ht="17" customHeight="1" s="100">
+    <row r="22" ht="17" customHeight="1" s="101">
       <c r="A22" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">retrovisor central </t>
@@ -18979,7 +17733,7 @@
       <c r="L22" s="19" t="n"/>
       <c r="M22" s="19" t="n"/>
     </row>
-    <row r="23" ht="17" customHeight="1" s="100">
+    <row r="23" ht="17" customHeight="1" s="101">
       <c r="A23" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">cambio de carril a la derecha </t>
@@ -19018,7 +17772,7 @@
       <c r="L23" s="19" t="n"/>
       <c r="M23" s="19" t="n"/>
     </row>
-    <row r="24" ht="17" customHeight="1" s="100">
+    <row r="24" ht="17" customHeight="1" s="101">
       <c r="A24" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">dejo el coche ir a la derecha </t>
@@ -19057,7 +17811,7 @@
       <c r="L24" s="19" t="n"/>
       <c r="M24" s="19" t="n"/>
     </row>
-    <row r="25" ht="17" customHeight="1" s="100">
+    <row r="25" ht="17" customHeight="1" s="101">
       <c r="A25" s="83" t="inlineStr">
         <is>
           <t>giro a la derecha</t>
@@ -19094,7 +17848,7 @@
       <c r="L25" s="19" t="n"/>
       <c r="M25" s="19" t="n"/>
     </row>
-    <row r="26" ht="17" customHeight="1" s="100">
+    <row r="26" ht="17" customHeight="1" s="101">
       <c r="A26" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">salgo de la rotonda </t>
@@ -19131,7 +17885,7 @@
       <c r="L26" s="19" t="n"/>
       <c r="M26" s="19" t="n"/>
     </row>
-    <row r="27" ht="17" customHeight="1" s="100">
+    <row r="27" ht="17" customHeight="1" s="101">
       <c r="A27" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">cambio tercera </t>
@@ -19168,7 +17922,7 @@
       <c r="L27" s="19" t="n"/>
       <c r="M27" s="19" t="n"/>
     </row>
-    <row r="28" ht="17" customHeight="1" s="100">
+    <row r="28" ht="17" customHeight="1" s="101">
       <c r="A28" s="5" t="inlineStr">
         <is>
           <t>quito el intermitente</t>
@@ -19284,7 +18038,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19311,8 +18065,8 @@
     <col width="9.1640625" customWidth="1" style="18" min="12" max="13"/>
     <col width="10.83203125" customWidth="1" style="17" min="14" max="14"/>
     <col width="10.83203125" customWidth="1" style="26" min="15" max="15"/>
-    <col width="10.83203125" customWidth="1" style="17" min="16" max="16"/>
-    <col width="10.83203125" customWidth="1" style="17" min="17" max="16384"/>
+    <col width="10.83203125" customWidth="1" style="17" min="16" max="24"/>
+    <col width="10.83203125" customWidth="1" style="17" min="25" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -19321,7 +18075,7 @@
       </c>
       <c r="B1" s="89" t="n"/>
     </row>
-    <row r="2" ht="17" customHeight="1" s="100">
+    <row r="2" ht="17" customHeight="1" s="101">
       <c r="A2" s="10" t="inlineStr">
         <is>
           <t>Acciones verbalizadas</t>
@@ -19388,7 +18142,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="68" customHeight="1" s="100">
+    <row r="3" ht="68" customHeight="1" s="101">
       <c r="A3" s="7" t="inlineStr">
         <is>
           <t>ROTONDA 1</t>
@@ -19493,7 +18247,7 @@
       <c r="M4" s="19" t="n"/>
       <c r="O4" s="26" t="n"/>
     </row>
-    <row r="5" ht="17" customHeight="1" s="100">
+    <row r="5" ht="17" customHeight="1" s="101">
       <c r="A5" s="87" t="inlineStr">
         <is>
           <t xml:space="preserve">cambio tercera </t>
@@ -19529,7 +18283,7 @@
       <c r="M5" s="19" t="n"/>
       <c r="AG5" s="27" t="n"/>
     </row>
-    <row r="6" ht="17" customHeight="1" s="100">
+    <row r="6" ht="17" customHeight="1" s="101">
       <c r="A6" s="87" t="inlineStr">
         <is>
           <t xml:space="preserve">mantengo el acelerador </t>
@@ -19565,7 +18319,7 @@
       <c r="M6" s="19" t="n"/>
       <c r="AG6" s="27" t="n"/>
     </row>
-    <row r="7" ht="17" customHeight="1" s="100">
+    <row r="7" ht="17" customHeight="1" s="101">
       <c r="A7" s="87" t="inlineStr">
         <is>
           <t xml:space="preserve">cambio a segunda </t>
@@ -19601,7 +18355,7 @@
       <c r="M7" s="19" t="n"/>
       <c r="AG7" s="27" t="n"/>
     </row>
-    <row r="8" ht="17" customHeight="1" s="100">
+    <row r="8" ht="17" customHeight="1" s="101">
       <c r="A8" s="87" t="inlineStr">
         <is>
           <t xml:space="preserve">levanto el pie del acelerador </t>
@@ -19637,7 +18391,7 @@
       <c r="M8" s="19" t="n"/>
       <c r="AG8" s="27" t="n"/>
     </row>
-    <row r="9" ht="17" customHeight="1" s="100">
+    <row r="9" ht="17" customHeight="1" s="101">
       <c r="A9" s="87" t="inlineStr">
         <is>
           <t xml:space="preserve">freno </t>
@@ -19673,7 +18427,7 @@
       <c r="M9" s="19" t="n"/>
       <c r="AG9" s="27" t="n"/>
     </row>
-    <row r="10" ht="17" customHeight="1" s="100">
+    <row r="10" ht="17" customHeight="1" s="101">
       <c r="A10" s="87" t="inlineStr">
         <is>
           <t xml:space="preserve">punto muerto </t>
@@ -19709,7 +18463,7 @@
       <c r="M10" s="19" t="n"/>
       <c r="AG10" s="27" t="n"/>
     </row>
-    <row r="11" ht="17" customHeight="1" s="100">
+    <row r="11" ht="17" customHeight="1" s="101">
       <c r="A11" s="87" t="inlineStr">
         <is>
           <t xml:space="preserve">meto primera </t>
@@ -19745,7 +18499,7 @@
       <c r="M11" s="19" t="n"/>
       <c r="AG11" s="27" t="n"/>
     </row>
-    <row r="12" ht="17" customHeight="1" s="100">
+    <row r="12" ht="17" customHeight="1" s="101">
       <c r="A12" s="87" t="inlineStr">
         <is>
           <t xml:space="preserve">acelero </t>
@@ -19781,7 +18535,7 @@
       <c r="M12" s="19" t="n"/>
       <c r="AG12" s="27" t="n"/>
     </row>
-    <row r="13" ht="17" customHeight="1" s="100">
+    <row r="13" ht="17" customHeight="1" s="101">
       <c r="A13" s="87" t="inlineStr">
         <is>
           <t xml:space="preserve">voy a entrar en la rotonda </t>
@@ -19817,7 +18571,7 @@
       <c r="M13" s="19" t="n"/>
       <c r="AG13" s="27" t="n"/>
     </row>
-    <row r="14" ht="17" customHeight="1" s="100">
+    <row r="14" ht="17" customHeight="1" s="101">
       <c r="A14" s="87" t="inlineStr">
         <is>
           <t xml:space="preserve">cambio a segunda </t>
@@ -19853,7 +18607,7 @@
       <c r="M14" s="19" t="n"/>
       <c r="AG14" s="27" t="n"/>
     </row>
-    <row r="15" ht="17" customHeight="1" s="100">
+    <row r="15" ht="17" customHeight="1" s="101">
       <c r="A15" s="87" t="inlineStr">
         <is>
           <t xml:space="preserve">intermitente a la izquierda </t>
@@ -19891,7 +18645,7 @@
       <c r="M15" s="19" t="n"/>
       <c r="AG15" s="27" t="n"/>
     </row>
-    <row r="16" ht="17" customHeight="1" s="100">
+    <row r="16" ht="17" customHeight="1" s="101">
       <c r="A16" s="87" t="inlineStr">
         <is>
           <t xml:space="preserve">miro a izquierda </t>
@@ -19929,7 +18683,7 @@
       <c r="M16" s="19" t="n"/>
       <c r="AG16" s="27" t="n"/>
     </row>
-    <row r="17" ht="17" customHeight="1" s="100">
+    <row r="17" ht="17" customHeight="1" s="101">
       <c r="A17" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">entro en la rotonda </t>
@@ -19969,7 +18723,7 @@
       <c r="M17" s="19" t="n"/>
       <c r="AG17" s="27" t="n"/>
     </row>
-    <row r="18" ht="17" customHeight="1" s="100">
+    <row r="18" ht="17" customHeight="1" s="101">
       <c r="A18" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">giro a la izquierda </t>
@@ -20009,7 +18763,7 @@
       <c r="M18" s="19" t="n"/>
       <c r="AG18" s="27" t="n"/>
     </row>
-    <row r="19" ht="17" customHeight="1" s="100">
+    <row r="19" ht="17" customHeight="1" s="101">
       <c r="A19" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">cambio de carril en la rotonda </t>
@@ -20047,7 +18801,7 @@
       <c r="M19" s="19" t="n"/>
       <c r="AG19" s="27" t="n"/>
     </row>
-    <row r="20" ht="17" customHeight="1" s="100">
+    <row r="20" ht="17" customHeight="1" s="101">
       <c r="A20" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">giro a la izquierda para hacer la rotonda </t>
@@ -20085,7 +18839,7 @@
       <c r="M20" s="19" t="n"/>
       <c r="AG20" s="27" t="n"/>
     </row>
-    <row r="21" ht="17" customHeight="1" s="100">
+    <row r="21" ht="17" customHeight="1" s="101">
       <c r="A21" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">continuo girando </t>
@@ -20123,7 +18877,7 @@
       <c r="M21" s="19" t="n"/>
       <c r="AG21" s="27" t="n"/>
     </row>
-    <row r="22" ht="17" customHeight="1" s="100">
+    <row r="22" ht="17" customHeight="1" s="101">
       <c r="A22" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">intermitente la derecha </t>
@@ -20161,7 +18915,7 @@
       <c r="M22" s="19" t="n"/>
       <c r="AG22" s="27" t="n"/>
     </row>
-    <row r="23" ht="17" customHeight="1" s="100">
+    <row r="23" ht="17" customHeight="1" s="101">
       <c r="A23" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">retrovisor central </t>
@@ -20199,7 +18953,7 @@
       <c r="M23" s="19" t="n"/>
       <c r="AG23" s="27" t="n"/>
     </row>
-    <row r="24" ht="17" customHeight="1" s="100">
+    <row r="24" ht="17" customHeight="1" s="101">
       <c r="A24" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">mira la derecha </t>
@@ -20237,7 +18991,7 @@
       <c r="M24" s="19" t="n"/>
       <c r="AG24" s="27" t="n"/>
     </row>
-    <row r="25" ht="17" customHeight="1" s="100">
+    <row r="25" ht="17" customHeight="1" s="101">
       <c r="A25" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">giro a la derecha </t>
@@ -20275,7 +19029,7 @@
       <c r="M25" s="19" t="n"/>
       <c r="AG25" s="27" t="n"/>
     </row>
-    <row r="26" ht="17" customHeight="1" s="100">
+    <row r="26" ht="17" customHeight="1" s="101">
       <c r="A26" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">cambio de carril en la rotonda </t>
@@ -20313,7 +19067,7 @@
       <c r="M26" s="19" t="n"/>
       <c r="AG26" s="27" t="n"/>
     </row>
-    <row r="27" ht="17" customHeight="1" s="100">
+    <row r="27" ht="17" customHeight="1" s="101">
       <c r="A27" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">giro a la derecha </t>
@@ -20351,7 +19105,7 @@
       <c r="M27" s="19" t="n"/>
       <c r="AG27" s="27" t="n"/>
     </row>
-    <row r="28" ht="17" customHeight="1" s="100">
+    <row r="28" ht="17" customHeight="1" s="101">
       <c r="A28" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">salgo de la rotonda </t>
@@ -20389,7 +19143,7 @@
       <c r="M28" s="19" t="n"/>
       <c r="AG28" s="27" t="n"/>
     </row>
-    <row r="29" ht="17" customHeight="1" s="100">
+    <row r="29" ht="17" customHeight="1" s="101">
       <c r="A29" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">meto tercera </t>
@@ -20426,7 +19180,7 @@
       <c r="L29" s="19" t="n"/>
       <c r="M29" s="19" t="n"/>
     </row>
-    <row r="30" ht="17" customHeight="1" s="100">
+    <row r="30" ht="17" customHeight="1" s="101">
       <c r="A30" s="5" t="inlineStr">
         <is>
           <t>y quito el intermitente</t>
@@ -20470,7 +19224,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -20495,8 +19249,8 @@
     <col width="9.1640625" customWidth="1" style="18" min="12" max="13"/>
     <col width="10.83203125" customWidth="1" style="24" min="14" max="14"/>
     <col width="10.83203125" customWidth="1" style="26" min="15" max="15"/>
-    <col width="10.83203125" customWidth="1" style="17" min="16" max="16"/>
-    <col width="10.83203125" customWidth="1" style="17" min="17" max="16384"/>
+    <col width="10.83203125" customWidth="1" style="17" min="16" max="24"/>
+    <col width="10.83203125" customWidth="1" style="17" min="25" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -20505,7 +19259,7 @@
       </c>
       <c r="B1" s="89" t="n"/>
     </row>
-    <row r="2" ht="17" customHeight="1" s="100">
+    <row r="2" ht="17" customHeight="1" s="101">
       <c r="A2" s="10" t="inlineStr">
         <is>
           <t>Acciones verbalizadas</t>
@@ -20572,7 +19326,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="85" customHeight="1" s="100">
+    <row r="3" ht="85" customHeight="1" s="101">
       <c r="A3" s="7" t="inlineStr">
         <is>
           <t>ROTONDA 1</t>
@@ -20677,7 +19431,7 @@
       <c r="M4" s="19" t="n"/>
       <c r="O4" s="26" t="n"/>
     </row>
-    <row r="5" ht="17" customHeight="1" s="100">
+    <row r="5" ht="17" customHeight="1" s="101">
       <c r="A5" s="87" t="inlineStr">
         <is>
           <t xml:space="preserve">mantengo el acelerador </t>
@@ -20712,7 +19466,7 @@
       <c r="L5" s="19" t="n"/>
       <c r="M5" s="19" t="n"/>
     </row>
-    <row r="6" ht="17" customHeight="1" s="100">
+    <row r="6" ht="17" customHeight="1" s="101">
       <c r="A6" s="87" t="inlineStr">
         <is>
           <t xml:space="preserve">levanto el pie del acelerador </t>
@@ -20747,7 +19501,7 @@
       <c r="L6" s="19" t="n"/>
       <c r="M6" s="19" t="n"/>
     </row>
-    <row r="7" ht="17" customHeight="1" s="100">
+    <row r="7" ht="17" customHeight="1" s="101">
       <c r="A7" s="87" t="inlineStr">
         <is>
           <t xml:space="preserve">nos aproximamos a una rotonda </t>
@@ -20782,7 +19536,7 @@
       <c r="L7" s="19" t="n"/>
       <c r="M7" s="19" t="n"/>
     </row>
-    <row r="8" ht="17" customHeight="1" s="100">
+    <row r="8" ht="17" customHeight="1" s="101">
       <c r="A8" s="87" t="inlineStr">
         <is>
           <t xml:space="preserve">comienzo a frenar </t>
@@ -20817,7 +19571,7 @@
       <c r="L8" s="19" t="n"/>
       <c r="M8" s="19" t="n"/>
     </row>
-    <row r="9" ht="17" customHeight="1" s="100">
+    <row r="9" ht="17" customHeight="1" s="101">
       <c r="A9" s="87" t="inlineStr">
         <is>
           <t xml:space="preserve">cambio a segunda </t>
@@ -20852,7 +19606,7 @@
       <c r="L9" s="19" t="n"/>
       <c r="M9" s="19" t="n"/>
     </row>
-    <row r="10" ht="17" customHeight="1" s="100">
+    <row r="10" ht="17" customHeight="1" s="101">
       <c r="A10" s="87" t="inlineStr">
         <is>
           <t xml:space="preserve">retrovisor central </t>
@@ -20887,7 +19641,7 @@
       <c r="L10" s="19" t="n"/>
       <c r="M10" s="19" t="n"/>
     </row>
-    <row r="11" ht="17" customHeight="1" s="100">
+    <row r="11" ht="17" customHeight="1" s="101">
       <c r="A11" s="87" t="inlineStr">
         <is>
           <t xml:space="preserve">miro a la izquierda </t>
@@ -20922,7 +19676,7 @@
       <c r="L11" s="19" t="n"/>
       <c r="M11" s="19" t="n"/>
     </row>
-    <row r="12" ht="17" customHeight="1" s="100">
+    <row r="12" ht="17" customHeight="1" s="101">
       <c r="A12" s="87" t="inlineStr">
         <is>
           <t xml:space="preserve">intermitente a la izquierda </t>
@@ -20957,7 +19711,7 @@
       <c r="L12" s="19" t="n"/>
       <c r="M12" s="19" t="n"/>
     </row>
-    <row r="13" ht="17" customHeight="1" s="100">
+    <row r="13" ht="17" customHeight="1" s="101">
       <c r="A13" s="87" t="inlineStr">
         <is>
           <t xml:space="preserve">no viene nadie </t>
@@ -20992,7 +19746,7 @@
       <c r="L13" s="19" t="n"/>
       <c r="M13" s="19" t="n"/>
     </row>
-    <row r="14" ht="17" customHeight="1" s="100">
+    <row r="14" ht="17" customHeight="1" s="101">
       <c r="A14" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">entro en la rotonda </t>
@@ -21029,7 +19783,7 @@
       <c r="L14" s="19" t="n"/>
       <c r="M14" s="19" t="n"/>
     </row>
-    <row r="15" ht="17" customHeight="1" s="100">
+    <row r="15" ht="17" customHeight="1" s="101">
       <c r="A15" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">cambio al carril izquierdo de la rotonda </t>
@@ -21066,7 +19820,7 @@
       <c r="L15" s="19" t="n"/>
       <c r="M15" s="19" t="n"/>
     </row>
-    <row r="16" ht="17" customHeight="1" s="100">
+    <row r="16" ht="17" customHeight="1" s="101">
       <c r="A16" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">giro a la izquierda </t>
@@ -21103,7 +19857,7 @@
       <c r="L16" s="19" t="n"/>
       <c r="M16" s="19" t="n"/>
     </row>
-    <row r="17" ht="17" customHeight="1" s="100">
+    <row r="17" ht="17" customHeight="1" s="101">
       <c r="A17" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">mantengo el giro a la izquierda en la rotonda </t>
@@ -21140,7 +19894,7 @@
       <c r="L17" s="19" t="n"/>
       <c r="M17" s="19" t="n"/>
     </row>
-    <row r="18" ht="17" customHeight="1" s="100">
+    <row r="18" ht="17" customHeight="1" s="101">
       <c r="A18" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">intermitente la derecha </t>
@@ -21179,7 +19933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" ht="17" customHeight="1" s="100">
+    <row r="19" ht="17" customHeight="1" s="101">
       <c r="A19" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">miro la derecha </t>
@@ -21218,7 +19972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" ht="17" customHeight="1" s="100">
+    <row r="20" ht="17" customHeight="1" s="101">
       <c r="A20" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">retrovisor derecho </t>
@@ -21257,7 +20011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" ht="17" customHeight="1" s="100">
+    <row r="21" ht="17" customHeight="1" s="101">
       <c r="A21" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">giro a la derecha </t>
@@ -21294,7 +20048,7 @@
       <c r="L21" s="19" t="n"/>
       <c r="M21" s="19" t="n"/>
     </row>
-    <row r="22" ht="17" customHeight="1" s="100">
+    <row r="22" ht="17" customHeight="1" s="101">
       <c r="A22" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">cambio de carril derecho </t>
@@ -21331,7 +20085,7 @@
       <c r="L22" s="19" t="n"/>
       <c r="M22" s="19" t="n"/>
     </row>
-    <row r="23" ht="17" customHeight="1" s="100">
+    <row r="23" ht="17" customHeight="1" s="101">
       <c r="A23" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">salgo de la rotonda </t>
@@ -21366,7 +20120,7 @@
       <c r="L23" s="19" t="n"/>
       <c r="M23" s="19" t="n"/>
     </row>
-    <row r="24" ht="17" customHeight="1" s="100">
+    <row r="24" ht="17" customHeight="1" s="101">
       <c r="A24" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">giro a la derecha </t>
@@ -21401,7 +20155,7 @@
       <c r="L24" s="19" t="n"/>
       <c r="M24" s="19" t="n"/>
     </row>
-    <row r="25" ht="17" customHeight="1" s="100">
+    <row r="25" ht="17" customHeight="1" s="101">
       <c r="A25" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">cambio a tercera </t>
@@ -21436,7 +20190,7 @@
       <c r="L25" s="19" t="n"/>
       <c r="M25" s="19" t="n"/>
     </row>
-    <row r="26" ht="17" customHeight="1" s="100">
+    <row r="26" ht="17" customHeight="1" s="101">
       <c r="A26" s="5" t="inlineStr">
         <is>
           <t>quito el intermitente</t>
@@ -21611,7 +20365,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -21625,11 +20379,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col width="49.6640625" bestFit="1" customWidth="1" style="100" min="1" max="1"/>
-    <col width="11" bestFit="1" customWidth="1" style="100" min="2" max="2"/>
-    <col width="10.33203125" bestFit="1" customWidth="1" style="100" min="3" max="3"/>
-    <col width="12.6640625" customWidth="1" style="100" min="4" max="7"/>
-    <col width="13.83203125" customWidth="1" style="100" min="8" max="8"/>
+    <col width="49.6640625" bestFit="1" customWidth="1" style="101" min="1" max="1"/>
+    <col width="11" bestFit="1" customWidth="1" style="101" min="2" max="2"/>
+    <col width="10.33203125" bestFit="1" customWidth="1" style="101" min="3" max="3"/>
+    <col width="12.6640625" customWidth="1" style="101" min="4" max="7"/>
+    <col width="13.83203125" customWidth="1" style="101" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -21649,7 +20403,7 @@
       <c r="L1" s="18" t="n"/>
       <c r="M1" s="18" t="n"/>
     </row>
-    <row r="2" ht="17" customHeight="1" s="100">
+    <row r="2" ht="17" customHeight="1" s="101">
       <c r="A2" s="10" t="inlineStr">
         <is>
           <t>Acciones verbalizadas</t>
@@ -21716,7 +20470,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="68" customHeight="1" s="100">
+    <row r="3" ht="68" customHeight="1" s="101">
       <c r="A3" s="7" t="inlineStr">
         <is>
           <t>ROTONDA 1</t>
@@ -21785,7 +20539,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="17" customHeight="1" s="100">
+    <row r="4" ht="17" customHeight="1" s="101">
       <c r="A4" s="87" t="inlineStr">
         <is>
           <t xml:space="preserve">freno </t>
@@ -21827,7 +20581,7 @@
       <c r="M4" s="19" t="n"/>
       <c r="O4" s="26" t="n"/>
     </row>
-    <row r="5" ht="17" customHeight="1" s="100">
+    <row r="5" ht="17" customHeight="1" s="101">
       <c r="A5" s="87" t="inlineStr">
         <is>
           <t xml:space="preserve">llego a una rotonda </t>
@@ -21863,7 +20617,7 @@
       <c r="M5" s="19" t="n"/>
       <c r="O5" s="26" t="n"/>
     </row>
-    <row r="6" ht="17" customHeight="1" s="100">
+    <row r="6" ht="17" customHeight="1" s="101">
       <c r="A6" s="87" t="inlineStr">
         <is>
           <t xml:space="preserve">cambio a segunda </t>
@@ -21899,7 +20653,7 @@
       <c r="M6" s="19" t="n"/>
       <c r="O6" s="26" t="n"/>
     </row>
-    <row r="7" ht="17" customHeight="1" s="100">
+    <row r="7" ht="17" customHeight="1" s="101">
       <c r="A7" s="87" t="inlineStr">
         <is>
           <t>miro a la izquierda</t>
@@ -21935,7 +20689,7 @@
       <c r="M7" s="19" t="n"/>
       <c r="O7" s="26" t="n"/>
     </row>
-    <row r="8" ht="17" customHeight="1" s="100">
+    <row r="8" ht="17" customHeight="1" s="101">
       <c r="A8" s="87" t="inlineStr">
         <is>
           <t xml:space="preserve">no viene nadie </t>
@@ -21971,7 +20725,7 @@
       <c r="M8" s="19" t="n"/>
       <c r="O8" s="26" t="n"/>
     </row>
-    <row r="9" ht="17" customHeight="1" s="100">
+    <row r="9" ht="17" customHeight="1" s="101">
       <c r="A9" s="87" t="inlineStr">
         <is>
           <t xml:space="preserve">intermitente a la izquierda </t>
@@ -22009,7 +20763,7 @@
       <c r="M9" s="19" t="n"/>
       <c r="O9" s="26" t="n"/>
     </row>
-    <row r="10" ht="17" customHeight="1" s="100">
+    <row r="10" ht="17" customHeight="1" s="101">
       <c r="A10" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">entro en la rotonda </t>
@@ -22047,7 +20801,7 @@
       <c r="M10" s="19" t="n"/>
       <c r="O10" s="26" t="n"/>
     </row>
-    <row r="11" ht="17" customHeight="1" s="100">
+    <row r="11" ht="17" customHeight="1" s="101">
       <c r="A11" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">giro a la izquierda </t>
@@ -22085,7 +20839,7 @@
       <c r="M11" s="19" t="n"/>
       <c r="O11" s="26" t="n"/>
     </row>
-    <row r="12" ht="17" customHeight="1" s="100">
+    <row r="12" ht="17" customHeight="1" s="101">
       <c r="A12" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">cambio de carril a la izquierda </t>
@@ -22123,7 +20877,7 @@
       <c r="M12" s="19" t="n"/>
       <c r="O12" s="26" t="n"/>
     </row>
-    <row r="13" ht="17" customHeight="1" s="100">
+    <row r="13" ht="17" customHeight="1" s="101">
       <c r="A13" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">gire a la izquierda para hacer la rotonda </t>
@@ -22161,7 +20915,7 @@
       <c r="M13" s="19" t="n"/>
       <c r="O13" s="26" t="n"/>
     </row>
-    <row r="14" ht="17" customHeight="1" s="100">
+    <row r="14" ht="17" customHeight="1" s="101">
       <c r="A14" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">mantengo el giro a la izquierda </t>
@@ -22199,7 +20953,7 @@
       <c r="M14" s="19" t="n"/>
       <c r="O14" s="26" t="n"/>
     </row>
-    <row r="15" ht="17" customHeight="1" s="100">
+    <row r="15" ht="17" customHeight="1" s="101">
       <c r="A15" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">mantengo el giro a la izquierda  </t>
@@ -22237,7 +20991,7 @@
       <c r="M15" s="19" t="n"/>
       <c r="O15" s="26" t="n"/>
     </row>
-    <row r="16" ht="17" customHeight="1" s="100">
+    <row r="16" ht="17" customHeight="1" s="101">
       <c r="A16" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">intermitente a la derecha </t>
@@ -22275,7 +21029,7 @@
       <c r="M16" s="19" t="n"/>
       <c r="O16" s="26" t="n"/>
     </row>
-    <row r="17" ht="17" customHeight="1" s="100">
+    <row r="17" ht="17" customHeight="1" s="101">
       <c r="A17" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">miro a la derecha </t>
@@ -22313,7 +21067,7 @@
       <c r="M17" s="19" t="n"/>
       <c r="O17" s="26" t="n"/>
     </row>
-    <row r="18" ht="17" customHeight="1" s="100">
+    <row r="18" ht="17" customHeight="1" s="101">
       <c r="A18" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">no viene nadie </t>
@@ -22351,7 +21105,7 @@
       <c r="M18" s="19" t="n"/>
       <c r="O18" s="26" t="n"/>
     </row>
-    <row r="19" ht="17" customHeight="1" s="100">
+    <row r="19" ht="17" customHeight="1" s="101">
       <c r="A19" s="83" t="inlineStr">
         <is>
           <t xml:space="preserve">giro a la derecha para cambiar de carril en la rotonda </t>
@@ -22389,7 +21143,7 @@
       <c r="M19" s="19" t="n"/>
       <c r="O19" s="26" t="n"/>
     </row>
-    <row r="20" ht="17" customHeight="1" s="100">
+    <row r="20" ht="17" customHeight="1" s="101">
       <c r="A20" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">giro a la derecha para salir de la rotonda </t>
@@ -22425,7 +21179,7 @@
       <c r="M20" s="19" t="n"/>
       <c r="O20" s="26" t="n"/>
     </row>
-    <row r="21" ht="17" customHeight="1" s="100">
+    <row r="21" ht="17" customHeight="1" s="101">
       <c r="A21" s="81" t="inlineStr">
         <is>
           <t>acelero</t>
@@ -22461,7 +21215,7 @@
       <c r="M21" s="19" t="n"/>
       <c r="O21" s="26" t="n"/>
     </row>
-    <row r="22" ht="17" customHeight="1" s="100">
+    <row r="22" ht="17" customHeight="1" s="101">
       <c r="A22" s="81" t="inlineStr">
         <is>
           <t xml:space="preserve">quito el intermitente </t>
@@ -22497,7 +21251,7 @@
       <c r="M22" s="19" t="n"/>
       <c r="O22" s="26" t="n"/>
     </row>
-    <row r="23" ht="17" customHeight="1" s="100">
+    <row r="23" ht="17" customHeight="1" s="101">
       <c r="A23" s="81" t="inlineStr">
         <is>
           <t>cambio a tercera</t>
@@ -22536,963 +21290,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:O24"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col width="39.1640625" bestFit="1" customWidth="1" style="100" min="1" max="1"/>
-    <col width="10.5" bestFit="1" customWidth="1" style="100" min="2" max="2"/>
-    <col width="9.1640625" bestFit="1" customWidth="1" style="100" min="3" max="3"/>
-    <col width="10.6640625" customWidth="1" style="100" min="4" max="7"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="25" t="n">
-        <v>44342</v>
-      </c>
-      <c r="B1" s="89" t="n"/>
-      <c r="C1" s="17" t="n"/>
-      <c r="D1" s="17" t="n"/>
-      <c r="E1" s="17" t="n"/>
-      <c r="F1" s="17" t="n"/>
-      <c r="G1" s="18" t="n"/>
-      <c r="H1" s="18" t="n"/>
-      <c r="I1" s="18" t="n"/>
-      <c r="J1" s="18" t="n"/>
-      <c r="K1" s="18" t="n"/>
-      <c r="L1" s="18" t="n"/>
-      <c r="M1" s="18" t="n"/>
-    </row>
-    <row r="2" ht="17" customHeight="1" s="100">
-      <c r="A2" s="10" t="inlineStr">
-        <is>
-          <t>Acciones verbalizadas</t>
-        </is>
-      </c>
-      <c r="B2" s="10" t="inlineStr">
-        <is>
-          <t>x1</t>
-        </is>
-      </c>
-      <c r="C2" s="10" t="inlineStr">
-        <is>
-          <t>x2</t>
-        </is>
-      </c>
-      <c r="D2" s="10" t="inlineStr">
-        <is>
-          <t>x3</t>
-        </is>
-      </c>
-      <c r="E2" s="10" t="inlineStr">
-        <is>
-          <t>x4</t>
-        </is>
-      </c>
-      <c r="F2" s="10" t="inlineStr">
-        <is>
-          <t>x5</t>
-        </is>
-      </c>
-      <c r="G2" s="10" t="inlineStr">
-        <is>
-          <t>x6</t>
-        </is>
-      </c>
-      <c r="H2" s="10" t="inlineStr">
-        <is>
-          <t>x7</t>
-        </is>
-      </c>
-      <c r="I2" s="10" t="inlineStr">
-        <is>
-          <t>x8</t>
-        </is>
-      </c>
-      <c r="J2" s="10" t="inlineStr">
-        <is>
-          <t>x9</t>
-        </is>
-      </c>
-      <c r="K2" s="10" t="inlineStr">
-        <is>
-          <t>x10</t>
-        </is>
-      </c>
-      <c r="L2" s="10" t="inlineStr">
-        <is>
-          <t>x11</t>
-        </is>
-      </c>
-      <c r="M2" s="10" t="inlineStr">
-        <is>
-          <t>x12</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="85" customHeight="1" s="100">
-      <c r="A3" s="7" t="inlineStr">
-        <is>
-          <t>ROTONDA 1</t>
-        </is>
-      </c>
-      <c r="B3" s="7" t="inlineStr">
-        <is>
-          <t>Percepción</t>
-        </is>
-      </c>
-      <c r="C3" s="91" t="inlineStr">
-        <is>
-          <t>Acción</t>
-        </is>
-      </c>
-      <c r="D3" s="23" t="inlineStr">
-        <is>
-          <t>Distancia real al ceda el paso (metros)</t>
-        </is>
-      </c>
-      <c r="E3" s="23" t="inlineStr">
-        <is>
-          <t>Velocidad actual</t>
-        </is>
-      </c>
-      <c r="F3" s="23" t="inlineStr">
-        <is>
-          <t>Límie velocidad GoogleMaps API</t>
-        </is>
-      </c>
-      <c r="G3" s="23" t="inlineStr">
-        <is>
-          <t>Posición</t>
-        </is>
-      </c>
-      <c r="H3" s="33" t="inlineStr">
-        <is>
-          <t>Distancia con coche delante
-1 = media
-2 = cerca</t>
-        </is>
-      </c>
-      <c r="I3" s="43" t="inlineStr">
-        <is>
-          <t>Zi</t>
-        </is>
-      </c>
-      <c r="J3" s="44" t="inlineStr">
-        <is>
-          <t>Zc</t>
-        </is>
-      </c>
-      <c r="K3" s="45" t="inlineStr">
-        <is>
-          <t>Zd</t>
-        </is>
-      </c>
-      <c r="L3" s="22" t="inlineStr">
-        <is>
-          <t>Coche en Carril izquierdo</t>
-        </is>
-      </c>
-      <c r="M3" s="22" t="inlineStr">
-        <is>
-          <t>Coche en Carril derecho</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="17" customHeight="1" s="100">
-      <c r="A4" s="87" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> levanto el pie del acelerador</t>
-        </is>
-      </c>
-      <c r="B4" s="87" t="n"/>
-      <c r="C4" s="87" t="inlineStr">
-        <is>
-          <t>T-OFF</t>
-        </is>
-      </c>
-      <c r="D4" s="60" t="n">
-        <v>220</v>
-      </c>
-      <c r="E4" s="61" t="n">
-        <v>65.02</v>
-      </c>
-      <c r="F4" s="60" t="n">
-        <v>70</v>
-      </c>
-      <c r="G4" s="13" t="inlineStr">
-        <is>
-          <t>Aprox</t>
-        </is>
-      </c>
-      <c r="H4" s="20" t="n"/>
-      <c r="I4" s="21" t="n"/>
-      <c r="J4" s="21" t="n"/>
-      <c r="K4" s="21" t="n"/>
-      <c r="L4" s="19" t="n"/>
-      <c r="M4" s="19" t="n"/>
-      <c r="O4" s="26" t="n"/>
-    </row>
-    <row r="5" ht="17" customHeight="1" s="100">
-      <c r="A5" s="87" t="inlineStr">
-        <is>
-          <t xml:space="preserve">cambio tercera </t>
-        </is>
-      </c>
-      <c r="B5" s="87" t="n"/>
-      <c r="C5" s="87" t="inlineStr">
-        <is>
-          <t>GD</t>
-        </is>
-      </c>
-      <c r="D5" s="60" t="n">
-        <v>140</v>
-      </c>
-      <c r="E5" s="61" t="n">
-        <v>53.76</v>
-      </c>
-      <c r="F5" s="60" t="n">
-        <v>60</v>
-      </c>
-      <c r="G5" s="13" t="inlineStr">
-        <is>
-          <t>Aprox</t>
-        </is>
-      </c>
-      <c r="H5" s="20" t="n"/>
-      <c r="I5" s="21" t="n"/>
-      <c r="J5" s="21" t="n"/>
-      <c r="K5" s="21" t="n"/>
-      <c r="L5" s="19" t="n"/>
-      <c r="M5" s="19" t="n"/>
-      <c r="O5" s="26" t="n"/>
-    </row>
-    <row r="6" ht="17" customHeight="1" s="100">
-      <c r="A6" s="87" t="inlineStr">
-        <is>
-          <t xml:space="preserve">me preparo para la rotonda </t>
-        </is>
-      </c>
-      <c r="B6" s="87" t="n"/>
-      <c r="C6" s="87" t="inlineStr">
-        <is>
-          <t>RND-MD</t>
-        </is>
-      </c>
-      <c r="D6" s="60" t="n">
-        <v>110</v>
-      </c>
-      <c r="E6" s="61" t="n">
-        <v>49.24</v>
-      </c>
-      <c r="F6" s="60" t="n">
-        <v>60</v>
-      </c>
-      <c r="G6" s="13" t="inlineStr">
-        <is>
-          <t>Aprox</t>
-        </is>
-      </c>
-      <c r="H6" s="20" t="n"/>
-      <c r="I6" s="21" t="n"/>
-      <c r="J6" s="21" t="n"/>
-      <c r="K6" s="21" t="n"/>
-      <c r="L6" s="19" t="n"/>
-      <c r="M6" s="19" t="n"/>
-      <c r="O6" s="26" t="n"/>
-    </row>
-    <row r="7" ht="17" customHeight="1" s="100">
-      <c r="A7" s="87" t="inlineStr">
-        <is>
-          <t xml:space="preserve">freno </t>
-        </is>
-      </c>
-      <c r="B7" s="87" t="n"/>
-      <c r="C7" s="87" t="inlineStr">
-        <is>
-          <t>B-ON</t>
-        </is>
-      </c>
-      <c r="D7" s="60" t="n">
-        <v>100</v>
-      </c>
-      <c r="E7" s="61" t="n">
-        <v>48.66</v>
-      </c>
-      <c r="F7" s="60" t="n">
-        <v>60</v>
-      </c>
-      <c r="G7" s="13" t="inlineStr">
-        <is>
-          <t>Aprox</t>
-        </is>
-      </c>
-      <c r="H7" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="21" t="n"/>
-      <c r="J7" s="21" t="n"/>
-      <c r="K7" s="21" t="n"/>
-      <c r="L7" s="19" t="n"/>
-      <c r="M7" s="19" t="n"/>
-      <c r="O7" s="26" t="n"/>
-    </row>
-    <row r="8" ht="17" customHeight="1" s="100">
-      <c r="A8" s="87" t="inlineStr">
-        <is>
-          <t xml:space="preserve">cambio segunda </t>
-        </is>
-      </c>
-      <c r="B8" s="87" t="n"/>
-      <c r="C8" s="87" t="inlineStr">
-        <is>
-          <t>GD</t>
-        </is>
-      </c>
-      <c r="D8" s="60" t="n">
-        <v>37</v>
-      </c>
-      <c r="E8" s="61" t="n">
-        <v>38.51</v>
-      </c>
-      <c r="F8" s="60" t="n">
-        <v>40</v>
-      </c>
-      <c r="G8" s="13" t="inlineStr">
-        <is>
-          <t>Aprox</t>
-        </is>
-      </c>
-      <c r="H8" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="21" t="n"/>
-      <c r="J8" s="21" t="n"/>
-      <c r="K8" s="21" t="n"/>
-      <c r="L8" s="19" t="n"/>
-      <c r="M8" s="19" t="n"/>
-      <c r="O8" s="26" t="n"/>
-    </row>
-    <row r="9" ht="17" customHeight="1" s="100">
-      <c r="A9" s="87" t="inlineStr">
-        <is>
-          <t xml:space="preserve">intermitente a la izquierda </t>
-        </is>
-      </c>
-      <c r="B9" s="87" t="n"/>
-      <c r="C9" s="87" t="inlineStr">
-        <is>
-          <t>LB-ON</t>
-        </is>
-      </c>
-      <c r="D9" s="60" t="n">
-        <v>28</v>
-      </c>
-      <c r="E9" s="61" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="F9" s="60" t="n">
-        <v>40</v>
-      </c>
-      <c r="G9" s="13" t="inlineStr">
-        <is>
-          <t>Aprox</t>
-        </is>
-      </c>
-      <c r="H9" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" s="21" t="n"/>
-      <c r="J9" s="21" t="n"/>
-      <c r="K9" s="21" t="n"/>
-      <c r="L9" s="19" t="n"/>
-      <c r="M9" s="19" t="n"/>
-      <c r="O9" s="26" t="n"/>
-    </row>
-    <row r="10" ht="17" customHeight="1" s="100">
-      <c r="A10" s="87" t="inlineStr">
-        <is>
-          <t xml:space="preserve">mira izquierda </t>
-        </is>
-      </c>
-      <c r="B10" s="87" t="inlineStr">
-        <is>
-          <t>LV-FREE</t>
-        </is>
-      </c>
-      <c r="C10" s="87" t="n"/>
-      <c r="D10" s="60" t="n">
-        <v>20</v>
-      </c>
-      <c r="E10" s="61" t="n">
-        <v>28.19</v>
-      </c>
-      <c r="F10" s="60" t="n">
-        <v>40</v>
-      </c>
-      <c r="G10" s="13" t="inlineStr">
-        <is>
-          <t>Aprox</t>
-        </is>
-      </c>
-      <c r="H10" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" s="21" t="n"/>
-      <c r="J10" s="21" t="n"/>
-      <c r="K10" s="21" t="n"/>
-      <c r="L10" s="19" t="n"/>
-      <c r="M10" s="19" t="n"/>
-      <c r="O10" s="26" t="n"/>
-    </row>
-    <row r="11" ht="17" customHeight="1" s="100">
-      <c r="A11" s="87" t="inlineStr">
-        <is>
-          <t xml:space="preserve">mira la izquierda </t>
-        </is>
-      </c>
-      <c r="B11" s="87" t="inlineStr">
-        <is>
-          <t>L-FREE</t>
-        </is>
-      </c>
-      <c r="C11" s="87" t="n"/>
-      <c r="D11" s="60" t="n">
-        <v>8</v>
-      </c>
-      <c r="E11" s="61" t="n">
-        <v>19.88</v>
-      </c>
-      <c r="F11" s="60" t="n">
-        <v>40</v>
-      </c>
-      <c r="G11" s="13" t="inlineStr">
-        <is>
-          <t>Aprox</t>
-        </is>
-      </c>
-      <c r="H11" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" s="21" t="n"/>
-      <c r="J11" s="21" t="n"/>
-      <c r="K11" s="21" t="n"/>
-      <c r="L11" s="19" t="n"/>
-      <c r="M11" s="19" t="n"/>
-      <c r="O11" s="26" t="n"/>
-    </row>
-    <row r="12" ht="17" customHeight="1" s="100">
-      <c r="A12" s="87" t="inlineStr">
-        <is>
-          <t xml:space="preserve">no viene nadie </t>
-        </is>
-      </c>
-      <c r="B12" s="87" t="inlineStr">
-        <is>
-          <t>L-FREE</t>
-        </is>
-      </c>
-      <c r="C12" s="87" t="n"/>
-      <c r="D12" s="60" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E12" s="61" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="F12" s="60" t="n">
-        <v>40</v>
-      </c>
-      <c r="G12" s="13" t="inlineStr">
-        <is>
-          <t>Aprox</t>
-        </is>
-      </c>
-      <c r="H12" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" s="21" t="n"/>
-      <c r="J12" s="21" t="n"/>
-      <c r="K12" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" s="19" t="n"/>
-      <c r="M12" s="19" t="n"/>
-      <c r="O12" s="26" t="n"/>
-    </row>
-    <row r="13" ht="17" customHeight="1" s="100">
-      <c r="A13" s="83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">entro en la rotonda </t>
-        </is>
-      </c>
-      <c r="B13" s="83" t="n"/>
-      <c r="C13" s="83" t="inlineStr">
-        <is>
-          <t>RND-IN</t>
-        </is>
-      </c>
-      <c r="D13" s="52" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E13" s="62" t="n">
-        <v>24.34</v>
-      </c>
-      <c r="F13" s="52" t="n">
-        <v>40</v>
-      </c>
-      <c r="G13" s="52" t="inlineStr">
-        <is>
-          <t>Dentro</t>
-        </is>
-      </c>
-      <c r="H13" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" s="21" t="n"/>
-      <c r="J13" s="21" t="n"/>
-      <c r="K13" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" s="19" t="n"/>
-      <c r="M13" s="19" t="n"/>
-      <c r="O13" s="26" t="n"/>
-    </row>
-    <row r="14" ht="17" customHeight="1" s="100">
-      <c r="A14" s="83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">cambio de carril a la izquierda en la rotonda </t>
-        </is>
-      </c>
-      <c r="B14" s="83" t="n"/>
-      <c r="C14" s="83" t="inlineStr">
-        <is>
-          <t>CHG-L</t>
-        </is>
-      </c>
-      <c r="D14" s="52" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E14" s="62" t="n">
-        <v>25.25</v>
-      </c>
-      <c r="F14" s="52" t="n">
-        <v>40</v>
-      </c>
-      <c r="G14" s="52" t="inlineStr">
-        <is>
-          <t>Dentro</t>
-        </is>
-      </c>
-      <c r="H14" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" s="21" t="n"/>
-      <c r="J14" s="21" t="n"/>
-      <c r="K14" s="21" t="n"/>
-      <c r="L14" s="19" t="n"/>
-      <c r="M14" s="19" t="n"/>
-      <c r="O14" s="26" t="n"/>
-    </row>
-    <row r="15" ht="17" customHeight="1" s="100">
-      <c r="A15" s="83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">giro a la izquierda en la rotonda </t>
-        </is>
-      </c>
-      <c r="B15" s="83" t="n"/>
-      <c r="C15" s="85" t="inlineStr">
-        <is>
-          <t>TRN-L</t>
-        </is>
-      </c>
-      <c r="D15" s="52" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E15" s="62" t="n">
-        <v>26.02</v>
-      </c>
-      <c r="F15" s="52" t="n">
-        <v>40</v>
-      </c>
-      <c r="G15" s="52" t="inlineStr">
-        <is>
-          <t>Dentro</t>
-        </is>
-      </c>
-      <c r="H15" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" s="21" t="n"/>
-      <c r="J15" s="21" t="n"/>
-      <c r="K15" s="21" t="n"/>
-      <c r="L15" s="19" t="n"/>
-      <c r="M15" s="19" t="n"/>
-      <c r="O15" s="26" t="n"/>
-    </row>
-    <row r="16" ht="17" customHeight="1" s="100">
-      <c r="A16" s="83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">mantengo el giro a la izquierda en la rotonda </t>
-        </is>
-      </c>
-      <c r="B16" s="83" t="n"/>
-      <c r="C16" s="83" t="inlineStr">
-        <is>
-          <t>TRN-L</t>
-        </is>
-      </c>
-      <c r="D16" s="52" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E16" s="62" t="n">
-        <v>24.06</v>
-      </c>
-      <c r="F16" s="52" t="n">
-        <v>40</v>
-      </c>
-      <c r="G16" s="52" t="inlineStr">
-        <is>
-          <t>Dentro</t>
-        </is>
-      </c>
-      <c r="H16" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" s="21" t="n"/>
-      <c r="J16" s="21" t="n"/>
-      <c r="K16" s="21" t="n"/>
-      <c r="L16" s="19" t="n"/>
-      <c r="M16" s="19" t="n"/>
-      <c r="O16" s="26" t="n"/>
-    </row>
-    <row r="17" ht="17" customHeight="1" s="100">
-      <c r="A17" s="83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">intermitente a la derecha en la rotonda </t>
-        </is>
-      </c>
-      <c r="B17" s="83" t="n"/>
-      <c r="C17" s="83" t="inlineStr">
-        <is>
-          <t>RB-ON</t>
-        </is>
-      </c>
-      <c r="D17" s="52" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E17" s="62" t="n">
-        <v>21.96</v>
-      </c>
-      <c r="F17" s="52" t="n">
-        <v>40</v>
-      </c>
-      <c r="G17" s="52" t="inlineStr">
-        <is>
-          <t>Dentro</t>
-        </is>
-      </c>
-      <c r="H17" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" s="21" t="n"/>
-      <c r="J17" s="21" t="n"/>
-      <c r="K17" s="21" t="n"/>
-      <c r="L17" s="19" t="n"/>
-      <c r="M17" s="19" t="n"/>
-      <c r="O17" s="26" t="n"/>
-    </row>
-    <row r="18" ht="17" customHeight="1" s="100">
-      <c r="A18" s="83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">retrovisor central </t>
-        </is>
-      </c>
-      <c r="B18" s="83" t="inlineStr">
-        <is>
-          <t>BK-FREE</t>
-        </is>
-      </c>
-      <c r="C18" s="83" t="n"/>
-      <c r="D18" s="52" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E18" s="62" t="n">
-        <v>18.91</v>
-      </c>
-      <c r="F18" s="52" t="n">
-        <v>40</v>
-      </c>
-      <c r="G18" s="52" t="inlineStr">
-        <is>
-          <t>Dentro</t>
-        </is>
-      </c>
-      <c r="H18" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" s="21" t="n"/>
-      <c r="J18" s="21" t="n"/>
-      <c r="K18" s="21" t="n"/>
-      <c r="L18" s="19" t="n"/>
-      <c r="M18" s="19" t="n"/>
-      <c r="O18" s="26" t="n"/>
-    </row>
-    <row r="19" ht="17" customHeight="1" s="100">
-      <c r="A19" s="83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">retrovisor derecho </t>
-        </is>
-      </c>
-      <c r="B19" s="83" t="inlineStr">
-        <is>
-          <t>RV-FREE</t>
-        </is>
-      </c>
-      <c r="C19" s="83" t="n"/>
-      <c r="D19" s="52" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E19" s="62" t="n">
-        <v>23.99</v>
-      </c>
-      <c r="F19" s="52" t="n">
-        <v>40</v>
-      </c>
-      <c r="G19" s="52" t="inlineStr">
-        <is>
-          <t>Dentro</t>
-        </is>
-      </c>
-      <c r="H19" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" s="21" t="n"/>
-      <c r="J19" s="21" t="n"/>
-      <c r="K19" s="21" t="n"/>
-      <c r="L19" s="19" t="n"/>
-      <c r="M19" s="19" t="n"/>
-      <c r="O19" s="26" t="n"/>
-    </row>
-    <row r="20" ht="17" customHeight="1" s="100">
-      <c r="A20" s="83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">giro a la derecha para cambiar de carril </t>
-        </is>
-      </c>
-      <c r="B20" s="83" t="n"/>
-      <c r="C20" s="83" t="inlineStr">
-        <is>
-          <t>CHG-R</t>
-        </is>
-      </c>
-      <c r="D20" s="52" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E20" s="62" t="n">
-        <v>30.19</v>
-      </c>
-      <c r="F20" s="52" t="n">
-        <v>40</v>
-      </c>
-      <c r="G20" s="52" t="inlineStr">
-        <is>
-          <t>Dentro</t>
-        </is>
-      </c>
-      <c r="H20" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="21" t="n"/>
-      <c r="J20" s="21" t="n"/>
-      <c r="K20" s="21" t="n"/>
-      <c r="L20" s="19" t="n"/>
-      <c r="M20" s="19" t="n"/>
-      <c r="O20" s="26" t="n"/>
-    </row>
-    <row r="21" ht="17" customHeight="1" s="100">
-      <c r="A21" s="83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">giro a la derecha para salir de la rotonda </t>
-        </is>
-      </c>
-      <c r="B21" s="83" t="n"/>
-      <c r="C21" s="83" t="inlineStr">
-        <is>
-          <t>RND-OUT</t>
-        </is>
-      </c>
-      <c r="D21" s="52" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E21" s="62" t="n">
-        <v>35.51</v>
-      </c>
-      <c r="F21" s="52" t="n">
-        <v>40</v>
-      </c>
-      <c r="G21" s="52" t="inlineStr">
-        <is>
-          <t>Dentro</t>
-        </is>
-      </c>
-      <c r="H21" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="21" t="n"/>
-      <c r="J21" s="21" t="n"/>
-      <c r="K21" s="21" t="n"/>
-      <c r="L21" s="19" t="n"/>
-      <c r="M21" s="19" t="n"/>
-      <c r="O21" s="26" t="n"/>
-    </row>
-    <row r="22" ht="17" customHeight="1" s="100">
-      <c r="A22" s="81" t="inlineStr">
-        <is>
-          <t xml:space="preserve">quito el intermitente </t>
-        </is>
-      </c>
-      <c r="B22" s="81" t="n"/>
-      <c r="C22" s="81" t="inlineStr">
-        <is>
-          <t>RB-OFF</t>
-        </is>
-      </c>
-      <c r="D22" s="65" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E22" s="63" t="n">
-        <v>44.22</v>
-      </c>
-      <c r="F22" s="65" t="n">
-        <v>40</v>
-      </c>
-      <c r="G22" s="59" t="inlineStr">
-        <is>
-          <t>Saliendo</t>
-        </is>
-      </c>
-      <c r="H22" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" s="21" t="n"/>
-      <c r="J22" s="21" t="n"/>
-      <c r="K22" s="21" t="n"/>
-      <c r="L22" s="19" t="n"/>
-      <c r="M22" s="19" t="n"/>
-      <c r="O22" s="26" t="n"/>
-    </row>
-    <row r="23" ht="17" customHeight="1" s="100">
-      <c r="A23" s="81" t="inlineStr">
-        <is>
-          <t xml:space="preserve">acelero </t>
-        </is>
-      </c>
-      <c r="B23" s="81" t="n"/>
-      <c r="C23" s="81" t="inlineStr">
-        <is>
-          <t>T-ON</t>
-        </is>
-      </c>
-      <c r="D23" s="65" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E23" s="63" t="n">
-        <v>46.48</v>
-      </c>
-      <c r="F23" s="65" t="n">
-        <v>40</v>
-      </c>
-      <c r="G23" s="59" t="inlineStr">
-        <is>
-          <t>Saliendo</t>
-        </is>
-      </c>
-      <c r="H23" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" s="21" t="n"/>
-      <c r="J23" s="21" t="n"/>
-      <c r="K23" s="21" t="n"/>
-      <c r="L23" s="19" t="n"/>
-      <c r="M23" s="19" t="n"/>
-      <c r="O23" s="26" t="n"/>
-    </row>
-    <row r="24" ht="17" customHeight="1" s="100">
-      <c r="A24" s="81" t="inlineStr">
-        <is>
-          <t>cambio a tercera</t>
-        </is>
-      </c>
-      <c r="B24" s="81" t="n"/>
-      <c r="C24" s="81" t="inlineStr">
-        <is>
-          <t>GU</t>
-        </is>
-      </c>
-      <c r="D24" s="65" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E24" s="63" t="n">
-        <v>51.67</v>
-      </c>
-      <c r="F24" s="65" t="n">
-        <v>40</v>
-      </c>
-      <c r="G24" s="59" t="inlineStr">
-        <is>
-          <t>Saliendo</t>
-        </is>
-      </c>
-      <c r="H24" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" s="21" t="n"/>
-      <c r="J24" s="21" t="n"/>
-      <c r="K24" s="21" t="n"/>
-      <c r="L24" s="19" t="n"/>
-      <c r="M24" s="19" t="n"/>
-      <c r="O24" s="26" t="n"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>